--- a/keepers 2022 (Oct  13 Edition).xlsx
+++ b/keepers 2022 (Oct  13 Edition).xlsx
@@ -21,8 +21,12 @@
     <sheet name="Sheet5" sheetId="11" state="hidden" r:id="rId12"/>
     <sheet name="Sheet6" sheetId="12" state="hidden" r:id="rId13"/>
     <sheet name="2022 leaders" sheetId="13" state="visible" r:id="rId14"/>
+    <sheet name="Pivot Table_2022 leaders_1" sheetId="14" state="visible" r:id="rId15"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
+  <pivotCaches>
+    <pivotCache cacheId="1" r:id="rId17"/>
+  </pivotCaches>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="ExcelA1"/>
@@ -32,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2187" uniqueCount="606">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2203" uniqueCount="608">
   <si>
     <t xml:space="preserve">2008/2009</t>
   </si>
@@ -1900,6 +1904,12 @@
       <t xml:space="preserve">st</t>
     </r>
   </si>
+  <si>
+    <t xml:space="preserve">Data</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Total Result</t>
+  </si>
 </sst>
 </file>
 
@@ -1912,7 +1922,7 @@
     <numFmt numFmtId="167" formatCode="yyyy/mm/dd"/>
     <numFmt numFmtId="168" formatCode="yyyy/mm/dd"/>
   </numFmts>
-  <fonts count="28">
+  <fonts count="29">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -2117,6 +2127,11 @@
       <family val="2"/>
       <charset val="1"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="15">
     <fill>
@@ -2182,7 +2197,7 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFBFBFBF"/>
-        <bgColor rgb="FFCCCCFF"/>
+        <bgColor rgb="FFB3B3B3"/>
       </patternFill>
     </fill>
     <fill>
@@ -2204,7 +2219,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="8">
+  <borders count="18">
     <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right/>
@@ -2269,6 +2284,76 @@
       </bottom>
       <diagonal/>
     </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left style="medium"/>
+      <right style="thin"/>
+      <top style="medium"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left/>
+      <right/>
+      <top style="medium"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left/>
+      <right style="medium"/>
+      <top style="medium"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left style="medium"/>
+      <right/>
+      <top/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left style="thin"/>
+      <right style="medium"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left style="medium"/>
+      <right/>
+      <top style="thin"/>
+      <bottom style="medium"/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left/>
+      <right/>
+      <top style="thin"/>
+      <bottom style="medium"/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="medium"/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left style="thin"/>
+      <right style="medium"/>
+      <top style="thin"/>
+      <bottom style="medium"/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="26">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
@@ -2313,7 +2398,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="110">
+  <cellXfs count="120">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -2754,6 +2839,46 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="8" xfId="22" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="9" xfId="20" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="10" xfId="20" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="11" xfId="23" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="12" xfId="23" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="13" xfId="24" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="14" xfId="21" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="15" xfId="21" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="16" xfId="21" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="17" xfId="25" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
   </cellXfs>
   <cellStyles count="12">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2794,7 +2919,7 @@
       <rgbColor rgb="FF660066"/>
       <rgbColor rgb="FFFF8080"/>
       <rgbColor rgb="FF0070C0"/>
-      <rgbColor rgb="FFCCCCFF"/>
+      <rgbColor rgb="FFB3B3B3"/>
       <rgbColor rgb="FF000080"/>
       <rgbColor rgb="FFFF00FF"/>
       <rgbColor rgb="FFFFFF00"/>
@@ -2819,7 +2944,7 @@
       <rgbColor rgb="FFC55A11"/>
       <rgbColor rgb="FF666699"/>
       <rgbColor rgb="FFA3A3A3"/>
-      <rgbColor rgb="FF003366"/>
+      <rgbColor rgb="FF004586"/>
       <rgbColor rgb="FF00B050"/>
       <rgbColor rgb="FF1B232C"/>
       <rgbColor rgb="FF212529"/>
@@ -2830,6 +2955,410 @@
     </indexedColors>
   </colors>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="004586"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:txPr>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                    <a:latin typeface="Arial"/>
+                  </a:defRPr>
+                </a:pPr>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:separator> </c:separator>
+            <c:showLeaderLines val="0"/>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'2022 leaders'!$E$2:$E$14</c:f>
+              <c:strCache>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>Patrick</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Harrington</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Martin</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Symmington</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Anthony</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Duggan</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Duncan</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Egan</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Jadrian</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Kevin</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>Kurtis</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>Maran</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>Mulvihill</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'2022 leaders'!$F$2:$F$14</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:gapWidth val="100"/>
+        <c:overlap val="0"/>
+        <c:axId val="37816410"/>
+        <c:axId val="50874371"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="37816410"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln>
+            <a:solidFill>
+              <a:srgbClr val="b3b3b3"/>
+            </a:solidFill>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                <a:latin typeface="Arial"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="50874371"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="50874371"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:srgbClr val="b3b3b3"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln>
+            <a:solidFill>
+              <a:srgbClr val="b3b3b3"/>
+            </a:solidFill>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                <a:latin typeface="Arial"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="37816410"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="b3b3b3"/>
+          </a:solidFill>
+        </a:ln>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:srgbClr val="ffffff"/>
+    </a:solidFill>
+    <a:ln>
+      <a:noFill/>
+    </a:ln>
+  </c:spPr>
+</c:chartSpace>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>28080</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>19800</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>98280</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>104760</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame>
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="0" name=""/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="5826240" y="376560"/>
+        <a:ext cx="5759640" cy="3239640"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" recordCount="13" createdVersion="3">
+  <cacheSource type="worksheet">
+    <worksheetSource ref="E1:F14" sheet="2022 leaders"/>
+  </cacheSource>
+  <cacheFields count="2">
+    <cacheField name="GM" numFmtId="0">
+      <sharedItems count="13">
+        <s v="Anthony"/>
+        <s v="Duggan"/>
+        <s v="Duncan"/>
+        <s v="Egan"/>
+        <s v="Harrington"/>
+        <s v="Jadrian"/>
+        <s v="Kevin"/>
+        <s v="Kurtis"/>
+        <s v="Maran"/>
+        <s v="Martin"/>
+        <s v="Mulvihill"/>
+        <s v="Patrick"/>
+        <s v="Symmington"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="Days in 1st" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="0" maxValue="4" count="3">
+        <n v="0"/>
+        <n v="1"/>
+        <n v="4"/>
+      </sharedItems>
+    </cacheField>
+  </cacheFields>
+</pivotCacheDefinition>
+</file>
+
+<file path=xl/pivotCache/pivotCacheRecords1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" count="13">
+  <r>
+    <x v="11"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="12"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="5"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="6"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="7"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="8"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="10"/>
+    <x v="0"/>
+  </r>
+</pivotCacheRecords>
+</file>
+
+<file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="DataPilot1" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0" dataCaption="Values" useAutoFormatting="0" itemPrintTitles="1" indent="0" outline="0" outlineData="0" compact="0" compactData="0">
+  <location ref="A1:N3" firstHeaderRow="1" firstDataRow="2" firstDataCol="0"/>
+  <pivotFields count="2">
+    <pivotField axis="axisCol" compact="0" showAll="0" defaultSubtotal="0" outline="0">
+      <items count="13">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item x="5"/>
+        <item x="6"/>
+        <item x="7"/>
+        <item x="8"/>
+        <item x="9"/>
+        <item x="10"/>
+        <item x="11"/>
+        <item x="12"/>
+      </items>
+    </pivotField>
+    <pivotField dataField="1" compact="0" showAll="0" outline="0"/>
+  </pivotFields>
+  <colFields count="1">
+    <field x="0"/>
+  </colFields>
+  <dataFields count="1">
+    <dataField name="Sum - Days in 1st" fld="1" subtotal="sum" numFmtId="164"/>
+  </dataFields>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+</pivotTableDefinition>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -7889,7 +8418,7 @@
   <dimension ref="A1:F200"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D12" activeCellId="0" sqref="D12"/>
+      <selection pane="topLeft" activeCell="C23" activeCellId="0" sqref="C23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14453125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -7922,7 +8451,7 @@
         <v>306</v>
       </c>
       <c r="F2" s="0" t="n">
-        <f aca="false">COUNTIF(B1:B400,"Patrick")</f>
+        <f aca="false">COUNTIF(B$1:B400,"Patrick")</f>
         <v>4</v>
       </c>
     </row>
@@ -7937,8 +8466,8 @@
         <v>307</v>
       </c>
       <c r="F3" s="0" t="n">
-        <f aca="false">COUNTIF(B2:B401,"Harrington")</f>
-        <v>0</v>
+        <f aca="false">COUNTIF(B$1:B401,"Harrington")</f>
+        <v>1</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7949,10 +8478,10 @@
         <v>306</v>
       </c>
       <c r="E4" s="0" t="s">
-        <v>305</v>
+        <v>218</v>
       </c>
       <c r="F4" s="0" t="n">
-        <f aca="false">COUNTIF(B3:B402,"Symmington")</f>
+        <f aca="false">COUNTIF($B$1:B402,"Martin")</f>
         <v>1</v>
       </c>
     </row>
@@ -7964,11 +8493,11 @@
         <v>305</v>
       </c>
       <c r="E5" s="0" t="s">
-        <v>229</v>
+        <v>305</v>
       </c>
       <c r="F5" s="0" t="n">
-        <f aca="false">COUNTIF(B1:B403,"Anthony")</f>
-        <v>0</v>
+        <f aca="false">COUNTIF(B$2:B403,"Symmington")</f>
+        <v>1</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7979,10 +8508,10 @@
         <v>306</v>
       </c>
       <c r="E6" s="0" t="s">
-        <v>304</v>
+        <v>229</v>
       </c>
       <c r="F6" s="0" t="n">
-        <f aca="false">COUNTIF(B1:B404,"Duggan")</f>
+        <f aca="false">COUNTIF(B$1:B404,"Anthony")</f>
         <v>0</v>
       </c>
     </row>
@@ -7991,11 +8520,14 @@
         <f aca="false">A6+1</f>
         <v>44848</v>
       </c>
+      <c r="B7" s="0" t="s">
+        <v>218</v>
+      </c>
       <c r="E7" s="0" t="s">
-        <v>187</v>
+        <v>304</v>
       </c>
       <c r="F7" s="0" t="n">
-        <f aca="false">COUNTIF(B1:B405,"Duncan")</f>
+        <f aca="false">COUNTIF(B$1:B405,"Duggan")</f>
         <v>0</v>
       </c>
     </row>
@@ -8005,10 +8537,10 @@
         <v>44849</v>
       </c>
       <c r="E8" s="0" t="s">
-        <v>204</v>
+        <v>187</v>
       </c>
       <c r="F8" s="0" t="n">
-        <f aca="false">COUNTIF(B4:B406,"Egan")</f>
+        <f aca="false">COUNTIF(B$1:B406,"Duncan")</f>
         <v>0</v>
       </c>
     </row>
@@ -8018,10 +8550,10 @@
         <v>44850</v>
       </c>
       <c r="E9" s="0" t="s">
-        <v>164</v>
+        <v>204</v>
       </c>
       <c r="F9" s="0" t="n">
-        <f aca="false">COUNTIF(B1:B407,"Jadrian")</f>
+        <f aca="false">COUNTIF(B$1:B407,"Egan")</f>
         <v>0</v>
       </c>
     </row>
@@ -8031,10 +8563,10 @@
         <v>44851</v>
       </c>
       <c r="E10" s="0" t="s">
-        <v>249</v>
+        <v>164</v>
       </c>
       <c r="F10" s="0" t="n">
-        <f aca="false">COUNTIF(B1:B408,"Kevin")</f>
+        <f aca="false">COUNTIF(B$1:B408,"Jadrian")</f>
         <v>0</v>
       </c>
     </row>
@@ -8044,10 +8576,10 @@
         <v>44852</v>
       </c>
       <c r="E11" s="0" t="s">
-        <v>266</v>
+        <v>249</v>
       </c>
       <c r="F11" s="0" t="n">
-        <f aca="false">COUNTIF(B1:B409,"Kurtis")</f>
+        <f aca="false">COUNTIF(B$1:B409,"Kevin")</f>
         <v>0</v>
       </c>
     </row>
@@ -8057,10 +8589,10 @@
         <v>44853</v>
       </c>
       <c r="E12" s="0" t="s">
-        <v>238</v>
+        <v>266</v>
       </c>
       <c r="F12" s="0" t="n">
-        <f aca="false">COUNTIF(B4:B410,"Maran")</f>
+        <f aca="false">COUNTIF(B$1:B410,"Kurtis")</f>
         <v>0</v>
       </c>
     </row>
@@ -8070,10 +8602,10 @@
         <v>44854</v>
       </c>
       <c r="E13" s="0" t="s">
-        <v>218</v>
+        <v>238</v>
       </c>
       <c r="F13" s="0" t="n">
-        <f aca="false">COUNTIF(B6:B411,"Martin")</f>
+        <f aca="false">COUNTIF(B$1:B411,"Maran")</f>
         <v>0</v>
       </c>
     </row>
@@ -8086,7 +8618,7 @@
         <v>118</v>
       </c>
       <c r="F14" s="0" t="n">
-        <f aca="false">COUNTIF(B9:B412,"Mulvihill")</f>
+        <f aca="false">COUNTIF(B$1:B412,"Mulvihill")</f>
         <v>0</v>
       </c>
     </row>
@@ -9204,6 +9736,137 @@
       <c r="A200" s="108" t="n">
         <f aca="false">A199+1</f>
         <v>45041</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:N3"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A8" activeCellId="0" sqref="A8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.14453125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="110" t="s">
+        <v>606</v>
+      </c>
+      <c r="B1" s="111"/>
+      <c r="C1" s="111"/>
+      <c r="D1" s="111"/>
+      <c r="E1" s="111"/>
+      <c r="F1" s="111"/>
+      <c r="G1" s="111"/>
+      <c r="H1" s="111"/>
+      <c r="I1" s="111"/>
+      <c r="J1" s="111"/>
+      <c r="K1" s="111"/>
+      <c r="L1" s="111"/>
+      <c r="M1" s="111"/>
+      <c r="N1" s="112"/>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="113" t="s">
+        <v>229</v>
+      </c>
+      <c r="B2" s="114" t="s">
+        <v>304</v>
+      </c>
+      <c r="C2" s="114" t="s">
+        <v>187</v>
+      </c>
+      <c r="D2" s="114" t="s">
+        <v>204</v>
+      </c>
+      <c r="E2" s="114" t="s">
+        <v>307</v>
+      </c>
+      <c r="F2" s="114" t="s">
+        <v>164</v>
+      </c>
+      <c r="G2" s="114" t="s">
+        <v>249</v>
+      </c>
+      <c r="H2" s="114" t="s">
+        <v>266</v>
+      </c>
+      <c r="I2" s="114" t="s">
+        <v>238</v>
+      </c>
+      <c r="J2" s="114" t="s">
+        <v>218</v>
+      </c>
+      <c r="K2" s="114" t="s">
+        <v>118</v>
+      </c>
+      <c r="L2" s="114" t="s">
+        <v>306</v>
+      </c>
+      <c r="M2" s="114" t="s">
+        <v>305</v>
+      </c>
+      <c r="N2" s="115" t="s">
+        <v>607</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="116" t="n">
+        <v>0</v>
+      </c>
+      <c r="B3" s="117" t="n">
+        <v>0</v>
+      </c>
+      <c r="C3" s="117" t="n">
+        <v>0</v>
+      </c>
+      <c r="D3" s="117" t="n">
+        <v>0</v>
+      </c>
+      <c r="E3" s="117" t="n">
+        <v>1</v>
+      </c>
+      <c r="F3" s="117" t="n">
+        <v>0</v>
+      </c>
+      <c r="G3" s="117" t="n">
+        <v>0</v>
+      </c>
+      <c r="H3" s="117" t="n">
+        <v>0</v>
+      </c>
+      <c r="I3" s="117" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" s="117" t="n">
+        <v>0</v>
+      </c>
+      <c r="K3" s="117" t="n">
+        <v>0</v>
+      </c>
+      <c r="L3" s="117" t="n">
+        <v>4</v>
+      </c>
+      <c r="M3" s="118" t="n">
+        <v>1</v>
+      </c>
+      <c r="N3" s="119" t="n">
+        <v>6</v>
       </c>
     </row>
   </sheetData>
@@ -14555,7 +15218,7 @@
       </c>
       <c r="B1" s="0" t="n">
         <f aca="true">RAND()*100</f>
-        <v>92.5602012062413</v>
+        <v>45.2069368161492</v>
       </c>
       <c r="AA1" s="0" t="s">
         <v>307</v>
@@ -14603,7 +15266,7 @@
       </c>
       <c r="B2" s="0" t="n">
         <f aca="true">RAND()*100</f>
-        <v>70.5897535724673</v>
+        <v>27.2143069893543</v>
       </c>
       <c r="AB2" s="0" t="s">
         <v>164</v>
@@ -14648,7 +15311,7 @@
       </c>
       <c r="B3" s="0" t="n">
         <f aca="true">RAND()*100</f>
-        <v>68.8594108963583</v>
+        <v>75.1651137209133</v>
       </c>
       <c r="AC3" s="0" t="s">
         <v>306</v>

--- a/keepers 2022 (Oct  13 Edition).xlsx
+++ b/keepers 2022 (Oct  13 Edition).xlsx
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2203" uniqueCount="608">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2206" uniqueCount="608">
   <si>
     <t xml:space="preserve">2008/2009</t>
   </si>
@@ -2957,7 +2957,7 @@
 </styleSheet>
 </file>
 
-<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -3009,37 +3009,37 @@
                   <c:v>Patrick</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>Harrington</c:v>
+                  <c:v>Maran</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>Martin</c:v>
                 </c:pt>
                 <c:pt idx="3">
+                  <c:v>Harrington</c:v>
+                </c:pt>
+                <c:pt idx="4">
                   <c:v>Symmington</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="5">
                   <c:v>Anthony</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="6">
                   <c:v>Duggan</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="7">
                   <c:v>Duncan</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="8">
                   <c:v>Egan</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="9">
                   <c:v>Jadrian</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="10">
                   <c:v>Kevin</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="11">
                   <c:v>Kurtis</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>Maran</c:v>
                 </c:pt>
                 <c:pt idx="12">
                   <c:v>Mulvihill</c:v>
@@ -3057,16 +3057,16 @@
                   <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>0</c:v>
@@ -3098,11 +3098,11 @@
         </c:ser>
         <c:gapWidth val="100"/>
         <c:overlap val="0"/>
-        <c:axId val="37816410"/>
-        <c:axId val="50874371"/>
+        <c:axId val="75824534"/>
+        <c:axId val="18878471"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="37816410"/>
+        <c:axId val="75824534"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3130,7 +3130,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="50874371"/>
+        <c:crossAx val="18878471"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3138,7 +3138,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="50874371"/>
+        <c:axId val="18878471"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3175,7 +3175,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="37816410"/>
+        <c:crossAx val="75824534"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3368,10 +3368,10 @@
   </sheetPr>
   <dimension ref="A1:Q1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="0" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="topRight" activeCell="A1" activeCellId="0" sqref="A1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A20" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="1" ySplit="0" topLeftCell="L20" activePane="topRight" state="frozen"/>
+      <selection pane="topLeft" activeCell="A20" activeCellId="0" sqref="A20"/>
+      <selection pane="topRight" activeCell="U39" activeCellId="0" sqref="U39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.55859375" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -8418,7 +8418,7 @@
   <dimension ref="A1:F200"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C23" activeCellId="0" sqref="C23"/>
+      <selection pane="topLeft" activeCell="H23" activeCellId="0" sqref="H23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14453125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -8463,11 +8463,11 @@
         <v>306</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>307</v>
+        <v>238</v>
       </c>
       <c r="F3" s="0" t="n">
-        <f aca="false">COUNTIF(B$1:B401,"Harrington")</f>
-        <v>1</v>
+        <f aca="false">COUNTIF(B$1:B401,"Maran")</f>
+        <v>2</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8482,7 +8482,7 @@
       </c>
       <c r="F4" s="0" t="n">
         <f aca="false">COUNTIF($B$1:B402,"Martin")</f>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8493,10 +8493,10 @@
         <v>305</v>
       </c>
       <c r="E5" s="0" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="F5" s="0" t="n">
-        <f aca="false">COUNTIF(B$2:B403,"Symmington")</f>
+        <f aca="false">COUNTIF(B$1:B403,"Harrington")</f>
         <v>1</v>
       </c>
     </row>
@@ -8508,11 +8508,11 @@
         <v>306</v>
       </c>
       <c r="E6" s="0" t="s">
-        <v>229</v>
+        <v>305</v>
       </c>
       <c r="F6" s="0" t="n">
-        <f aca="false">COUNTIF(B$1:B404,"Anthony")</f>
-        <v>0</v>
+        <f aca="false">COUNTIF(B$2:B404,"Symmington")</f>
+        <v>1</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8524,10 +8524,10 @@
         <v>218</v>
       </c>
       <c r="E7" s="0" t="s">
-        <v>304</v>
+        <v>229</v>
       </c>
       <c r="F7" s="0" t="n">
-        <f aca="false">COUNTIF(B$1:B405,"Duggan")</f>
+        <f aca="false">COUNTIF(B$1:B405,"Anthony")</f>
         <v>0</v>
       </c>
     </row>
@@ -8536,11 +8536,14 @@
         <f aca="false">A7+1</f>
         <v>44849</v>
       </c>
+      <c r="B8" s="0" t="s">
+        <v>218</v>
+      </c>
       <c r="E8" s="0" t="s">
-        <v>187</v>
+        <v>304</v>
       </c>
       <c r="F8" s="0" t="n">
-        <f aca="false">COUNTIF(B$1:B406,"Duncan")</f>
+        <f aca="false">COUNTIF(B$1:B406,"Duggan")</f>
         <v>0</v>
       </c>
     </row>
@@ -8549,11 +8552,14 @@
         <f aca="false">A8+1</f>
         <v>44850</v>
       </c>
+      <c r="B9" s="0" t="s">
+        <v>238</v>
+      </c>
       <c r="E9" s="0" t="s">
-        <v>204</v>
+        <v>187</v>
       </c>
       <c r="F9" s="0" t="n">
-        <f aca="false">COUNTIF(B$1:B407,"Egan")</f>
+        <f aca="false">COUNTIF(B$1:B407,"Duncan")</f>
         <v>0</v>
       </c>
     </row>
@@ -8562,11 +8568,14 @@
         <f aca="false">A9+1</f>
         <v>44851</v>
       </c>
+      <c r="B10" s="0" t="s">
+        <v>238</v>
+      </c>
       <c r="E10" s="0" t="s">
-        <v>164</v>
+        <v>204</v>
       </c>
       <c r="F10" s="0" t="n">
-        <f aca="false">COUNTIF(B$1:B408,"Jadrian")</f>
+        <f aca="false">COUNTIF(B$1:B408,"Egan")</f>
         <v>0</v>
       </c>
     </row>
@@ -8576,10 +8585,10 @@
         <v>44852</v>
       </c>
       <c r="E11" s="0" t="s">
-        <v>249</v>
+        <v>164</v>
       </c>
       <c r="F11" s="0" t="n">
-        <f aca="false">COUNTIF(B$1:B409,"Kevin")</f>
+        <f aca="false">COUNTIF(B$1:B409,"Jadrian")</f>
         <v>0</v>
       </c>
     </row>
@@ -8589,10 +8598,10 @@
         <v>44853</v>
       </c>
       <c r="E12" s="0" t="s">
-        <v>266</v>
+        <v>249</v>
       </c>
       <c r="F12" s="0" t="n">
-        <f aca="false">COUNTIF(B$1:B410,"Kurtis")</f>
+        <f aca="false">COUNTIF(B$1:B410,"Kevin")</f>
         <v>0</v>
       </c>
     </row>
@@ -8602,10 +8611,10 @@
         <v>44854</v>
       </c>
       <c r="E13" s="0" t="s">
-        <v>238</v>
+        <v>266</v>
       </c>
       <c r="F13" s="0" t="n">
-        <f aca="false">COUNTIF(B$1:B411,"Maran")</f>
+        <f aca="false">COUNTIF(B$1:B411,"Kurtis")</f>
         <v>0</v>
       </c>
     </row>
@@ -15218,7 +15227,7 @@
       </c>
       <c r="B1" s="0" t="n">
         <f aca="true">RAND()*100</f>
-        <v>45.2069368161492</v>
+        <v>87.2716796517392</v>
       </c>
       <c r="AA1" s="0" t="s">
         <v>307</v>
@@ -15266,7 +15275,7 @@
       </c>
       <c r="B2" s="0" t="n">
         <f aca="true">RAND()*100</f>
-        <v>27.2143069893543</v>
+        <v>98.0642092699216</v>
       </c>
       <c r="AB2" s="0" t="s">
         <v>164</v>
@@ -15311,7 +15320,7 @@
       </c>
       <c r="B3" s="0" t="n">
         <f aca="true">RAND()*100</f>
-        <v>75.1651137209133</v>
+        <v>87.9279519258254</v>
       </c>
       <c r="AC3" s="0" t="s">
         <v>306</v>

--- a/keepers 2022 (Oct  13 Edition).xlsx
+++ b/keepers 2022 (Oct  13 Edition).xlsx
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2206" uniqueCount="608">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2208" uniqueCount="608">
   <si>
     <t xml:space="preserve">2008/2009</t>
   </si>
@@ -2957,7 +2957,7 @@
 </styleSheet>
 </file>
 
-<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -3054,10 +3054,10 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="13"/>
                 <c:pt idx="0">
-                  <c:v>4</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>2</c:v>
@@ -3098,11 +3098,11 @@
         </c:ser>
         <c:gapWidth val="100"/>
         <c:overlap val="0"/>
-        <c:axId val="75824534"/>
-        <c:axId val="18878471"/>
+        <c:axId val="55882937"/>
+        <c:axId val="38340801"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="75824534"/>
+        <c:axId val="55882937"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3130,7 +3130,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="18878471"/>
+        <c:crossAx val="38340801"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3138,7 +3138,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="18878471"/>
+        <c:axId val="38340801"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3175,7 +3175,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="75824534"/>
+        <c:crossAx val="55882937"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -8418,7 +8418,7 @@
   <dimension ref="A1:F200"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H23" activeCellId="0" sqref="H23"/>
+      <selection pane="topLeft" activeCell="B13" activeCellId="0" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14453125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -8452,7 +8452,7 @@
       </c>
       <c r="F2" s="0" t="n">
         <f aca="false">COUNTIF(B$1:B400,"Patrick")</f>
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8467,7 +8467,7 @@
       </c>
       <c r="F3" s="0" t="n">
         <f aca="false">COUNTIF(B$1:B401,"Maran")</f>
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8584,6 +8584,9 @@
         <f aca="false">A10+1</f>
         <v>44852</v>
       </c>
+      <c r="B11" s="0" t="s">
+        <v>306</v>
+      </c>
       <c r="E11" s="0" t="s">
         <v>164</v>
       </c>
@@ -8596,6 +8599,9 @@
       <c r="A12" s="108" t="n">
         <f aca="false">A11+1</f>
         <v>44853</v>
+      </c>
+      <c r="B12" s="0" t="s">
+        <v>238</v>
       </c>
       <c r="E12" s="0" t="s">
         <v>249</v>
@@ -15227,7 +15233,7 @@
       </c>
       <c r="B1" s="0" t="n">
         <f aca="true">RAND()*100</f>
-        <v>87.2716796517392</v>
+        <v>66.4615254497833</v>
       </c>
       <c r="AA1" s="0" t="s">
         <v>307</v>
@@ -15275,7 +15281,7 @@
       </c>
       <c r="B2" s="0" t="n">
         <f aca="true">RAND()*100</f>
-        <v>98.0642092699216</v>
+        <v>7.39097218238778</v>
       </c>
       <c r="AB2" s="0" t="s">
         <v>164</v>
@@ -15320,7 +15326,7 @@
       </c>
       <c r="B3" s="0" t="n">
         <f aca="true">RAND()*100</f>
-        <v>87.9279519258254</v>
+        <v>27.925930880808</v>
       </c>
       <c r="AC3" s="0" t="s">
         <v>306</v>

--- a/keepers 2022 (Oct  13 Edition).xlsx
+++ b/keepers 2022 (Oct  13 Edition).xlsx
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2208" uniqueCount="608">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2210" uniqueCount="608">
   <si>
     <t xml:space="preserve">2008/2009</t>
   </si>
@@ -2957,7 +2957,7 @@
 </styleSheet>
 </file>
 
-<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -3057,7 +3057,7 @@
                   <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>2</c:v>
@@ -3098,11 +3098,11 @@
         </c:ser>
         <c:gapWidth val="100"/>
         <c:overlap val="0"/>
-        <c:axId val="55882937"/>
-        <c:axId val="38340801"/>
+        <c:axId val="52046688"/>
+        <c:axId val="81777703"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="55882937"/>
+        <c:axId val="52046688"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3130,7 +3130,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="38340801"/>
+        <c:crossAx val="81777703"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3138,7 +3138,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="38340801"/>
+        <c:axId val="81777703"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3175,7 +3175,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="55882937"/>
+        <c:crossAx val="52046688"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -8418,7 +8418,7 @@
   <dimension ref="A1:F200"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B13" activeCellId="0" sqref="B13"/>
+      <selection pane="topLeft" activeCell="B15" activeCellId="0" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14453125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -8467,7 +8467,7 @@
       </c>
       <c r="F3" s="0" t="n">
         <f aca="false">COUNTIF(B$1:B401,"Maran")</f>
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8616,6 +8616,9 @@
         <f aca="false">A12+1</f>
         <v>44854</v>
       </c>
+      <c r="B13" s="0" t="s">
+        <v>238</v>
+      </c>
       <c r="E13" s="0" t="s">
         <v>266</v>
       </c>
@@ -8628,6 +8631,9 @@
       <c r="A14" s="108" t="n">
         <f aca="false">A13+1</f>
         <v>44855</v>
+      </c>
+      <c r="B14" s="0" t="s">
+        <v>238</v>
       </c>
       <c r="E14" s="0" t="s">
         <v>118</v>
@@ -15233,7 +15239,7 @@
       </c>
       <c r="B1" s="0" t="n">
         <f aca="true">RAND()*100</f>
-        <v>66.4615254497833</v>
+        <v>75.3307964170831</v>
       </c>
       <c r="AA1" s="0" t="s">
         <v>307</v>
@@ -15281,7 +15287,7 @@
       </c>
       <c r="B2" s="0" t="n">
         <f aca="true">RAND()*100</f>
-        <v>7.39097218238778</v>
+        <v>44.114142116158</v>
       </c>
       <c r="AB2" s="0" t="s">
         <v>164</v>
@@ -15326,7 +15332,7 @@
       </c>
       <c r="B3" s="0" t="n">
         <f aca="true">RAND()*100</f>
-        <v>27.925930880808</v>
+        <v>60.1848928206436</v>
       </c>
       <c r="AC3" s="0" t="s">
         <v>306</v>

--- a/keepers 2022 (Oct  13 Edition).xlsx
+++ b/keepers 2022 (Oct  13 Edition).xlsx
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2210" uniqueCount="608">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2395" uniqueCount="631">
   <si>
     <t xml:space="preserve">2008/2009</t>
   </si>
@@ -977,7 +977,6 @@
         <color rgb="FF0070C0"/>
         <rFont val="Calibri"/>
         <family val="2"/>
-        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">(Names in </t>
     </r>
@@ -987,7 +986,6 @@
         <color rgb="FFFF0000"/>
         <rFont val="Calibri"/>
         <family val="2"/>
-        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">red</t>
     </r>
@@ -997,7 +995,6 @@
         <color rgb="FF0070C0"/>
         <rFont val="Calibri"/>
         <family val="2"/>
-        <charset val="1"/>
       </rPr>
       <t xml:space="preserve"> were kept last year and only have 1 eligible year remaining )</t>
     </r>
@@ -1888,7 +1885,6 @@
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
         <family val="2"/>
-        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">Days in 1</t>
     </r>
@@ -1899,13 +1895,81 @@
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
         <family val="2"/>
-        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">st</t>
     </r>
   </si>
   <si>
-    <t xml:space="preserve">Data</t>
+    <t xml:space="preserve">Rookie Keepers eligibility</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Johnston</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Xhekaj</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kochetkov</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Soogard</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Skinner</t>
+  </si>
+  <si>
+    <t xml:space="preserve">McBain?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Errson?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Johnson</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Beniers</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Forsberg?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mulv</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sanderson</t>
+  </si>
+  <si>
+    <t xml:space="preserve">McTavish</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Quinn</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ingram</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Peterka</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Addison</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ukko Pekka Lukonen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Maccelli</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Schmid</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tarasov</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Harrington &amp; Maran</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tha</t>
   </si>
   <si>
     <t xml:space="preserve">Total Result</t>
@@ -1915,12 +1979,11 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="5">
+  <numFmts count="4">
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="[&lt;=9999999]#\-####;#\-###\-####"/>
     <numFmt numFmtId="166" formatCode="General"/>
     <numFmt numFmtId="167" formatCode="yyyy/mm/dd"/>
-    <numFmt numFmtId="168" formatCode="yyyy/mm/dd"/>
   </numFmts>
   <fonts count="29">
     <font>
@@ -1928,7 +1991,6 @@
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -1951,21 +2013,18 @@
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <charset val="1"/>
     </font>
     <font>
       <sz val="9"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <charset val="1"/>
     </font>
     <font>
       <sz val="9"/>
       <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <charset val="1"/>
     </font>
     <font>
       <b val="true"/>
@@ -1973,14 +2032,12 @@
       <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <charset val="1"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF0070C0"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <charset val="1"/>
     </font>
     <font>
       <i val="true"/>
@@ -1988,7 +2045,6 @@
       <color rgb="FF0070C0"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <charset val="1"/>
     </font>
     <font>
       <b val="true"/>
@@ -1996,34 +2052,29 @@
       <color rgb="FF0070C0"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <charset val="1"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <charset val="1"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FFFFFF00"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <charset val="1"/>
     </font>
     <font>
       <b val="true"/>
       <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <charset val="1"/>
     </font>
     <font>
       <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <charset val="1"/>
     </font>
     <font>
       <b val="true"/>
@@ -2031,7 +2082,6 @@
       <color rgb="FF212529"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <charset val="1"/>
     </font>
     <font>
       <b val="true"/>
@@ -2040,7 +2090,6 @@
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <charset val="1"/>
     </font>
     <font>
       <strike val="true"/>
@@ -2048,7 +2097,6 @@
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <charset val="1"/>
     </font>
     <font>
       <strike val="true"/>
@@ -2056,7 +2104,6 @@
       <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <charset val="1"/>
     </font>
     <font>
       <b val="true"/>
@@ -2065,14 +2112,12 @@
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="2"/>
-      <charset val="1"/>
     </font>
     <font>
       <b val="true"/>
@@ -2080,7 +2125,6 @@
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="2"/>
-      <charset val="1"/>
     </font>
     <font>
       <b val="true"/>
@@ -2089,7 +2133,6 @@
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="2"/>
-      <charset val="1"/>
     </font>
     <font>
       <strike val="true"/>
@@ -2097,27 +2140,23 @@
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <charset val="1"/>
     </font>
     <font>
       <sz val="8"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <charset val="1"/>
     </font>
     <font>
       <sz val="9"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <charset val="1"/>
     </font>
     <font>
       <vertAlign val="superscript"/>
@@ -2125,7 +2164,6 @@
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -2380,7 +2418,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
@@ -2388,17 +2426,17 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="120">
+  <cellXfs count="119">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -2835,27 +2873,23 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="8" xfId="22" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="9" xfId="20" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="9" xfId="21" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="10" xfId="20" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="10" xfId="21" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="11" xfId="23" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="11" xfId="20" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="12" xfId="23" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="12" xfId="20" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -2863,19 +2897,19 @@
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="14" xfId="21" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="14" xfId="25" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="15" xfId="21" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="15" xfId="25" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="16" xfId="21" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="16" xfId="25" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="17" xfId="25" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="17" xfId="23" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -2887,12 +2921,12 @@
     <cellStyle name="Currency" xfId="17" builtinId="4"/>
     <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
     <cellStyle name="Percent" xfId="19" builtinId="5"/>
-    <cellStyle name="Pivot Table Corner" xfId="20"/>
-    <cellStyle name="Pivot Table Value" xfId="21"/>
+    <cellStyle name="Pivot Table Category" xfId="20"/>
+    <cellStyle name="Pivot Table Corner" xfId="21"/>
     <cellStyle name="Pivot Table Field" xfId="22"/>
-    <cellStyle name="Pivot Table Category" xfId="23"/>
+    <cellStyle name="Pivot Table Result" xfId="23"/>
     <cellStyle name="Pivot Table Title" xfId="24"/>
-    <cellStyle name="Pivot Table Result" xfId="25"/>
+    <cellStyle name="Pivot Table Value" xfId="25"/>
   </cellStyles>
   <colors>
     <indexedColors>
@@ -2957,7 +2991,7 @@
 </styleSheet>
 </file>
 
-<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -2992,6 +3026,7 @@
                 </a:pPr>
               </a:p>
             </c:txPr>
+            <c:dLblPos val="outEnd"/>
             <c:showLegendKey val="0"/>
             <c:showVal val="0"/>
             <c:showCatName val="0"/>
@@ -3006,16 +3041,16 @@
               <c:strCache>
                 <c:ptCount val="13"/>
                 <c:pt idx="0">
+                  <c:v>Maran</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Harrington</c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>Patrick</c:v>
                 </c:pt>
-                <c:pt idx="1">
-                  <c:v>Maran</c:v>
-                </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
                   <c:v>Martin</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>Harrington</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>Symmington</c:v>
@@ -3054,16 +3089,16 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="13"/>
                 <c:pt idx="0">
+                  <c:v>151</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>5</c:v>
                 </c:pt>
-                <c:pt idx="1">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
                   <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>1</c:v>
@@ -3098,11 +3133,11 @@
         </c:ser>
         <c:gapWidth val="100"/>
         <c:overlap val="0"/>
-        <c:axId val="52046688"/>
-        <c:axId val="81777703"/>
+        <c:axId val="87770025"/>
+        <c:axId val="37318450"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="52046688"/>
+        <c:axId val="87770025"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3130,7 +3165,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="81777703"/>
+        <c:crossAx val="37318450"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3138,7 +3173,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="81777703"/>
+        <c:axId val="37318450"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3153,7 +3188,7 @@
             </a:ln>
           </c:spPr>
         </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -3175,7 +3210,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="52046688"/>
+        <c:crossAx val="87770025"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3195,7 +3230,7 @@
     <a:solidFill>
       <a:srgbClr val="ffffff"/>
     </a:solidFill>
-    <a:ln>
+    <a:ln w="9360">
       <a:noFill/>
     </a:ln>
   </c:spPr>
@@ -3209,13 +3244,13 @@
       <xdr:col>7</xdr:col>
       <xdr:colOff>28080</xdr:colOff>
       <xdr:row>2</xdr:row>
-      <xdr:rowOff>19800</xdr:rowOff>
+      <xdr:rowOff>12240</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>98280</xdr:colOff>
+      <xdr:colOff>95760</xdr:colOff>
       <xdr:row>20</xdr:row>
-      <xdr:rowOff>104760</xdr:rowOff>
+      <xdr:rowOff>94680</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -3223,8 +3258,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="5826240" y="376560"/>
-        <a:ext cx="5759640" cy="3239640"/>
+        <a:off x="5841360" y="376560"/>
+        <a:ext cx="5775120" cy="3237120"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -3261,10 +3296,13 @@
       </sharedItems>
     </cacheField>
     <cacheField name="Days in 1st" numFmtId="0">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="0" maxValue="4" count="3">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="0" maxValue="151" count="6">
         <n v="0"/>
         <n v="1"/>
-        <n v="4"/>
+        <n v="2"/>
+        <n v="5"/>
+        <n v="11"/>
+        <n v="151"/>
       </sharedItems>
     </cacheField>
   </cacheFields>
@@ -3274,12 +3312,20 @@
 <file path=xl/pivotCache/pivotCacheRecords1.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" count="13">
   <r>
-    <x v="11"/>
-    <x v="2"/>
+    <x v="8"/>
+    <x v="5"/>
   </r>
   <r>
     <x v="4"/>
-    <x v="1"/>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="11"/>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="2"/>
   </r>
   <r>
     <x v="12"/>
@@ -3311,14 +3357,6 @@
   </r>
   <r>
     <x v="7"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="9"/>
     <x v="0"/>
   </r>
   <r>
@@ -3366,16 +3404,17 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:Q1048576"/>
+  <dimension ref="A1:Q84"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A20" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A20" colorId="64" zoomScale="71" zoomScaleNormal="71" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="1" ySplit="0" topLeftCell="L20" activePane="topRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A20" activeCellId="0" sqref="A20"/>
       <selection pane="topRight" activeCell="U39" activeCellId="0" sqref="U39"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.55859375" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.14453125" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="1" style="0" width="8.55"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="15"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="15.44"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="18.33"/>
@@ -3390,6 +3429,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="1" width="28.11"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="0" width="22.3"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="0" width="24.51"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="64" min="17" style="0" width="8.55"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3591,7 +3631,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1"/>
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
@@ -3900,7 +3940,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1"/>
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
@@ -3914,7 +3954,7 @@
       <c r="L13" s="1"/>
       <c r="M13" s="1"/>
     </row>
-    <row r="14" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
         <v>105</v>
       </c>
@@ -3961,7 +4001,7 @@
       <c r="P14" s="20"/>
       <c r="Q14" s="21"/>
     </row>
-    <row r="15" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="1"/>
       <c r="B15" s="1" t="s">
         <v>30</v>
@@ -3988,7 +4028,7 @@
       <c r="P15" s="20"/>
       <c r="Q15" s="21"/>
     </row>
-    <row r="16" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="1"/>
       <c r="B16" s="1" t="s">
         <v>41</v>
@@ -4015,7 +4055,7 @@
       <c r="P16" s="20"/>
       <c r="Q16" s="21"/>
     </row>
-    <row r="17" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="1"/>
       <c r="B17" s="1"/>
       <c r="C17" s="1"/>
@@ -4177,7 +4217,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="21" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="1"/>
       <c r="B21" s="1"/>
       <c r="C21" s="1"/>
@@ -4336,7 +4376,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="25" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="1"/>
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
@@ -4493,7 +4533,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="29" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="1"/>
       <c r="B29" s="1"/>
       <c r="C29" s="1"/>
@@ -4624,7 +4664,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="33" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="1"/>
       <c r="B33" s="1"/>
       <c r="C33" s="1"/>
@@ -4759,7 +4799,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="37" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H37" s="1"/>
       <c r="I37" s="1"/>
       <c r="K37" s="1"/>
@@ -4871,7 +4911,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="41" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H41" s="1"/>
       <c r="I41" s="29"/>
       <c r="K41" s="1"/>
@@ -5063,7 +5103,6 @@
         <v>248</v>
       </c>
     </row>
-    <row r="49" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="0" t="s">
         <v>249</v>
@@ -5146,7 +5185,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="53" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="53" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H53" s="1"/>
       <c r="I53" s="29"/>
       <c r="K53" s="1"/>
@@ -5871,7 +5910,6 @@
       <c r="P84" s="20"/>
       <c r="Q84" s="21"/>
     </row>
-    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
@@ -5890,20 +5928,22 @@
   </sheetPr>
   <dimension ref="A1:J64"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="71" zoomScaleNormal="71" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A22" activeCellId="0" sqref="A22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.55859375" defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.14453125" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="1" style="0" width="8.55"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="13.44"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="12.66"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="14.89"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="18.67"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="19.44"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="64" min="9" style="0" width="8.55"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1"/>
       <c r="B1" s="1"/>
       <c r="C1" s="1" t="s">
@@ -5928,7 +5968,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
         <v>15</v>
       </c>
@@ -5958,7 +5998,7 @@
       </c>
       <c r="J2" s="76"/>
     </row>
-    <row r="3" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1"/>
       <c r="B3" s="1" t="s">
         <v>30</v>
@@ -5984,7 +6024,7 @@
       </c>
       <c r="J3" s="76"/>
     </row>
-    <row r="4" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1"/>
       <c r="B4" s="1" t="s">
         <v>41</v>
@@ -6012,7 +6052,7 @@
       </c>
       <c r="J4" s="76"/>
     </row>
-    <row r="5" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1"/>
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
@@ -6023,7 +6063,7 @@
       <c r="I5" s="29"/>
       <c r="J5" s="76"/>
     </row>
-    <row r="6" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
         <v>49</v>
       </c>
@@ -6053,7 +6093,7 @@
       </c>
       <c r="J6" s="76"/>
     </row>
-    <row r="7" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1"/>
       <c r="B7" s="1" t="s">
         <v>30</v>
@@ -6071,7 +6111,7 @@
       <c r="I7" s="29"/>
       <c r="J7" s="76"/>
     </row>
-    <row r="8" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1"/>
       <c r="B8" s="1" t="s">
         <v>41</v>
@@ -6097,7 +6137,7 @@
       </c>
       <c r="J8" s="76"/>
     </row>
-    <row r="9" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1"/>
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
@@ -6108,7 +6148,7 @@
       <c r="I9" s="29"/>
       <c r="J9" s="76"/>
     </row>
-    <row r="10" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
         <v>75</v>
       </c>
@@ -6138,7 +6178,7 @@
       </c>
       <c r="J10" s="76"/>
     </row>
-    <row r="11" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1"/>
       <c r="B11" s="1" t="s">
         <v>30</v>
@@ -6160,7 +6200,7 @@
       </c>
       <c r="J11" s="76"/>
     </row>
-    <row r="12" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1"/>
       <c r="B12" s="1" t="s">
         <v>41</v>
@@ -6188,7 +6228,7 @@
       </c>
       <c r="J12" s="76"/>
     </row>
-    <row r="13" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1"/>
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
@@ -6200,7 +6240,7 @@
       <c r="I13" s="29"/>
       <c r="J13" s="76"/>
     </row>
-    <row r="14" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
         <v>140</v>
       </c>
@@ -6228,7 +6268,7 @@
       </c>
       <c r="J14" s="76"/>
     </row>
-    <row r="15" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="1"/>
       <c r="B15" s="1" t="s">
         <v>30</v>
@@ -6252,7 +6292,7 @@
       </c>
       <c r="J15" s="76"/>
     </row>
-    <row r="16" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="1"/>
       <c r="B16" s="1" t="s">
         <v>41</v>
@@ -6278,7 +6318,7 @@
       </c>
       <c r="J16" s="76"/>
     </row>
-    <row r="17" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="1"/>
       <c r="B17" s="1"/>
       <c r="C17" s="10"/>
@@ -6290,7 +6330,7 @@
       <c r="I17" s="29"/>
       <c r="J17" s="76"/>
     </row>
-    <row r="18" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="1" t="s">
         <v>187</v>
       </c>
@@ -6314,7 +6354,7 @@
       </c>
       <c r="J18" s="76"/>
     </row>
-    <row r="19" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="1"/>
       <c r="B19" s="1" t="s">
         <v>30</v>
@@ -6332,7 +6372,7 @@
       <c r="I19" s="29"/>
       <c r="J19" s="76"/>
     </row>
-    <row r="20" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="1"/>
       <c r="B20" s="1" t="s">
         <v>41</v>
@@ -6352,12 +6392,12 @@
       </c>
       <c r="J20" s="76"/>
     </row>
-    <row r="21" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H21" s="78"/>
       <c r="I21" s="29"/>
       <c r="J21" s="76"/>
     </row>
-    <row r="22" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="0" t="s">
         <v>258</v>
       </c>
@@ -6377,7 +6417,7 @@
       </c>
       <c r="J22" s="76"/>
     </row>
-    <row r="23" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B23" s="1" t="s">
         <v>30</v>
       </c>
@@ -6390,7 +6430,7 @@
       <c r="I23" s="29"/>
       <c r="J23" s="76"/>
     </row>
-    <row r="24" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B24" s="1" t="s">
         <v>41</v>
       </c>
@@ -6405,7 +6445,7 @@
       <c r="I24" s="29"/>
       <c r="J24" s="76"/>
     </row>
-    <row r="25" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="1"/>
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
@@ -6417,7 +6457,7 @@
       <c r="I25" s="29"/>
       <c r="J25" s="76"/>
     </row>
-    <row r="26" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="1" t="s">
         <v>204</v>
       </c>
@@ -6443,7 +6483,7 @@
       </c>
       <c r="J26" s="76"/>
     </row>
-    <row r="27" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="1"/>
       <c r="B27" s="1" t="s">
         <v>30</v>
@@ -6459,7 +6499,7 @@
       <c r="I27" s="29"/>
       <c r="J27" s="76"/>
     </row>
-    <row r="28" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="1"/>
       <c r="B28" s="1" t="s">
         <v>41</v>
@@ -6479,7 +6519,7 @@
       </c>
       <c r="J28" s="76"/>
     </row>
-    <row r="29" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="35"/>
       <c r="B29" s="35"/>
       <c r="C29" s="35"/>
@@ -6490,7 +6530,7 @@
       <c r="I29" s="29"/>
       <c r="J29" s="76"/>
     </row>
-    <row r="30" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="1" t="s">
         <v>164</v>
       </c>
@@ -6518,7 +6558,7 @@
       </c>
       <c r="J30" s="76"/>
     </row>
-    <row r="31" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="1"/>
       <c r="B31" s="1" t="s">
         <v>30</v>
@@ -6540,7 +6580,7 @@
       <c r="I31" s="29"/>
       <c r="J31" s="76"/>
     </row>
-    <row r="32" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="1"/>
       <c r="B32" s="1" t="s">
         <v>41</v>
@@ -6566,7 +6606,7 @@
       </c>
       <c r="J32" s="76"/>
     </row>
-    <row r="33" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="1"/>
       <c r="B33" s="1"/>
       <c r="C33" s="1"/>
@@ -6578,7 +6618,7 @@
       <c r="I33" s="29"/>
       <c r="J33" s="76"/>
     </row>
-    <row r="34" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="1" t="s">
         <v>105</v>
       </c>
@@ -6608,7 +6648,7 @@
       </c>
       <c r="J34" s="76"/>
     </row>
-    <row r="35" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="1"/>
       <c r="B35" s="1" t="s">
         <v>30</v>
@@ -6624,7 +6664,7 @@
       </c>
       <c r="J35" s="76"/>
     </row>
-    <row r="36" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="1"/>
       <c r="B36" s="1" t="s">
         <v>41</v>
@@ -6640,7 +6680,7 @@
       <c r="I36" s="29"/>
       <c r="J36" s="76"/>
     </row>
-    <row r="37" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="1"/>
       <c r="B37" s="1"/>
       <c r="C37" s="1"/>
@@ -6652,7 +6692,7 @@
       <c r="I37" s="29"/>
       <c r="J37" s="76"/>
     </row>
-    <row r="38" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="1" t="s">
         <v>118</v>
       </c>
@@ -6682,7 +6722,7 @@
       </c>
       <c r="J38" s="76"/>
     </row>
-    <row r="39" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="1"/>
       <c r="B39" s="1" t="s">
         <v>30</v>
@@ -6708,7 +6748,7 @@
       </c>
       <c r="J39" s="76"/>
     </row>
-    <row r="40" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="1"/>
       <c r="B40" s="1" t="s">
         <v>41</v>
@@ -6736,7 +6776,7 @@
       </c>
       <c r="J40" s="76"/>
     </row>
-    <row r="41" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="1"/>
       <c r="B41" s="1"/>
       <c r="C41" s="1"/>
@@ -6748,7 +6788,7 @@
       <c r="I41" s="29"/>
       <c r="J41" s="76"/>
     </row>
-    <row r="42" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="0" t="s">
         <v>218</v>
       </c>
@@ -6768,7 +6808,7 @@
       </c>
       <c r="J42" s="76"/>
     </row>
-    <row r="43" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B43" s="1" t="s">
         <v>30</v>
       </c>
@@ -6781,7 +6821,7 @@
       <c r="I43" s="29"/>
       <c r="J43" s="76"/>
     </row>
-    <row r="44" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B44" s="1" t="s">
         <v>41</v>
       </c>
@@ -6796,11 +6836,11 @@
       </c>
       <c r="J44" s="76"/>
     </row>
-    <row r="45" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="I45" s="29"/>
       <c r="J45" s="76"/>
     </row>
-    <row r="46" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="0" t="s">
         <v>283</v>
       </c>
@@ -6820,7 +6860,7 @@
       </c>
       <c r="J46" s="76"/>
     </row>
-    <row r="47" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B47" s="1" t="s">
         <v>30</v>
       </c>
@@ -6833,7 +6873,7 @@
       <c r="I47" s="29"/>
       <c r="J47" s="76"/>
     </row>
-    <row r="48" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B48" s="1" t="s">
         <v>41</v>
       </c>
@@ -6844,7 +6884,7 @@
       <c r="G48" s="20"/>
       <c r="H48" s="8"/>
     </row>
-    <row r="50" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="0" t="s">
         <v>285</v>
       </c>
@@ -6858,7 +6898,7 @@
       <c r="G50" s="20"/>
       <c r="H50" s="22"/>
     </row>
-    <row r="51" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="51" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B51" s="1" t="s">
         <v>30</v>
       </c>
@@ -6869,7 +6909,7 @@
       <c r="G51" s="20"/>
       <c r="H51" s="22"/>
     </row>
-    <row r="52" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="52" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B52" s="1" t="s">
         <v>41</v>
       </c>
@@ -6880,7 +6920,7 @@
       <c r="G52" s="20"/>
       <c r="H52" s="22"/>
     </row>
-    <row r="54" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="54" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="1" t="s">
         <v>266</v>
       </c>
@@ -6906,7 +6946,7 @@
         <v>566</v>
       </c>
     </row>
-    <row r="55" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="55" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="1"/>
       <c r="B55" s="1" t="s">
         <v>30</v>
@@ -6926,7 +6966,7 @@
       </c>
       <c r="H55" s="22"/>
     </row>
-    <row r="56" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="56" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="1"/>
       <c r="B56" s="1" t="s">
         <v>41</v>
@@ -6948,7 +6988,7 @@
       </c>
       <c r="H56" s="83"/>
     </row>
-    <row r="57" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="57" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="1"/>
       <c r="B57" s="1"/>
       <c r="C57" s="1"/>
@@ -6957,7 +6997,7 @@
       <c r="F57" s="1"/>
       <c r="G57" s="1"/>
     </row>
-    <row r="58" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="58" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="84" t="s">
         <v>286</v>
       </c>
@@ -6977,7 +7017,7 @@
         <v>567</v>
       </c>
     </row>
-    <row r="59" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="59" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="84"/>
       <c r="B59" s="84" t="s">
         <v>30</v>
@@ -6991,7 +7031,7 @@
       </c>
       <c r="H59" s="84"/>
     </row>
-    <row r="60" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="60" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="84"/>
       <c r="B60" s="84" t="s">
         <v>41</v>
@@ -7007,7 +7047,7 @@
         <v>568</v>
       </c>
     </row>
-    <row r="61" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="61" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="1"/>
       <c r="B61" s="1"/>
       <c r="C61" s="1"/>
@@ -7016,7 +7056,7 @@
       <c r="F61" s="1"/>
       <c r="G61" s="1"/>
     </row>
-    <row r="62" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="62" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="84" t="s">
         <v>290</v>
       </c>
@@ -7036,7 +7076,7 @@
         <v>569</v>
       </c>
     </row>
-    <row r="63" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="63" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="84"/>
       <c r="B63" s="84" t="s">
         <v>30</v>
@@ -7050,7 +7090,7 @@
       </c>
       <c r="H63" s="84"/>
     </row>
-    <row r="64" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="64" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="84"/>
       <c r="B64" s="84" t="s">
         <v>41</v>
@@ -7084,17 +7124,19 @@
   </sheetPr>
   <dimension ref="A1:E58"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="71" zoomScaleNormal="71" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.55859375" defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.14453125" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="6.44"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="8.55"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="17.33"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="64" min="4" style="0" width="8.55"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1"/>
       <c r="B1" s="1"/>
       <c r="C1" s="1" t="s">
@@ -7104,7 +7146,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
         <v>15</v>
       </c>
@@ -7121,7 +7163,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1"/>
       <c r="B3" s="1" t="s">
         <v>30</v>
@@ -7136,7 +7178,7 @@
         <v>573</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1"/>
       <c r="B4" s="1" t="s">
         <v>41</v>
@@ -7151,14 +7193,14 @@
         <v>574</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1"/>
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
       <c r="D5" s="29"/>
       <c r="E5" s="29"/>
     </row>
-    <row r="6" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
         <v>49</v>
       </c>
@@ -7175,7 +7217,7 @@
         <v>575</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1"/>
       <c r="B7" s="1" t="s">
         <v>30</v>
@@ -7186,7 +7228,7 @@
         <v>537</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1"/>
       <c r="B8" s="1" t="s">
         <v>41</v>
@@ -7201,14 +7243,14 @@
         <v>576</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1"/>
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
       <c r="D9" s="29"/>
       <c r="E9" s="29"/>
     </row>
-    <row r="10" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
         <v>75</v>
       </c>
@@ -7225,7 +7267,7 @@
         <v>577</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1"/>
       <c r="B11" s="1" t="s">
         <v>30</v>
@@ -7238,7 +7280,7 @@
         <v>541</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1"/>
       <c r="B12" s="1" t="s">
         <v>41</v>
@@ -7253,14 +7295,14 @@
         <v>578</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1"/>
       <c r="B13" s="1"/>
       <c r="C13" s="78"/>
       <c r="D13" s="29"/>
       <c r="E13" s="29"/>
     </row>
-    <row r="14" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
         <v>140</v>
       </c>
@@ -7277,7 +7319,7 @@
         <v>580</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="1"/>
       <c r="B15" s="1" t="s">
         <v>30</v>
@@ -7292,7 +7334,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="1"/>
       <c r="B16" s="1" t="s">
         <v>41</v>
@@ -7307,14 +7349,14 @@
         <v>582</v>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="1"/>
       <c r="B17" s="1"/>
       <c r="C17" s="79"/>
       <c r="D17" s="29"/>
       <c r="E17" s="29"/>
     </row>
-    <row r="18" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="1" t="s">
         <v>187</v>
       </c>
@@ -7331,7 +7373,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="19" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="1"/>
       <c r="B19" s="1" t="s">
         <v>30</v>
@@ -7344,7 +7386,7 @@
         <v>583</v>
       </c>
     </row>
-    <row r="20" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="1"/>
       <c r="B20" s="1" t="s">
         <v>41</v>
@@ -7355,12 +7397,12 @@
       </c>
       <c r="E20" s="29"/>
     </row>
-    <row r="21" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C21" s="78"/>
       <c r="D21" s="29"/>
       <c r="E21" s="29"/>
     </row>
-    <row r="22" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="0" t="s">
         <v>258</v>
       </c>
@@ -7377,7 +7419,7 @@
         <v>559</v>
       </c>
     </row>
-    <row r="23" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B23" s="1" t="s">
         <v>30</v>
       </c>
@@ -7385,7 +7427,7 @@
       <c r="D23" s="77"/>
       <c r="E23" s="75"/>
     </row>
-    <row r="24" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B24" s="1" t="s">
         <v>41</v>
       </c>
@@ -7397,14 +7439,14 @@
         <v>584</v>
       </c>
     </row>
-    <row r="25" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="1"/>
       <c r="B25" s="1"/>
       <c r="C25" s="78"/>
       <c r="D25" s="29"/>
       <c r="E25" s="29"/>
     </row>
-    <row r="26" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="1" t="s">
         <v>204</v>
       </c>
@@ -7421,7 +7463,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="27" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="1"/>
       <c r="B27" s="1" t="s">
         <v>30</v>
@@ -7432,7 +7474,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="28" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="1"/>
       <c r="B28" s="1" t="s">
         <v>41</v>
@@ -7445,14 +7487,14 @@
         <v>586</v>
       </c>
     </row>
-    <row r="29" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="35"/>
       <c r="B29" s="35"/>
       <c r="C29" s="1"/>
       <c r="D29" s="29"/>
       <c r="E29" s="29"/>
     </row>
-    <row r="30" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="1" t="s">
         <v>164</v>
       </c>
@@ -7469,7 +7511,7 @@
         <v>587</v>
       </c>
     </row>
-    <row r="31" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="1"/>
       <c r="B31" s="1" t="s">
         <v>30</v>
@@ -7484,7 +7526,7 @@
         <v>588</v>
       </c>
     </row>
-    <row r="32" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="1"/>
       <c r="B32" s="1" t="s">
         <v>41</v>
@@ -7497,14 +7539,14 @@
       </c>
       <c r="E32" s="29"/>
     </row>
-    <row r="33" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="1"/>
       <c r="B33" s="1"/>
       <c r="C33" s="78"/>
       <c r="D33" s="29"/>
       <c r="E33" s="29"/>
     </row>
-    <row r="34" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="1" t="s">
         <v>105</v>
       </c>
@@ -7521,7 +7563,7 @@
         <v>590</v>
       </c>
     </row>
-    <row r="35" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="1"/>
       <c r="B35" s="1" t="s">
         <v>30</v>
@@ -7532,7 +7574,7 @@
       </c>
       <c r="E35" s="29"/>
     </row>
-    <row r="36" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="1"/>
       <c r="B36" s="1" t="s">
         <v>41</v>
@@ -7543,14 +7585,14 @@
       <c r="D36" s="77"/>
       <c r="E36" s="29"/>
     </row>
-    <row r="37" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="1"/>
       <c r="B37" s="1"/>
       <c r="C37" s="78"/>
       <c r="D37" s="29"/>
       <c r="E37" s="29"/>
     </row>
-    <row r="38" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="1" t="s">
         <v>118</v>
       </c>
@@ -7567,7 +7609,7 @@
         <v>592</v>
       </c>
     </row>
-    <row r="39" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="1"/>
       <c r="B39" s="1" t="s">
         <v>30</v>
@@ -7582,7 +7624,7 @@
         <v>593</v>
       </c>
     </row>
-    <row r="40" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="1"/>
       <c r="B40" s="1" t="s">
         <v>41</v>
@@ -7597,14 +7639,14 @@
         <v>594</v>
       </c>
     </row>
-    <row r="41" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="1"/>
       <c r="B41" s="1"/>
       <c r="C41" s="78"/>
       <c r="D41" s="29"/>
       <c r="E41" s="29"/>
     </row>
-    <row r="42" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="1" t="s">
         <v>218</v>
       </c>
@@ -7621,7 +7663,7 @@
         <v>596</v>
       </c>
     </row>
-    <row r="43" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B43" s="1" t="s">
         <v>30</v>
       </c>
@@ -7631,7 +7673,7 @@
         <v>597</v>
       </c>
     </row>
-    <row r="44" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B44" s="1" t="s">
         <v>41</v>
       </c>
@@ -7643,24 +7685,24 @@
         <v>598</v>
       </c>
     </row>
-    <row r="45" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B45" s="1"/>
       <c r="C45" s="16"/>
       <c r="D45" s="29"/>
       <c r="E45" s="29"/>
     </row>
-    <row r="46" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B46" s="1"/>
       <c r="C46" s="16"/>
       <c r="D46" s="29"/>
       <c r="E46" s="29"/>
     </row>
-    <row r="47" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C47" s="1"/>
       <c r="D47" s="29"/>
       <c r="E47" s="29"/>
     </row>
-    <row r="48" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="1" t="s">
         <v>283</v>
       </c>
@@ -7677,7 +7719,7 @@
         <v>599</v>
       </c>
     </row>
-    <row r="49" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B49" s="1" t="s">
         <v>30</v>
       </c>
@@ -7685,7 +7727,7 @@
       <c r="D49" s="77"/>
       <c r="E49" s="29"/>
     </row>
-    <row r="50" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B50" s="1" t="s">
         <v>41</v>
       </c>
@@ -7693,11 +7735,11 @@
       <c r="D50" s="97"/>
       <c r="E50" s="1"/>
     </row>
-    <row r="51" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="51" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C51" s="1"/>
       <c r="E51" s="1"/>
     </row>
-    <row r="52" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="52" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="0" t="s">
         <v>285</v>
       </c>
@@ -7710,7 +7752,7 @@
         <v>579</v>
       </c>
     </row>
-    <row r="53" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="53" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B53" s="1" t="s">
         <v>30</v>
       </c>
@@ -7718,7 +7760,7 @@
       <c r="D53" s="20"/>
       <c r="E53" s="1"/>
     </row>
-    <row r="54" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="54" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B54" s="1" t="s">
         <v>41</v>
       </c>
@@ -7726,11 +7768,11 @@
       <c r="D54" s="20"/>
       <c r="E54" s="1"/>
     </row>
-    <row r="55" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="55" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C55" s="1"/>
       <c r="E55" s="1"/>
     </row>
-    <row r="56" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="56" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="1" t="s">
         <v>266</v>
       </c>
@@ -7745,7 +7787,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="57" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="57" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="1"/>
       <c r="B57" s="1" t="s">
         <v>30</v>
@@ -7754,7 +7796,7 @@
       <c r="D57" s="20"/>
       <c r="E57" s="78"/>
     </row>
-    <row r="58" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="58" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="1"/>
       <c r="B58" s="1" t="s">
         <v>41</v>
@@ -7783,18 +7825,18 @@
   </sheetPr>
   <dimension ref="A1:D68"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="71" zoomScaleNormal="71" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="E21" activeCellId="0" sqref="E21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.12890625" defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.14453125" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="1" style="0" width="8.55"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="16.66"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="56.89"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1"/>
       <c r="B1" s="1"/>
       <c r="C1" s="1" t="s">
@@ -7804,7 +7846,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
         <v>266</v>
       </c>
@@ -7818,7 +7860,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1"/>
       <c r="B3" s="1" t="s">
         <v>30</v>
@@ -7828,7 +7870,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1"/>
       <c r="B4" s="1" t="s">
         <v>41</v>
@@ -7840,11 +7882,11 @@
         <v>278</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1"/>
       <c r="B5" s="1"/>
     </row>
-    <row r="6" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
         <v>15</v>
       </c>
@@ -7858,7 +7900,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1"/>
       <c r="B7" s="1" t="s">
         <v>30</v>
@@ -7870,7 +7912,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1"/>
       <c r="B8" s="1" t="s">
         <v>41</v>
@@ -7882,11 +7924,11 @@
         <v>42</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1"/>
       <c r="B9" s="1"/>
     </row>
-    <row r="10" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
         <v>49</v>
       </c>
@@ -7900,7 +7942,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1"/>
       <c r="B11" s="1" t="s">
         <v>30</v>
@@ -7912,7 +7954,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1"/>
       <c r="B12" s="1" t="s">
         <v>41</v>
@@ -7924,11 +7966,11 @@
         <v>64</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1"/>
       <c r="B13" s="1"/>
     </row>
-    <row r="14" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
         <v>75</v>
       </c>
@@ -7942,7 +7984,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="1"/>
       <c r="B15" s="1" t="s">
         <v>30</v>
@@ -7954,7 +7996,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="1"/>
       <c r="B16" s="1" t="s">
         <v>41</v>
@@ -7966,11 +8008,11 @@
         <v>602</v>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="1"/>
       <c r="B17" s="1"/>
     </row>
-    <row r="18" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="1" t="s">
         <v>105</v>
       </c>
@@ -7984,7 +8026,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="19" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="1"/>
       <c r="B19" s="1" t="s">
         <v>30</v>
@@ -7992,7 +8034,7 @@
       <c r="C19" s="102"/>
       <c r="D19" s="103"/>
     </row>
-    <row r="20" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="1"/>
       <c r="B20" s="1" t="s">
         <v>41</v>
@@ -8002,11 +8044,11 @@
         <v>116</v>
       </c>
     </row>
-    <row r="21" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="1"/>
       <c r="B21" s="1"/>
     </row>
-    <row r="22" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="1" t="s">
         <v>118</v>
       </c>
@@ -8020,7 +8062,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="23" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="1"/>
       <c r="B23" s="1" t="s">
         <v>30</v>
@@ -8032,7 +8074,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="24" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="1"/>
       <c r="B24" s="1" t="s">
         <v>41</v>
@@ -8044,11 +8086,11 @@
         <v>132</v>
       </c>
     </row>
-    <row r="25" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="1"/>
       <c r="B25" s="1"/>
     </row>
-    <row r="26" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="1" t="s">
         <v>140</v>
       </c>
@@ -8062,7 +8104,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="27" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="1"/>
       <c r="B27" s="1" t="s">
         <v>30</v>
@@ -8074,7 +8116,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="28" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="1"/>
       <c r="B28" s="1" t="s">
         <v>41</v>
@@ -8086,11 +8128,11 @@
         <v>603</v>
       </c>
     </row>
-    <row r="29" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="1"/>
       <c r="B29" s="1"/>
     </row>
-    <row r="30" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="1" t="s">
         <v>164</v>
       </c>
@@ -8104,7 +8146,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="31" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="1"/>
       <c r="B31" s="1" t="s">
         <v>30</v>
@@ -8114,7 +8156,7 @@
       </c>
       <c r="D31" s="100"/>
     </row>
-    <row r="32" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="1"/>
       <c r="B32" s="1" t="s">
         <v>41</v>
@@ -8124,11 +8166,11 @@
         <v>177</v>
       </c>
     </row>
-    <row r="33" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="1"/>
       <c r="B33" s="1"/>
     </row>
-    <row r="34" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="1" t="s">
         <v>187</v>
       </c>
@@ -8142,7 +8184,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="35" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="1"/>
       <c r="B35" s="1" t="s">
         <v>30</v>
@@ -8152,7 +8194,7 @@
       </c>
       <c r="D35" s="100"/>
     </row>
-    <row r="36" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="1"/>
       <c r="B36" s="1" t="s">
         <v>41</v>
@@ -8162,11 +8204,11 @@
         <v>201</v>
       </c>
     </row>
-    <row r="37" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="1"/>
       <c r="B37" s="1"/>
     </row>
-    <row r="38" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="0" t="s">
         <v>258</v>
       </c>
@@ -8180,7 +8222,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="39" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B39" s="1" t="s">
         <v>30</v>
       </c>
@@ -8189,7 +8231,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="40" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B40" s="1" t="s">
         <v>41</v>
       </c>
@@ -8200,11 +8242,11 @@
         <v>262</v>
       </c>
     </row>
-    <row r="41" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B41" s="1"/>
       <c r="C41" s="76"/>
     </row>
-    <row r="42" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="1" t="s">
         <v>204</v>
       </c>
@@ -8218,7 +8260,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="43" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="1"/>
       <c r="B43" s="1" t="s">
         <v>30</v>
@@ -8230,7 +8272,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="44" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="1"/>
       <c r="B44" s="1" t="s">
         <v>41</v>
@@ -8242,7 +8284,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="46" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="0" t="s">
         <v>218</v>
       </c>
@@ -8256,7 +8298,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="47" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B47" s="1" t="s">
         <v>30</v>
       </c>
@@ -8267,7 +8309,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="48" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B48" s="1" t="s">
         <v>41</v>
       </c>
@@ -8278,7 +8320,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="50" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="0" t="s">
         <v>283</v>
       </c>
@@ -8292,19 +8334,19 @@
         <v>284</v>
       </c>
     </row>
-    <row r="51" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="51" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B51" s="1" t="s">
         <v>30</v>
       </c>
       <c r="C51" s="102"/>
     </row>
-    <row r="52" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="52" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B52" s="1" t="s">
         <v>41</v>
       </c>
       <c r="C52" s="102"/>
     </row>
-    <row r="54" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="54" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="0" t="s">
         <v>285</v>
       </c>
@@ -8318,20 +8360,20 @@
         <v>192</v>
       </c>
     </row>
-    <row r="55" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="55" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B55" s="1" t="s">
         <v>30</v>
       </c>
       <c r="C55" s="102"/>
     </row>
-    <row r="56" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="56" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B56" s="1" t="s">
         <v>41</v>
       </c>
       <c r="C56" s="102"/>
       <c r="D56" s="107"/>
     </row>
-    <row r="58" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="58" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="1" t="s">
         <v>286</v>
       </c>
@@ -8339,23 +8381,23 @@
         <v>16</v>
       </c>
     </row>
-    <row r="59" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="59" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="1"/>
       <c r="B59" s="1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="60" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="60" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="1"/>
       <c r="B60" s="1" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="61" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="61" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="1"/>
       <c r="B61" s="1"/>
     </row>
-    <row r="62" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="62" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="1" t="s">
         <v>290</v>
       </c>
@@ -8363,23 +8405,23 @@
         <v>16</v>
       </c>
     </row>
-    <row r="63" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="63" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="1"/>
       <c r="B63" s="1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="64" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="64" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="1"/>
       <c r="B64" s="1" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="65" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="65" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="1"/>
       <c r="B65" s="1"/>
     </row>
-    <row r="66" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="66" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="1" t="s">
         <v>293</v>
       </c>
@@ -8387,13 +8429,13 @@
         <v>16</v>
       </c>
     </row>
-    <row r="67" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="67" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="1"/>
       <c r="B67" s="1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="68" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="68" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="1"/>
       <c r="B68" s="1" t="s">
         <v>41</v>
@@ -8415,28 +8457,28 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:F200"/>
+  <dimension ref="A1:L200"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B15" activeCellId="0" sqref="B15"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A130" colorId="64" zoomScale="71" zoomScaleNormal="71" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B166" activeCellId="0" sqref="B166"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14453125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.14453125" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="10.36"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="14.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="108" t="n">
         <v>44842</v>
       </c>
       <c r="B1" s="0" t="s">
         <v>307</v>
       </c>
-      <c r="E1" s="35" t="s">
+      <c r="E1" s="0" t="s">
         <v>604</v>
       </c>
-      <c r="F1" s="35" t="s">
+      <c r="F1" s="0" t="s">
         <v>605</v>
       </c>
     </row>
@@ -8448,60 +8490,60 @@
         <v>306</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>306</v>
+        <v>238</v>
       </c>
       <c r="F2" s="0" t="n">
-        <f aca="false">COUNTIF(B$1:B400,"Patrick")</f>
-        <v>5</v>
+        <f aca="false">COUNTIF(B$1:B400,"Maran")+5</f>
+        <v>151</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="109" t="n">
+      <c r="A3" s="108" t="n">
         <v>44844</v>
       </c>
       <c r="B3" s="0" t="s">
         <v>306</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>238</v>
+        <v>307</v>
       </c>
       <c r="F3" s="0" t="n">
-        <f aca="false">COUNTIF(B$1:B401,"Maran")</f>
-        <v>5</v>
+        <f aca="false">COUNTIF(B$1:B401,"Harrington")+5</f>
+        <v>11</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="109" t="n">
+      <c r="A4" s="108" t="n">
         <v>44845</v>
       </c>
       <c r="B4" s="0" t="s">
         <v>306</v>
       </c>
       <c r="E4" s="0" t="s">
-        <v>218</v>
+        <v>306</v>
       </c>
       <c r="F4" s="0" t="n">
-        <f aca="false">COUNTIF($B$1:B402,"Martin")</f>
-        <v>2</v>
+        <f aca="false">COUNTIF(B$1:B402,"Patrick")</f>
+        <v>5</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="109" t="n">
+      <c r="A5" s="108" t="n">
         <v>44846</v>
       </c>
       <c r="B5" s="0" t="s">
         <v>305</v>
       </c>
       <c r="E5" s="0" t="s">
-        <v>307</v>
+        <v>218</v>
       </c>
       <c r="F5" s="0" t="n">
-        <f aca="false">COUNTIF(B$1:B403,"Harrington")</f>
-        <v>1</v>
+        <f aca="false">COUNTIF($B$1:B403,"Martin")</f>
+        <v>2</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="109" t="n">
+      <c r="A6" s="108" t="n">
         <v>44847</v>
       </c>
       <c r="B6" s="0" t="s">
@@ -8648,912 +8690,1467 @@
         <f aca="false">A14+1</f>
         <v>44856</v>
       </c>
+      <c r="B15" s="0" t="s">
+        <v>238</v>
+      </c>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="108" t="n">
         <f aca="false">A15+1</f>
         <v>44857</v>
       </c>
+      <c r="B16" s="0" t="s">
+        <v>238</v>
+      </c>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="108" t="n">
         <f aca="false">A16+1</f>
         <v>44858</v>
       </c>
+      <c r="B17" s="0" t="s">
+        <v>238</v>
+      </c>
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="108" t="n">
         <f aca="false">A17+1</f>
         <v>44859</v>
       </c>
+      <c r="B18" s="0" t="s">
+        <v>238</v>
+      </c>
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="108" t="n">
         <f aca="false">A18+1</f>
         <v>44860</v>
       </c>
+      <c r="B19" s="0" t="s">
+        <v>238</v>
+      </c>
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="108" t="n">
         <f aca="false">A19+1</f>
         <v>44861</v>
       </c>
+      <c r="B20" s="0" t="s">
+        <v>238</v>
+      </c>
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="108" t="n">
         <f aca="false">A20+1</f>
         <v>44862</v>
       </c>
+      <c r="B21" s="0" t="s">
+        <v>238</v>
+      </c>
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="108" t="n">
         <f aca="false">A21+1</f>
         <v>44863</v>
       </c>
+      <c r="B22" s="0" t="s">
+        <v>238</v>
+      </c>
     </row>
     <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="108" t="n">
         <f aca="false">A22+1</f>
         <v>44864</v>
       </c>
+      <c r="B23" s="0" t="s">
+        <v>238</v>
+      </c>
     </row>
     <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="108" t="n">
         <f aca="false">A23+1</f>
         <v>44865</v>
       </c>
+      <c r="B24" s="0" t="s">
+        <v>238</v>
+      </c>
     </row>
     <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="108" t="n">
         <f aca="false">A24+1</f>
         <v>44866</v>
       </c>
+      <c r="B25" s="0" t="s">
+        <v>238</v>
+      </c>
     </row>
     <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="108" t="n">
         <f aca="false">A25+1</f>
         <v>44867</v>
       </c>
+      <c r="B26" s="0" t="s">
+        <v>238</v>
+      </c>
     </row>
     <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="108" t="n">
         <f aca="false">A26+1</f>
         <v>44868</v>
       </c>
+      <c r="B27" s="0" t="s">
+        <v>238</v>
+      </c>
     </row>
     <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="108" t="n">
         <f aca="false">A27+1</f>
         <v>44869</v>
       </c>
+      <c r="B28" s="0" t="s">
+        <v>238</v>
+      </c>
     </row>
     <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="108" t="n">
         <f aca="false">A28+1</f>
         <v>44870</v>
       </c>
+      <c r="B29" s="0" t="s">
+        <v>238</v>
+      </c>
     </row>
     <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="108" t="n">
         <f aca="false">A29+1</f>
         <v>44871</v>
       </c>
+      <c r="B30" s="0" t="s">
+        <v>238</v>
+      </c>
     </row>
     <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="108" t="n">
         <f aca="false">A30+1</f>
         <v>44872</v>
       </c>
+      <c r="B31" s="0" t="s">
+        <v>238</v>
+      </c>
     </row>
     <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="108" t="n">
         <f aca="false">A31+1</f>
         <v>44873</v>
       </c>
+      <c r="B32" s="0" t="s">
+        <v>238</v>
+      </c>
     </row>
     <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="108" t="n">
         <f aca="false">A32+1</f>
         <v>44874</v>
       </c>
+      <c r="B33" s="0" t="s">
+        <v>238</v>
+      </c>
+      <c r="F33" s="0" t="s">
+        <v>606</v>
+      </c>
     </row>
     <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="108" t="n">
         <f aca="false">A33+1</f>
         <v>44875</v>
       </c>
+      <c r="B34" s="0" t="s">
+        <v>238</v>
+      </c>
     </row>
     <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="108" t="n">
         <f aca="false">A34+1</f>
         <v>44876</v>
       </c>
+      <c r="B35" s="0" t="s">
+        <v>238</v>
+      </c>
+      <c r="F35" s="0" t="s">
+        <v>307</v>
+      </c>
+      <c r="G35" s="0" t="s">
+        <v>607</v>
+      </c>
+      <c r="H35" s="0" t="s">
+        <v>608</v>
+      </c>
+      <c r="I35" s="0" t="s">
+        <v>609</v>
+      </c>
+      <c r="K35" s="0" t="s">
+        <v>610</v>
+      </c>
     </row>
     <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="108" t="n">
         <f aca="false">A35+1</f>
         <v>44877</v>
       </c>
+      <c r="B36" s="0" t="s">
+        <v>238</v>
+      </c>
+      <c r="F36" s="0" t="s">
+        <v>238</v>
+      </c>
+      <c r="G36" s="0" t="s">
+        <v>611</v>
+      </c>
+      <c r="K36" s="0" t="s">
+        <v>612</v>
+      </c>
+      <c r="L36" s="0" t="s">
+        <v>613</v>
+      </c>
     </row>
     <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="108" t="n">
         <f aca="false">A36+1</f>
         <v>44878</v>
       </c>
+      <c r="B37" s="0" t="s">
+        <v>238</v>
+      </c>
+      <c r="F37" s="0" t="s">
+        <v>164</v>
+      </c>
+      <c r="G37" s="0" t="s">
+        <v>614</v>
+      </c>
+      <c r="H37" s="0" t="s">
+        <v>615</v>
+      </c>
+      <c r="K37" s="0" t="s">
+        <v>616</v>
+      </c>
     </row>
     <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="108" t="n">
         <f aca="false">A37+1</f>
         <v>44879</v>
       </c>
+      <c r="B38" s="0" t="s">
+        <v>238</v>
+      </c>
+      <c r="F38" s="0" t="s">
+        <v>617</v>
+      </c>
+      <c r="G38" s="0" t="s">
+        <v>618</v>
+      </c>
+      <c r="H38" s="0" t="s">
+        <v>619</v>
+      </c>
     </row>
     <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="108" t="n">
         <f aca="false">A38+1</f>
         <v>44880</v>
       </c>
+      <c r="B39" s="0" t="s">
+        <v>238</v>
+      </c>
+      <c r="F39" s="0" t="s">
+        <v>187</v>
+      </c>
     </row>
     <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="108" t="n">
         <f aca="false">A39+1</f>
         <v>44881</v>
       </c>
+      <c r="B40" s="0" t="s">
+        <v>238</v>
+      </c>
+      <c r="F40" s="0" t="s">
+        <v>304</v>
+      </c>
+      <c r="G40" s="0" t="s">
+        <v>620</v>
+      </c>
+      <c r="H40" s="0" t="s">
+        <v>621</v>
+      </c>
     </row>
     <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="108" t="n">
         <f aca="false">A40+1</f>
         <v>44882</v>
       </c>
+      <c r="B41" s="0" t="s">
+        <v>238</v>
+      </c>
+      <c r="F41" s="0" t="s">
+        <v>204</v>
+      </c>
     </row>
     <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="108" t="n">
         <f aca="false">A41+1</f>
         <v>44883</v>
       </c>
+      <c r="B42" s="0" t="s">
+        <v>238</v>
+      </c>
+      <c r="F42" s="0" t="s">
+        <v>249</v>
+      </c>
+      <c r="G42" s="0" t="s">
+        <v>622</v>
+      </c>
     </row>
     <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="108" t="n">
         <f aca="false">A42+1</f>
         <v>44884</v>
       </c>
+      <c r="B43" s="0" t="s">
+        <v>238</v>
+      </c>
+      <c r="F43" s="0" t="s">
+        <v>218</v>
+      </c>
+      <c r="G43" s="0" t="s">
+        <v>623</v>
+      </c>
+      <c r="H43" s="0" t="s">
+        <v>624</v>
+      </c>
     </row>
     <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="108" t="n">
         <f aca="false">A43+1</f>
         <v>44885</v>
       </c>
+      <c r="B44" s="0" t="s">
+        <v>238</v>
+      </c>
+      <c r="F44" s="0" t="s">
+        <v>229</v>
+      </c>
     </row>
     <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="108" t="n">
         <f aca="false">A44+1</f>
         <v>44886</v>
       </c>
+      <c r="B45" s="0" t="s">
+        <v>238</v>
+      </c>
+      <c r="F45" s="0" t="s">
+        <v>306</v>
+      </c>
+      <c r="G45" s="0" t="s">
+        <v>625</v>
+      </c>
+      <c r="H45" s="0" t="s">
+        <v>626</v>
+      </c>
     </row>
     <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="108" t="n">
         <f aca="false">A45+1</f>
         <v>44887</v>
       </c>
+      <c r="B46" s="0" t="s">
+        <v>238</v>
+      </c>
+      <c r="F46" s="0" t="s">
+        <v>266</v>
+      </c>
+      <c r="G46" s="0" t="s">
+        <v>627</v>
+      </c>
     </row>
     <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="108" t="n">
         <f aca="false">A46+1</f>
         <v>44888</v>
       </c>
+      <c r="B47" s="0" t="s">
+        <v>238</v>
+      </c>
     </row>
     <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="108" t="n">
         <f aca="false">A47+1</f>
         <v>44889</v>
       </c>
+      <c r="B48" s="0" t="s">
+        <v>238</v>
+      </c>
     </row>
     <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="108" t="n">
         <f aca="false">A48+1</f>
         <v>44890</v>
       </c>
+      <c r="B49" s="0" t="s">
+        <v>238</v>
+      </c>
     </row>
     <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="108" t="n">
         <f aca="false">A49+1</f>
         <v>44891</v>
       </c>
+      <c r="B50" s="0" t="s">
+        <v>238</v>
+      </c>
     </row>
     <row r="51" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="108" t="n">
         <f aca="false">A50+1</f>
         <v>44892</v>
       </c>
+      <c r="B51" s="0" t="s">
+        <v>238</v>
+      </c>
     </row>
     <row r="52" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="108" t="n">
         <f aca="false">A51+1</f>
         <v>44893</v>
       </c>
+      <c r="B52" s="0" t="s">
+        <v>238</v>
+      </c>
     </row>
     <row r="53" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="108" t="n">
         <f aca="false">A52+1</f>
         <v>44894</v>
       </c>
+      <c r="B53" s="0" t="s">
+        <v>238</v>
+      </c>
     </row>
     <row r="54" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="108" t="n">
         <f aca="false">A53+1</f>
         <v>44895</v>
       </c>
+      <c r="B54" s="0" t="s">
+        <v>238</v>
+      </c>
     </row>
     <row r="55" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="108" t="n">
         <f aca="false">A54+1</f>
         <v>44896</v>
       </c>
+      <c r="B55" s="0" t="s">
+        <v>238</v>
+      </c>
     </row>
     <row r="56" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="108" t="n">
         <f aca="false">A55+1</f>
         <v>44897</v>
       </c>
+      <c r="B56" s="0" t="s">
+        <v>238</v>
+      </c>
     </row>
     <row r="57" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="108" t="n">
         <f aca="false">A56+1</f>
         <v>44898</v>
       </c>
+      <c r="B57" s="0" t="s">
+        <v>238</v>
+      </c>
     </row>
     <row r="58" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="108" t="n">
         <f aca="false">A57+1</f>
         <v>44899</v>
       </c>
+      <c r="B58" s="0" t="s">
+        <v>238</v>
+      </c>
     </row>
     <row r="59" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="108" t="n">
         <f aca="false">A58+1</f>
         <v>44900</v>
       </c>
+      <c r="B59" s="0" t="s">
+        <v>238</v>
+      </c>
     </row>
     <row r="60" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="108" t="n">
         <f aca="false">A59+1</f>
         <v>44901</v>
       </c>
+      <c r="B60" s="0" t="s">
+        <v>238</v>
+      </c>
     </row>
     <row r="61" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="108" t="n">
         <f aca="false">A60+1</f>
         <v>44902</v>
       </c>
+      <c r="B61" s="0" t="s">
+        <v>238</v>
+      </c>
     </row>
     <row r="62" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="108" t="n">
         <f aca="false">A61+1</f>
         <v>44903</v>
       </c>
+      <c r="B62" s="0" t="s">
+        <v>238</v>
+      </c>
     </row>
     <row r="63" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="108" t="n">
         <f aca="false">A62+1</f>
         <v>44904</v>
       </c>
+      <c r="B63" s="0" t="s">
+        <v>238</v>
+      </c>
     </row>
     <row r="64" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="108" t="n">
         <f aca="false">A63+1</f>
         <v>44905</v>
       </c>
+      <c r="B64" s="0" t="s">
+        <v>238</v>
+      </c>
     </row>
     <row r="65" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="108" t="n">
         <f aca="false">A64+1</f>
         <v>44906</v>
       </c>
+      <c r="B65" s="0" t="s">
+        <v>238</v>
+      </c>
     </row>
     <row r="66" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="108" t="n">
         <f aca="false">A65+1</f>
         <v>44907</v>
       </c>
+      <c r="B66" s="0" t="s">
+        <v>238</v>
+      </c>
     </row>
     <row r="67" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="108" t="n">
         <f aca="false">A66+1</f>
         <v>44908</v>
       </c>
+      <c r="B67" s="0" t="s">
+        <v>238</v>
+      </c>
     </row>
     <row r="68" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="108" t="n">
         <f aca="false">A67+1</f>
         <v>44909</v>
       </c>
+      <c r="B68" s="0" t="s">
+        <v>238</v>
+      </c>
     </row>
     <row r="69" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="108" t="n">
         <f aca="false">A68+1</f>
         <v>44910</v>
       </c>
+      <c r="B69" s="0" t="s">
+        <v>238</v>
+      </c>
     </row>
     <row r="70" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="108" t="n">
         <f aca="false">A69+1</f>
         <v>44911</v>
       </c>
+      <c r="B70" s="0" t="s">
+        <v>238</v>
+      </c>
     </row>
     <row r="71" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="108" t="n">
         <f aca="false">A70+1</f>
         <v>44912</v>
       </c>
+      <c r="B71" s="0" t="s">
+        <v>238</v>
+      </c>
     </row>
     <row r="72" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="108" t="n">
         <f aca="false">A71+1</f>
         <v>44913</v>
       </c>
+      <c r="B72" s="0" t="s">
+        <v>238</v>
+      </c>
     </row>
     <row r="73" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="108" t="n">
         <f aca="false">A72+1</f>
         <v>44914</v>
       </c>
+      <c r="B73" s="0" t="s">
+        <v>238</v>
+      </c>
     </row>
     <row r="74" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A74" s="108" t="n">
         <f aca="false">A73+1</f>
         <v>44915</v>
       </c>
+      <c r="B74" s="0" t="s">
+        <v>238</v>
+      </c>
     </row>
     <row r="75" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="108" t="n">
         <f aca="false">A74+1</f>
         <v>44916</v>
       </c>
+      <c r="B75" s="0" t="s">
+        <v>238</v>
+      </c>
     </row>
     <row r="76" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A76" s="108" t="n">
         <f aca="false">A75+1</f>
         <v>44917</v>
       </c>
+      <c r="B76" s="0" t="s">
+        <v>238</v>
+      </c>
     </row>
     <row r="77" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A77" s="108" t="n">
         <f aca="false">A76+1</f>
         <v>44918</v>
       </c>
+      <c r="B77" s="0" t="s">
+        <v>238</v>
+      </c>
     </row>
     <row r="78" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A78" s="108" t="n">
         <f aca="false">A77+1</f>
         <v>44919</v>
       </c>
+      <c r="B78" s="0" t="s">
+        <v>238</v>
+      </c>
     </row>
     <row r="79" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A79" s="108" t="n">
         <f aca="false">A78+1</f>
         <v>44920</v>
       </c>
+      <c r="B79" s="0" t="s">
+        <v>238</v>
+      </c>
     </row>
     <row r="80" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A80" s="108" t="n">
         <f aca="false">A79+1</f>
         <v>44921</v>
       </c>
+      <c r="B80" s="0" t="s">
+        <v>238</v>
+      </c>
     </row>
     <row r="81" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A81" s="108" t="n">
         <f aca="false">A80+1</f>
         <v>44922</v>
       </c>
+      <c r="B81" s="0" t="s">
+        <v>238</v>
+      </c>
     </row>
     <row r="82" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A82" s="108" t="n">
         <f aca="false">A81+1</f>
         <v>44923</v>
       </c>
+      <c r="B82" s="0" t="s">
+        <v>238</v>
+      </c>
     </row>
     <row r="83" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A83" s="108" t="n">
         <f aca="false">A82+1</f>
         <v>44924</v>
       </c>
+      <c r="B83" s="0" t="s">
+        <v>238</v>
+      </c>
     </row>
     <row r="84" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A84" s="108" t="n">
         <f aca="false">A83+1</f>
         <v>44925</v>
       </c>
+      <c r="B84" s="0" t="s">
+        <v>238</v>
+      </c>
     </row>
     <row r="85" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A85" s="108" t="n">
         <f aca="false">A84+1</f>
         <v>44926</v>
       </c>
+      <c r="B85" s="0" t="s">
+        <v>238</v>
+      </c>
     </row>
     <row r="86" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A86" s="108" t="n">
         <f aca="false">A85+1</f>
         <v>44927</v>
       </c>
+      <c r="B86" s="0" t="s">
+        <v>238</v>
+      </c>
     </row>
     <row r="87" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A87" s="108" t="n">
         <f aca="false">A86+1</f>
         <v>44928</v>
       </c>
+      <c r="B87" s="0" t="s">
+        <v>238</v>
+      </c>
     </row>
     <row r="88" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A88" s="108" t="n">
         <f aca="false">A87+1</f>
         <v>44929</v>
       </c>
+      <c r="B88" s="0" t="s">
+        <v>238</v>
+      </c>
     </row>
     <row r="89" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A89" s="108" t="n">
         <f aca="false">A88+1</f>
         <v>44930</v>
       </c>
+      <c r="B89" s="0" t="s">
+        <v>238</v>
+      </c>
     </row>
     <row r="90" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A90" s="108" t="n">
         <f aca="false">A89+1</f>
         <v>44931</v>
       </c>
+      <c r="B90" s="0" t="s">
+        <v>238</v>
+      </c>
     </row>
     <row r="91" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A91" s="108" t="n">
         <f aca="false">A90+1</f>
         <v>44932</v>
       </c>
+      <c r="B91" s="0" t="s">
+        <v>238</v>
+      </c>
     </row>
     <row r="92" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A92" s="108" t="n">
         <f aca="false">A91+1</f>
         <v>44933</v>
       </c>
+      <c r="B92" s="0" t="s">
+        <v>238</v>
+      </c>
     </row>
     <row r="93" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A93" s="108" t="n">
         <f aca="false">A92+1</f>
         <v>44934</v>
       </c>
+      <c r="B93" s="0" t="s">
+        <v>238</v>
+      </c>
     </row>
     <row r="94" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A94" s="108" t="n">
         <f aca="false">A93+1</f>
         <v>44935</v>
       </c>
+      <c r="B94" s="0" t="s">
+        <v>238</v>
+      </c>
     </row>
     <row r="95" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A95" s="108" t="n">
         <f aca="false">A94+1</f>
         <v>44936</v>
       </c>
+      <c r="B95" s="0" t="s">
+        <v>238</v>
+      </c>
     </row>
     <row r="96" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A96" s="108" t="n">
         <f aca="false">A95+1</f>
         <v>44937</v>
       </c>
+      <c r="B96" s="0" t="s">
+        <v>238</v>
+      </c>
     </row>
     <row r="97" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A97" s="108" t="n">
         <f aca="false">A96+1</f>
         <v>44938</v>
       </c>
+      <c r="B97" s="0" t="s">
+        <v>238</v>
+      </c>
     </row>
     <row r="98" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A98" s="108" t="n">
         <f aca="false">A97+1</f>
         <v>44939</v>
       </c>
+      <c r="B98" s="0" t="s">
+        <v>238</v>
+      </c>
     </row>
     <row r="99" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A99" s="108" t="n">
         <f aca="false">A98+1</f>
         <v>44940</v>
       </c>
+      <c r="B99" s="0" t="s">
+        <v>238</v>
+      </c>
     </row>
     <row r="100" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A100" s="108" t="n">
         <f aca="false">A99+1</f>
         <v>44941</v>
       </c>
+      <c r="B100" s="0" t="s">
+        <v>238</v>
+      </c>
     </row>
     <row r="101" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A101" s="108" t="n">
         <f aca="false">A100+1</f>
         <v>44942</v>
       </c>
+      <c r="B101" s="0" t="s">
+        <v>238</v>
+      </c>
     </row>
     <row r="102" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A102" s="108" t="n">
         <f aca="false">A101+1</f>
         <v>44943</v>
       </c>
+      <c r="B102" s="0" t="s">
+        <v>238</v>
+      </c>
     </row>
     <row r="103" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A103" s="108" t="n">
         <f aca="false">A102+1</f>
         <v>44944</v>
       </c>
+      <c r="B103" s="0" t="s">
+        <v>238</v>
+      </c>
     </row>
     <row r="104" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A104" s="108" t="n">
         <f aca="false">A103+1</f>
         <v>44945</v>
       </c>
+      <c r="B104" s="0" t="s">
+        <v>238</v>
+      </c>
     </row>
     <row r="105" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A105" s="108" t="n">
         <f aca="false">A104+1</f>
         <v>44946</v>
       </c>
+      <c r="B105" s="0" t="s">
+        <v>238</v>
+      </c>
     </row>
     <row r="106" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A106" s="108" t="n">
         <f aca="false">A105+1</f>
         <v>44947</v>
       </c>
+      <c r="B106" s="0" t="s">
+        <v>238</v>
+      </c>
     </row>
     <row r="107" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A107" s="108" t="n">
         <f aca="false">A106+1</f>
         <v>44948</v>
       </c>
+      <c r="B107" s="0" t="s">
+        <v>238</v>
+      </c>
     </row>
     <row r="108" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A108" s="108" t="n">
         <f aca="false">A107+1</f>
         <v>44949</v>
       </c>
+      <c r="B108" s="0" t="s">
+        <v>238</v>
+      </c>
     </row>
     <row r="109" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A109" s="108" t="n">
         <f aca="false">A108+1</f>
         <v>44950</v>
       </c>
+      <c r="B109" s="0" t="s">
+        <v>238</v>
+      </c>
     </row>
     <row r="110" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A110" s="108" t="n">
         <f aca="false">A109+1</f>
         <v>44951</v>
       </c>
+      <c r="B110" s="0" t="s">
+        <v>238</v>
+      </c>
     </row>
     <row r="111" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A111" s="108" t="n">
         <f aca="false">A110+1</f>
         <v>44952</v>
       </c>
+      <c r="B111" s="0" t="s">
+        <v>238</v>
+      </c>
     </row>
     <row r="112" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A112" s="108" t="n">
         <f aca="false">A111+1</f>
         <v>44953</v>
       </c>
+      <c r="B112" s="0" t="s">
+        <v>238</v>
+      </c>
     </row>
     <row r="113" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A113" s="108" t="n">
         <f aca="false">A112+1</f>
         <v>44954</v>
       </c>
+      <c r="B113" s="0" t="s">
+        <v>238</v>
+      </c>
     </row>
     <row r="114" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A114" s="108" t="n">
         <f aca="false">A113+1</f>
         <v>44955</v>
       </c>
+      <c r="B114" s="0" t="s">
+        <v>238</v>
+      </c>
     </row>
     <row r="115" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A115" s="108" t="n">
         <f aca="false">A114+1</f>
         <v>44956</v>
       </c>
+      <c r="B115" s="0" t="s">
+        <v>238</v>
+      </c>
     </row>
     <row r="116" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A116" s="108" t="n">
         <f aca="false">A115+1</f>
         <v>44957</v>
       </c>
+      <c r="B116" s="0" t="s">
+        <v>238</v>
+      </c>
     </row>
     <row r="117" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A117" s="108" t="n">
         <f aca="false">A116+1</f>
         <v>44958</v>
       </c>
+      <c r="B117" s="0" t="s">
+        <v>238</v>
+      </c>
     </row>
     <row r="118" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A118" s="108" t="n">
         <f aca="false">A117+1</f>
         <v>44959</v>
       </c>
+      <c r="B118" s="0" t="s">
+        <v>238</v>
+      </c>
     </row>
     <row r="119" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A119" s="108" t="n">
         <f aca="false">A118+1</f>
         <v>44960</v>
       </c>
+      <c r="B119" s="0" t="s">
+        <v>238</v>
+      </c>
     </row>
     <row r="120" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A120" s="108" t="n">
         <f aca="false">A119+1</f>
         <v>44961</v>
       </c>
+      <c r="B120" s="0" t="s">
+        <v>238</v>
+      </c>
     </row>
     <row r="121" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A121" s="108" t="n">
         <f aca="false">A120+1</f>
         <v>44962</v>
       </c>
+      <c r="B121" s="0" t="s">
+        <v>238</v>
+      </c>
     </row>
     <row r="122" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A122" s="108" t="n">
         <f aca="false">A121+1</f>
         <v>44963</v>
       </c>
+      <c r="B122" s="0" t="s">
+        <v>238</v>
+      </c>
     </row>
     <row r="123" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A123" s="108" t="n">
         <f aca="false">A122+1</f>
         <v>44964</v>
       </c>
+      <c r="B123" s="0" t="s">
+        <v>238</v>
+      </c>
     </row>
     <row r="124" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A124" s="108" t="n">
         <f aca="false">A123+1</f>
         <v>44965</v>
       </c>
+      <c r="B124" s="0" t="s">
+        <v>238</v>
+      </c>
     </row>
     <row r="125" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A125" s="108" t="n">
         <f aca="false">A124+1</f>
         <v>44966</v>
       </c>
+      <c r="B125" s="0" t="s">
+        <v>238</v>
+      </c>
     </row>
     <row r="126" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A126" s="108" t="n">
         <f aca="false">A125+1</f>
         <v>44967</v>
       </c>
+      <c r="B126" s="0" t="s">
+        <v>238</v>
+      </c>
     </row>
     <row r="127" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A127" s="108" t="n">
         <f aca="false">A126+1</f>
         <v>44968</v>
       </c>
+      <c r="B127" s="0" t="s">
+        <v>238</v>
+      </c>
     </row>
     <row r="128" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A128" s="108" t="n">
         <f aca="false">A127+1</f>
         <v>44969</v>
       </c>
+      <c r="B128" s="0" t="s">
+        <v>238</v>
+      </c>
     </row>
     <row r="129" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A129" s="108" t="n">
         <f aca="false">A128+1</f>
         <v>44970</v>
       </c>
+      <c r="B129" s="0" t="s">
+        <v>238</v>
+      </c>
     </row>
     <row r="130" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A130" s="108" t="n">
         <f aca="false">A129+1</f>
         <v>44971</v>
       </c>
+      <c r="B130" s="0" t="s">
+        <v>238</v>
+      </c>
     </row>
     <row r="131" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A131" s="108" t="n">
         <f aca="false">A130+1</f>
         <v>44972</v>
       </c>
+      <c r="B131" s="0" t="s">
+        <v>238</v>
+      </c>
     </row>
     <row r="132" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A132" s="108" t="n">
         <f aca="false">A131+1</f>
         <v>44973</v>
       </c>
+      <c r="B132" s="0" t="s">
+        <v>238</v>
+      </c>
     </row>
     <row r="133" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A133" s="108" t="n">
         <f aca="false">A132+1</f>
         <v>44974</v>
       </c>
+      <c r="B133" s="0" t="s">
+        <v>238</v>
+      </c>
     </row>
     <row r="134" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A134" s="108" t="n">
         <f aca="false">A133+1</f>
         <v>44975</v>
       </c>
+      <c r="B134" s="0" t="s">
+        <v>238</v>
+      </c>
     </row>
     <row r="135" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A135" s="108" t="n">
         <f aca="false">A134+1</f>
         <v>44976</v>
       </c>
+      <c r="B135" s="0" t="s">
+        <v>238</v>
+      </c>
     </row>
     <row r="136" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A136" s="108" t="n">
         <f aca="false">A135+1</f>
         <v>44977</v>
       </c>
+      <c r="B136" s="0" t="s">
+        <v>238</v>
+      </c>
     </row>
     <row r="137" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A137" s="108" t="n">
         <f aca="false">A136+1</f>
         <v>44978</v>
       </c>
+      <c r="B137" s="0" t="s">
+        <v>238</v>
+      </c>
     </row>
     <row r="138" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A138" s="108" t="n">
         <f aca="false">A137+1</f>
         <v>44979</v>
       </c>
+      <c r="B138" s="0" t="s">
+        <v>238</v>
+      </c>
     </row>
     <row r="139" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A139" s="108" t="n">
         <f aca="false">A138+1</f>
         <v>44980</v>
       </c>
+      <c r="B139" s="0" t="s">
+        <v>238</v>
+      </c>
     </row>
     <row r="140" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A140" s="108" t="n">
         <f aca="false">A139+1</f>
         <v>44981</v>
       </c>
+      <c r="B140" s="0" t="s">
+        <v>238</v>
+      </c>
     </row>
     <row r="141" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A141" s="108" t="n">
         <f aca="false">A140+1</f>
         <v>44982</v>
       </c>
+      <c r="B141" s="0" t="s">
+        <v>238</v>
+      </c>
     </row>
     <row r="142" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A142" s="108" t="n">
         <f aca="false">A141+1</f>
         <v>44983</v>
       </c>
+      <c r="B142" s="0" t="s">
+        <v>238</v>
+      </c>
     </row>
     <row r="143" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A143" s="108" t="n">
         <f aca="false">A142+1</f>
         <v>44984</v>
       </c>
+      <c r="B143" s="0" t="s">
+        <v>238</v>
+      </c>
     </row>
     <row r="144" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A144" s="108" t="n">
         <f aca="false">A143+1</f>
         <v>44985</v>
       </c>
+      <c r="B144" s="0" t="s">
+        <v>238</v>
+      </c>
     </row>
     <row r="145" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A145" s="108" t="n">
         <f aca="false">A144+1</f>
         <v>44986</v>
       </c>
+      <c r="B145" s="0" t="s">
+        <v>238</v>
+      </c>
     </row>
     <row r="146" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A146" s="108" t="n">
         <f aca="false">A145+1</f>
         <v>44987</v>
       </c>
+      <c r="B146" s="0" t="s">
+        <v>238</v>
+      </c>
     </row>
     <row r="147" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A147" s="108" t="n">
         <f aca="false">A146+1</f>
         <v>44988</v>
       </c>
+      <c r="B147" s="0" t="s">
+        <v>238</v>
+      </c>
     </row>
     <row r="148" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A148" s="108" t="n">
         <f aca="false">A147+1</f>
         <v>44989</v>
       </c>
+      <c r="B148" s="0" t="s">
+        <v>628</v>
+      </c>
     </row>
     <row r="149" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A149" s="108" t="n">
         <f aca="false">A148+1</f>
         <v>44990</v>
       </c>
+      <c r="B149" s="0" t="s">
+        <v>307</v>
+      </c>
     </row>
     <row r="150" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A150" s="108" t="n">
         <f aca="false">A149+1</f>
         <v>44991</v>
       </c>
+      <c r="B150" s="0" t="s">
+        <v>238</v>
+      </c>
     </row>
     <row r="151" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A151" s="108" t="n">
         <f aca="false">A150+1</f>
         <v>44992</v>
       </c>
+      <c r="B151" s="0" t="s">
+        <v>628</v>
+      </c>
     </row>
     <row r="152" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A152" s="108" t="n">
         <f aca="false">A151+1</f>
         <v>44993</v>
       </c>
+      <c r="B152" s="0" t="s">
+        <v>238</v>
+      </c>
     </row>
     <row r="153" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A153" s="108" t="n">
         <f aca="false">A152+1</f>
         <v>44994</v>
       </c>
+      <c r="B153" s="0" t="s">
+        <v>238</v>
+      </c>
     </row>
     <row r="154" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A154" s="108" t="n">
         <f aca="false">A153+1</f>
         <v>44995</v>
       </c>
+      <c r="B154" s="0" t="s">
+        <v>628</v>
+      </c>
     </row>
     <row r="155" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A155" s="108" t="n">
         <f aca="false">A154+1</f>
         <v>44996</v>
       </c>
+      <c r="B155" s="0" t="s">
+        <v>238</v>
+      </c>
     </row>
     <row r="156" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A156" s="108" t="n">
         <f aca="false">A155+1</f>
         <v>44997</v>
       </c>
+      <c r="B156" s="0" t="s">
+        <v>307</v>
+      </c>
     </row>
     <row r="157" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A157" s="108" t="n">
         <f aca="false">A156+1</f>
         <v>44998</v>
       </c>
+      <c r="B157" s="0" t="s">
+        <v>307</v>
+      </c>
     </row>
     <row r="158" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A158" s="108" t="n">
         <f aca="false">A157+1</f>
         <v>44999</v>
       </c>
+      <c r="B158" s="0" t="s">
+        <v>628</v>
+      </c>
     </row>
     <row r="159" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A159" s="108" t="n">
         <f aca="false">A158+1</f>
         <v>45000</v>
       </c>
+      <c r="B159" s="0" t="s">
+        <v>307</v>
+      </c>
     </row>
     <row r="160" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A160" s="108" t="n">
         <f aca="false">A159+1</f>
         <v>45001</v>
       </c>
+      <c r="B160" s="0" t="s">
+        <v>238</v>
+      </c>
     </row>
     <row r="161" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A161" s="108" t="n">
         <f aca="false">A160+1</f>
         <v>45002</v>
       </c>
+      <c r="B161" s="0" t="s">
+        <v>238</v>
+      </c>
     </row>
     <row r="162" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A162" s="108" t="n">
         <f aca="false">A161+1</f>
         <v>45003</v>
       </c>
+      <c r="B162" s="0" t="s">
+        <v>238</v>
+      </c>
     </row>
     <row r="163" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A163" s="108" t="n">
         <f aca="false">A162+1</f>
         <v>45004</v>
       </c>
+      <c r="B163" s="0" t="s">
+        <v>238</v>
+      </c>
     </row>
     <row r="164" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A164" s="108" t="n">
         <f aca="false">A163+1</f>
         <v>45005</v>
       </c>
+      <c r="B164" s="0" t="s">
+        <v>628</v>
+      </c>
     </row>
     <row r="165" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A165" s="108" t="n">
         <f aca="false">A164+1</f>
         <v>45006</v>
       </c>
+      <c r="B165" s="0" t="s">
+        <v>307</v>
+      </c>
     </row>
     <row r="166" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A166" s="108" t="n">
         <f aca="false">A165+1</f>
         <v>45007</v>
       </c>
+      <c r="B166" s="0" t="s">
+        <v>629</v>
+      </c>
     </row>
     <row r="167" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A167" s="108" t="n">
@@ -9761,11 +10358,11 @@
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.025" bottom="1.025" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
-    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+    <oddHeader>&amp;C&amp;"Arial,Regular"&amp;10&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Arial,Regular"&amp;10Page &amp;P</oddFooter>
   </headerFooter>
   <drawing r:id="rId1"/>
 </worksheet>
@@ -9778,125 +10375,125 @@
   </sheetPr>
   <dimension ref="A1:N3"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="71" zoomScaleNormal="71" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A8" activeCellId="0" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14453125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
-    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="110" t="s">
-        <v>606</v>
-      </c>
-      <c r="B1" s="111"/>
-      <c r="C1" s="111"/>
-      <c r="D1" s="111"/>
-      <c r="E1" s="111"/>
-      <c r="F1" s="111"/>
-      <c r="G1" s="111"/>
-      <c r="H1" s="111"/>
-      <c r="I1" s="111"/>
-      <c r="J1" s="111"/>
-      <c r="K1" s="111"/>
-      <c r="L1" s="111"/>
-      <c r="M1" s="111"/>
-      <c r="N1" s="112"/>
-    </row>
-    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="113" t="s">
+    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="109" t="s">
+        <v>604</v>
+      </c>
+      <c r="B1" s="110"/>
+      <c r="C1" s="110"/>
+      <c r="D1" s="110"/>
+      <c r="E1" s="110"/>
+      <c r="F1" s="110"/>
+      <c r="G1" s="110"/>
+      <c r="H1" s="110"/>
+      <c r="I1" s="110"/>
+      <c r="J1" s="110"/>
+      <c r="K1" s="110"/>
+      <c r="L1" s="110"/>
+      <c r="M1" s="110"/>
+      <c r="N1" s="111"/>
+    </row>
+    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="112" t="s">
         <v>229</v>
       </c>
-      <c r="B2" s="114" t="s">
+      <c r="B2" s="113" t="s">
         <v>304</v>
       </c>
-      <c r="C2" s="114" t="s">
+      <c r="C2" s="113" t="s">
         <v>187</v>
       </c>
-      <c r="D2" s="114" t="s">
+      <c r="D2" s="113" t="s">
         <v>204</v>
       </c>
-      <c r="E2" s="114" t="s">
+      <c r="E2" s="113" t="s">
         <v>307</v>
       </c>
-      <c r="F2" s="114" t="s">
+      <c r="F2" s="113" t="s">
         <v>164</v>
       </c>
-      <c r="G2" s="114" t="s">
+      <c r="G2" s="113" t="s">
         <v>249</v>
       </c>
-      <c r="H2" s="114" t="s">
+      <c r="H2" s="113" t="s">
         <v>266</v>
       </c>
-      <c r="I2" s="114" t="s">
-        <v>238</v>
-      </c>
-      <c r="J2" s="114" t="s">
+      <c r="I2" s="113" t="s">
+        <v>238</v>
+      </c>
+      <c r="J2" s="113" t="s">
         <v>218</v>
       </c>
-      <c r="K2" s="114" t="s">
+      <c r="K2" s="113" t="s">
         <v>118</v>
       </c>
-      <c r="L2" s="114" t="s">
+      <c r="L2" s="113" t="s">
         <v>306</v>
       </c>
-      <c r="M2" s="114" t="s">
+      <c r="M2" s="113" t="s">
         <v>305</v>
       </c>
-      <c r="N2" s="115" t="s">
-        <v>607</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="116" t="n">
+      <c r="N2" s="114" t="s">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="115" t="n">
         <v>0</v>
       </c>
-      <c r="B3" s="117" t="n">
+      <c r="B3" s="116" t="n">
         <v>0</v>
       </c>
-      <c r="C3" s="117" t="n">
+      <c r="C3" s="116" t="n">
         <v>0</v>
       </c>
-      <c r="D3" s="117" t="n">
+      <c r="D3" s="116" t="n">
         <v>0</v>
       </c>
-      <c r="E3" s="117" t="n">
-        <v>1</v>
-      </c>
-      <c r="F3" s="117" t="n">
+      <c r="E3" s="116" t="n">
+        <v>9</v>
+      </c>
+      <c r="F3" s="116" t="n">
         <v>0</v>
       </c>
-      <c r="G3" s="117" t="n">
+      <c r="G3" s="116" t="n">
         <v>0</v>
       </c>
-      <c r="H3" s="117" t="n">
+      <c r="H3" s="116" t="n">
         <v>0</v>
       </c>
-      <c r="I3" s="117" t="n">
+      <c r="I3" s="116" t="n">
+        <v>149</v>
+      </c>
+      <c r="J3" s="116" t="n">
+        <v>2</v>
+      </c>
+      <c r="K3" s="116" t="n">
         <v>0</v>
       </c>
-      <c r="J3" s="117" t="n">
-        <v>0</v>
-      </c>
-      <c r="K3" s="117" t="n">
-        <v>0</v>
-      </c>
-      <c r="L3" s="117" t="n">
-        <v>4</v>
-      </c>
-      <c r="M3" s="118" t="n">
-        <v>1</v>
-      </c>
-      <c r="N3" s="119" t="n">
-        <v>6</v>
+      <c r="L3" s="116" t="n">
+        <v>5</v>
+      </c>
+      <c r="M3" s="117" t="n">
+        <v>1</v>
+      </c>
+      <c r="N3" s="118" t="n">
+        <v>166</v>
       </c>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.025" bottom="1.025" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
-    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+    <oddHeader>&amp;C&amp;"Arial,Regular"&amp;10&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Arial,Regular"&amp;10Page &amp;P</oddFooter>
   </headerFooter>
 </worksheet>
 </file>
@@ -9908,18 +10505,20 @@
   </sheetPr>
   <dimension ref="A1:E53"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="71" zoomScaleNormal="71" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="E33" activeCellId="0" sqref="E33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.14453125" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="1" style="0" width="8.54"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="26.21"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="35" width="31.22"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="19.89"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="64" min="6" style="0" width="8.54"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1"/>
       <c r="B1" s="1"/>
       <c r="C1" s="1" t="s">
@@ -9932,12 +10531,12 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1"/>
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
     </row>
-    <row r="3" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
         <v>15</v>
       </c>
@@ -9954,7 +10553,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1"/>
       <c r="B4" s="1" t="s">
         <v>30</v>
@@ -9966,7 +10565,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1"/>
       <c r="B5" s="1" t="s">
         <v>41</v>
@@ -9978,12 +10577,12 @@
         <v>44</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1"/>
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
     </row>
-    <row r="7" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
         <v>49</v>
       </c>
@@ -9997,7 +10596,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1"/>
       <c r="B8" s="1" t="s">
         <v>30</v>
@@ -10009,7 +10608,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1"/>
       <c r="B9" s="1" t="s">
         <v>41</v>
@@ -10021,12 +10620,12 @@
         <v>66</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1"/>
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
     </row>
-    <row r="11" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
         <v>75</v>
       </c>
@@ -10040,7 +10639,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1"/>
       <c r="B12" s="1" t="s">
         <v>30</v>
@@ -10052,7 +10651,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1"/>
       <c r="B13" s="1" t="s">
         <v>41</v>
@@ -10064,12 +10663,12 @@
         <v>100</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1"/>
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
     </row>
-    <row r="15" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="1" t="s">
         <v>105</v>
       </c>
@@ -10083,7 +10682,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="1"/>
       <c r="B16" s="1" t="s">
         <v>30</v>
@@ -10093,7 +10692,7 @@
       </c>
       <c r="D16" s="40"/>
     </row>
-    <row r="17" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="1"/>
       <c r="B17" s="1" t="s">
         <v>41</v>
@@ -10101,12 +10700,12 @@
       <c r="C17" s="1"/>
       <c r="D17" s="40"/>
     </row>
-    <row r="18" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="1"/>
       <c r="B18" s="1"/>
       <c r="C18" s="1"/>
     </row>
-    <row r="19" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="1" t="s">
         <v>118</v>
       </c>
@@ -10123,7 +10722,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="20" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="1"/>
       <c r="B20" s="1" t="s">
         <v>30</v>
@@ -10135,7 +10734,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="21" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="1"/>
       <c r="B21" s="1" t="s">
         <v>41</v>
@@ -10147,12 +10746,12 @@
         <v>134</v>
       </c>
     </row>
-    <row r="22" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="1"/>
       <c r="B22" s="1"/>
       <c r="C22" s="1"/>
     </row>
-    <row r="23" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="1" t="s">
         <v>140</v>
       </c>
@@ -10166,7 +10765,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="24" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="1"/>
       <c r="B24" s="1" t="s">
         <v>30</v>
@@ -10178,7 +10777,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="25" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="1"/>
       <c r="B25" s="1" t="s">
         <v>41</v>
@@ -10190,12 +10789,12 @@
         <v>160</v>
       </c>
     </row>
-    <row r="26" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="1"/>
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
     </row>
-    <row r="27" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="1" t="s">
         <v>164</v>
       </c>
@@ -10209,7 +10808,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="28" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="1"/>
       <c r="B28" s="1" t="s">
         <v>30</v>
@@ -10221,7 +10820,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="29" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="1"/>
       <c r="B29" s="1" t="s">
         <v>41</v>
@@ -10233,12 +10832,12 @@
         <v>179</v>
       </c>
     </row>
-    <row r="30" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="1"/>
       <c r="B30" s="1"/>
       <c r="C30" s="1"/>
     </row>
-    <row r="31" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="1" t="s">
         <v>187</v>
       </c>
@@ -10255,7 +10854,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="32" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="1"/>
       <c r="B32" s="1" t="s">
         <v>30</v>
@@ -10268,7 +10867,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="33" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="1"/>
       <c r="B33" s="1" t="s">
         <v>41</v>
@@ -10281,12 +10880,12 @@
         <v>199</v>
       </c>
     </row>
-    <row r="34" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="1"/>
       <c r="B34" s="1"/>
       <c r="C34" s="1"/>
     </row>
-    <row r="35" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="0" t="s">
         <v>258</v>
       </c>
@@ -10303,7 +10902,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="36" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B36" s="1" t="s">
         <v>30</v>
       </c>
@@ -10314,7 +10913,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="37" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B37" s="1" t="s">
         <v>41</v>
       </c>
@@ -10323,11 +10922,11 @@
       </c>
       <c r="D37" s="40"/>
     </row>
-    <row r="38" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B38" s="1"/>
       <c r="C38" s="1"/>
     </row>
-    <row r="39" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="1" t="s">
         <v>204</v>
       </c>
@@ -10344,7 +10943,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="40" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="1"/>
       <c r="B40" s="1" t="s">
         <v>30</v>
@@ -10354,7 +10953,7 @@
       </c>
       <c r="D40" s="40"/>
     </row>
-    <row r="41" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="1"/>
       <c r="B41" s="1" t="s">
         <v>41</v>
@@ -10364,10 +10963,10 @@
         <v>214</v>
       </c>
     </row>
-    <row r="42" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C42" s="1"/>
     </row>
-    <row r="43" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="0" t="s">
         <v>218</v>
       </c>
@@ -10384,7 +10983,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="44" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B44" s="1" t="s">
         <v>30</v>
       </c>
@@ -10393,7 +10992,7 @@
       </c>
       <c r="D44" s="40"/>
     </row>
-    <row r="45" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B45" s="1" t="s">
         <v>41</v>
       </c>
@@ -10402,7 +11001,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="47" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="0" t="s">
         <v>281</v>
       </c>
@@ -10416,12 +11015,12 @@
         <v>111</v>
       </c>
     </row>
-    <row r="48" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B48" s="1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="49" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B49" s="1" t="s">
         <v>41</v>
       </c>
@@ -10429,7 +11028,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="51" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="51" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="0" t="s">
         <v>238</v>
       </c>
@@ -10437,12 +11036,12 @@
         <v>16</v>
       </c>
     </row>
-    <row r="52" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="52" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B52" s="1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="53" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="53" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B53" s="1" t="s">
         <v>41</v>
       </c>
@@ -10468,16 +11067,16 @@
   </sheetPr>
   <dimension ref="A1:X105"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="L1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="L1" colorId="64" zoomScale="71" zoomScaleNormal="71" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="T3" activeCellId="0" sqref="T3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="15.55"/>
   </cols>
   <sheetData>
-    <row r="1" s="46" customFormat="true" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" s="46" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="45" t="s">
         <v>303</v>
       </c>
@@ -10573,7 +11172,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" s="46" customFormat="true" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" s="46" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="46" t="s">
         <v>187</v>
       </c>
@@ -10647,7 +11246,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
         <v>218</v>
       </c>
@@ -10721,7 +11320,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
         <v>204</v>
       </c>
@@ -10795,7 +11394,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
         <v>118</v>
       </c>
@@ -10869,7 +11468,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
         <v>238</v>
       </c>
@@ -10943,7 +11542,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
         <v>304</v>
       </c>
@@ -11017,7 +11616,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
         <v>249</v>
       </c>
@@ -11091,7 +11690,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
         <v>290</v>
       </c>
@@ -11165,7 +11764,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
         <v>305</v>
       </c>
@@ -11239,7 +11838,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
         <v>306</v>
       </c>
@@ -11313,7 +11912,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
         <v>266</v>
       </c>
@@ -11387,7 +11986,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
         <v>164</v>
       </c>
@@ -11461,7 +12060,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
         <v>307</v>
       </c>
@@ -11535,7 +12134,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="20"/>
       <c r="B15" s="20"/>
       <c r="C15" s="20"/>
@@ -11561,7 +12160,7 @@
       <c r="W15" s="20"/>
       <c r="X15" s="20"/>
     </row>
-    <row r="16" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="48" t="s">
         <v>308</v>
       </c>
@@ -11593,7 +12192,7 @@
       <c r="W16" s="48"/>
       <c r="X16" s="48"/>
     </row>
-    <row r="17" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="17" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="48"/>
       <c r="B17" s="48"/>
       <c r="C17" s="48" t="s">
@@ -11623,7 +12222,7 @@
       <c r="W17" s="48"/>
       <c r="X17" s="48"/>
     </row>
-    <row r="18" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="51"/>
       <c r="B18" s="51"/>
       <c r="C18" s="51"/>
@@ -11649,7 +12248,7 @@
       <c r="W18" s="51"/>
       <c r="X18" s="51"/>
     </row>
-    <row r="19" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="53" t="s">
         <v>313</v>
       </c>
@@ -11679,7 +12278,7 @@
       <c r="W19" s="54"/>
       <c r="X19" s="54"/>
     </row>
-    <row r="20" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="53"/>
       <c r="B20" s="53"/>
       <c r="C20" s="53"/>
@@ -11707,7 +12306,7 @@
       <c r="W20" s="54"/>
       <c r="X20" s="54"/>
     </row>
-    <row r="21" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="51"/>
       <c r="B21" s="51"/>
       <c r="C21" s="51"/>
@@ -11733,7 +12332,7 @@
       <c r="W21" s="51"/>
       <c r="X21" s="51"/>
     </row>
-    <row r="22" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="56" t="s">
         <v>307</v>
       </c>
@@ -11750,7 +12349,7 @@
       <c r="H22" s="60"/>
       <c r="I22" s="60"/>
     </row>
-    <row r="23" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="46"/>
       <c r="B23" s="57" t="s">
         <v>318</v>
@@ -11765,7 +12364,7 @@
       <c r="H23" s="60"/>
       <c r="I23" s="60"/>
     </row>
-    <row r="24" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="46"/>
       <c r="B24" s="57" t="s">
         <v>41</v>
@@ -11782,7 +12381,7 @@
       <c r="H24" s="59"/>
       <c r="I24" s="60"/>
     </row>
-    <row r="25" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="46" t="s">
         <v>218</v>
       </c>
@@ -11799,7 +12398,7 @@
       <c r="H25" s="60"/>
       <c r="I25" s="60"/>
     </row>
-    <row r="26" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="46"/>
       <c r="B26" s="0" t="s">
         <v>318</v>
@@ -11812,7 +12411,7 @@
       <c r="H26" s="60"/>
       <c r="I26" s="60"/>
     </row>
-    <row r="27" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="46"/>
       <c r="B27" s="0" t="s">
         <v>41</v>
@@ -11827,7 +12426,7 @@
       <c r="H27" s="60"/>
       <c r="I27" s="60"/>
     </row>
-    <row r="28" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="46" t="s">
         <v>118</v>
       </c>
@@ -11844,7 +12443,7 @@
       <c r="H28" s="60"/>
       <c r="I28" s="60"/>
     </row>
-    <row r="29" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="46"/>
       <c r="B29" s="0" t="s">
         <v>318</v>
@@ -11857,7 +12456,7 @@
       <c r="H29" s="60"/>
       <c r="I29" s="60"/>
     </row>
-    <row r="30" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="46"/>
       <c r="B30" s="0" t="s">
         <v>41</v>
@@ -11872,7 +12471,7 @@
       <c r="H30" s="60"/>
       <c r="I30" s="60"/>
     </row>
-    <row r="31" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="56" t="s">
         <v>105</v>
       </c>
@@ -11888,7 +12487,7 @@
       <c r="H31" s="59"/>
       <c r="I31" s="60"/>
     </row>
-    <row r="32" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="46"/>
       <c r="B32" s="57" t="s">
         <v>318</v>
@@ -11903,7 +12502,7 @@
       <c r="H32" s="60"/>
       <c r="I32" s="60"/>
     </row>
-    <row r="33" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="46"/>
       <c r="B33" s="57" t="s">
         <v>41</v>
@@ -11915,7 +12514,7 @@
       <c r="H33" s="60"/>
       <c r="I33" s="60"/>
     </row>
-    <row r="34" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="46" t="s">
         <v>164</v>
       </c>
@@ -11932,7 +12531,7 @@
       <c r="H34" s="60"/>
       <c r="I34" s="60"/>
     </row>
-    <row r="35" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="46"/>
       <c r="B35" s="0" t="s">
         <v>318</v>
@@ -11947,7 +12546,7 @@
       <c r="H35" s="60"/>
       <c r="I35" s="60"/>
     </row>
-    <row r="36" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="46"/>
       <c r="B36" s="0" t="s">
         <v>41</v>
@@ -11964,7 +12563,7 @@
       <c r="H36" s="60"/>
       <c r="I36" s="60"/>
     </row>
-    <row r="37" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="56" t="s">
         <v>306</v>
       </c>
@@ -11981,7 +12580,7 @@
       <c r="H37" s="59"/>
       <c r="I37" s="60"/>
     </row>
-    <row r="38" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="46"/>
       <c r="B38" s="57" t="s">
         <v>318</v>
@@ -11996,7 +12595,7 @@
       <c r="H38" s="60"/>
       <c r="I38" s="60"/>
     </row>
-    <row r="39" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="46"/>
       <c r="B39" s="57" t="s">
         <v>41</v>
@@ -12013,7 +12612,7 @@
       <c r="H39" s="60"/>
       <c r="I39" s="60"/>
     </row>
-    <row r="40" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="46" t="s">
         <v>305</v>
       </c>
@@ -12030,7 +12629,7 @@
       <c r="H40" s="60"/>
       <c r="I40" s="60"/>
     </row>
-    <row r="41" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="46"/>
       <c r="B41" s="0" t="s">
         <v>318</v>
@@ -12043,7 +12642,7 @@
       <c r="H41" s="60"/>
       <c r="I41" s="60"/>
     </row>
-    <row r="42" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="46"/>
       <c r="B42" s="0" t="s">
         <v>41</v>
@@ -12056,7 +12655,7 @@
       <c r="H42" s="60"/>
       <c r="I42" s="60"/>
     </row>
-    <row r="43" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="56" t="s">
         <v>187</v>
       </c>
@@ -12073,7 +12672,7 @@
       <c r="H43" s="59"/>
       <c r="I43" s="59"/>
     </row>
-    <row r="44" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="46"/>
       <c r="B44" s="57" t="s">
         <v>318</v>
@@ -12088,7 +12687,7 @@
       <c r="H44" s="60"/>
       <c r="I44" s="60"/>
     </row>
-    <row r="45" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="46"/>
       <c r="B45" s="57" t="s">
         <v>41</v>
@@ -12100,7 +12699,7 @@
       <c r="H45" s="60"/>
       <c r="I45" s="60"/>
     </row>
-    <row r="46" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="46" t="s">
         <v>204</v>
       </c>
@@ -12117,7 +12716,7 @@
       <c r="H46" s="60"/>
       <c r="I46" s="60"/>
     </row>
-    <row r="47" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="46"/>
       <c r="B47" s="0" t="s">
         <v>318</v>
@@ -12132,7 +12731,7 @@
       <c r="H47" s="60"/>
       <c r="I47" s="60"/>
     </row>
-    <row r="48" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="46"/>
       <c r="B48" s="0" t="s">
         <v>41</v>
@@ -12149,7 +12748,7 @@
       <c r="H48" s="60"/>
       <c r="I48" s="60"/>
     </row>
-    <row r="49" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="56" t="s">
         <v>304</v>
       </c>
@@ -12165,7 +12764,7 @@
       <c r="H49" s="60"/>
       <c r="I49" s="60"/>
     </row>
-    <row r="50" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="46"/>
       <c r="B50" s="57" t="s">
         <v>318</v>
@@ -12180,7 +12779,7 @@
       <c r="H50" s="60"/>
       <c r="I50" s="60"/>
     </row>
-    <row r="51" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="51" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="46"/>
       <c r="B51" s="57" t="s">
         <v>41</v>
@@ -12197,7 +12796,7 @@
       <c r="H51" s="60"/>
       <c r="I51" s="60"/>
     </row>
-    <row r="52" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="52" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="46" t="s">
         <v>249</v>
       </c>
@@ -12214,7 +12813,7 @@
       <c r="H52" s="60"/>
       <c r="I52" s="60"/>
     </row>
-    <row r="53" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="53" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B53" s="0" t="s">
         <v>318</v>
       </c>
@@ -12228,7 +12827,7 @@
       <c r="H53" s="60"/>
       <c r="I53" s="60"/>
     </row>
-    <row r="54" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="54" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B54" s="0" t="s">
         <v>41</v>
       </c>
@@ -12244,7 +12843,7 @@
       <c r="H54" s="60"/>
       <c r="I54" s="60"/>
     </row>
-    <row r="55" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="55" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="46" t="s">
         <v>290</v>
       </c>
@@ -12261,7 +12860,7 @@
       <c r="H55" s="60"/>
       <c r="I55" s="60"/>
     </row>
-    <row r="56" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="56" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B56" s="0" t="s">
         <v>318</v>
       </c>
@@ -12275,7 +12874,7 @@
       <c r="H56" s="60"/>
       <c r="I56" s="60"/>
     </row>
-    <row r="57" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="57" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B57" s="0" t="s">
         <v>41</v>
       </c>
@@ -12290,7 +12889,7 @@
       <c r="H57" s="60"/>
       <c r="I57" s="60"/>
     </row>
-    <row r="58" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="58" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="0" t="s">
         <v>238</v>
       </c>
@@ -12307,7 +12906,7 @@
       <c r="H58" s="60"/>
       <c r="I58" s="60"/>
     </row>
-    <row r="59" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="59" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B59" s="0" t="s">
         <v>318</v>
       </c>
@@ -12321,7 +12920,7 @@
       <c r="H59" s="60"/>
       <c r="I59" s="60"/>
     </row>
-    <row r="60" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="60" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B60" s="0" t="s">
         <v>41</v>
       </c>
@@ -12336,7 +12935,7 @@
       <c r="H60" s="60"/>
       <c r="I60" s="60"/>
     </row>
-    <row r="61" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="61" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="63"/>
       <c r="B61" s="64"/>
       <c r="C61" s="64"/>
@@ -12345,7 +12944,7 @@
       <c r="F61" s="64"/>
       <c r="G61" s="65"/>
     </row>
-    <row r="62" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="62" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="66"/>
       <c r="B62" s="64"/>
       <c r="C62" s="64"/>
@@ -12354,7 +12953,7 @@
       <c r="F62" s="67"/>
       <c r="G62" s="67"/>
     </row>
-    <row r="63" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="63" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="66"/>
       <c r="B63" s="64"/>
       <c r="C63" s="64"/>
@@ -12363,56 +12962,56 @@
       <c r="F63" s="67"/>
       <c r="G63" s="67"/>
     </row>
-    <row r="66" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="66" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="46" t="s">
         <v>359</v>
       </c>
     </row>
-    <row r="67" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="67" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="35" t="s">
         <v>360</v>
       </c>
     </row>
-    <row r="68" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="68" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="35"/>
     </row>
-    <row r="69" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="69" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="35"/>
     </row>
-    <row r="70" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="70" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="35"/>
     </row>
-    <row r="72" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="72" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="0" t="s">
         <v>361</v>
       </c>
     </row>
-    <row r="73" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="73" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="0" t="s">
         <v>362</v>
       </c>
     </row>
-    <row r="75" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="75" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="0" t="s">
         <v>363</v>
       </c>
     </row>
-    <row r="77" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="77" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A77" s="0" t="s">
         <v>364</v>
       </c>
     </row>
-    <row r="78" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="78" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A78" s="0" t="s">
         <v>365</v>
       </c>
     </row>
-    <row r="81" customFormat="false" ht="46.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="81" customFormat="false" ht="43.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A81" s="68" t="s">
         <v>366</v>
       </c>
     </row>
-    <row r="82" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="82" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A82" s="35" t="s">
         <v>367</v>
       </c>
@@ -12420,7 +13019,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="83" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="83" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A83" s="35" t="s">
         <v>369</v>
       </c>
@@ -12428,7 +13027,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="84" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="84" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A84" s="35" t="s">
         <v>371</v>
       </c>
@@ -12436,7 +13035,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="85" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="85" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A85" s="35" t="s">
         <v>373</v>
       </c>
@@ -12444,7 +13043,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="86" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="86" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A86" s="35" t="s">
         <v>375</v>
       </c>
@@ -12452,7 +13051,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="87" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="87" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A87" s="35" t="s">
         <v>377</v>
       </c>
@@ -12460,7 +13059,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="88" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="88" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A88" s="35" t="s">
         <v>379</v>
       </c>
@@ -12468,7 +13067,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="89" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="89" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A89" s="35" t="s">
         <v>381</v>
       </c>
@@ -12476,7 +13075,7 @@
         <v>382</v>
       </c>
     </row>
-    <row r="90" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="90" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A90" s="35" t="s">
         <v>383</v>
       </c>
@@ -12484,7 +13083,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="91" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="91" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A91" s="35" t="s">
         <v>385</v>
       </c>
@@ -12492,7 +13091,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="92" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="92" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A92" s="35" t="s">
         <v>387</v>
       </c>
@@ -12500,7 +13099,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="93" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="93" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A93" s="35" t="s">
         <v>389</v>
       </c>
@@ -12508,7 +13107,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="94" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="94" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A94" s="35" t="s">
         <v>391</v>
       </c>
@@ -12516,7 +13115,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="95" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="95" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A95" s="35" t="s">
         <v>393</v>
       </c>
@@ -12524,7 +13123,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="96" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="96" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A96" s="35" t="s">
         <v>395</v>
       </c>
@@ -12532,7 +13131,7 @@
         <v>396</v>
       </c>
     </row>
-    <row r="97" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="97" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A97" s="35" t="s">
         <v>397</v>
       </c>
@@ -12540,27 +13139,27 @@
         <v>398</v>
       </c>
     </row>
-    <row r="101" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="101" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A101" s="0" t="s">
         <v>399</v>
       </c>
     </row>
-    <row r="102" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="102" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A102" s="0" t="s">
         <v>400</v>
       </c>
     </row>
-    <row r="103" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="103" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A103" s="0" t="s">
         <v>401</v>
       </c>
     </row>
-    <row r="104" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="104" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A104" s="0" t="s">
         <v>402</v>
       </c>
     </row>
-    <row r="105" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="105" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A105" s="0" t="s">
         <v>403</v>
       </c>
@@ -12583,13 +13182,16 @@
   </sheetPr>
   <dimension ref="A1:W42"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="71" zoomScaleNormal="71" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="K31" activeCellId="0" sqref="K31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.14453125" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="64" min="1" style="0" width="8.54"/>
+  </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
         <v>404</v>
       </c>
@@ -12615,7 +13217,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="n">
         <v>1</v>
       </c>
@@ -12672,7 +13274,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="n">
         <f aca="false">A2+1</f>
         <v>2</v>
@@ -12730,7 +13332,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="n">
         <f aca="false">A3+1</f>
         <v>3</v>
@@ -12788,7 +13390,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="n">
         <f aca="false">A4+1</f>
         <v>4</v>
@@ -12846,7 +13448,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="n">
         <f aca="false">A5+1</f>
         <v>5</v>
@@ -12904,7 +13506,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="n">
         <f aca="false">A6+1</f>
         <v>6</v>
@@ -12962,7 +13564,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="n">
         <f aca="false">A7+1</f>
         <v>7</v>
@@ -13020,7 +13622,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="n">
         <f aca="false">A8+1</f>
         <v>8</v>
@@ -13078,7 +13680,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="n">
         <f aca="false">A9+1</f>
         <v>9</v>
@@ -13136,7 +13738,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="n">
         <f aca="false">A10+1</f>
         <v>10</v>
@@ -13194,7 +13796,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="n">
         <f aca="false">A11+1</f>
         <v>11</v>
@@ -13252,7 +13854,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="n">
         <f aca="false">A12+1</f>
         <v>12</v>
@@ -13310,7 +13912,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="n">
         <f aca="false">A13+1</f>
         <v>13</v>
@@ -13368,7 +13970,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
         <v>422</v>
       </c>
@@ -13394,7 +13996,7 @@
         <v>429</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="n">
         <f aca="false">A14+1</f>
         <v>14</v>
@@ -13452,7 +14054,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="n">
         <f aca="false">A16+1</f>
         <v>15</v>
@@ -13510,7 +14112,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="18" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="n">
         <f aca="false">A17+1</f>
         <v>16</v>
@@ -13568,7 +14170,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="19" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="n">
         <f aca="false">A18+1</f>
         <v>17</v>
@@ -13626,7 +14228,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="20" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="n">
         <f aca="false">A19+1</f>
         <v>18</v>
@@ -13684,7 +14286,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="21" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="n">
         <f aca="false">A20+1</f>
         <v>19</v>
@@ -13742,7 +14344,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="22" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="0" t="n">
         <f aca="false">A21+1</f>
         <v>20</v>
@@ -13800,7 +14402,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="23" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="0" t="n">
         <f aca="false">A22+1</f>
         <v>21</v>
@@ -13858,7 +14460,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="24" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="0" t="n">
         <f aca="false">A23+1</f>
         <v>22</v>
@@ -13916,7 +14518,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="25" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="0" t="n">
         <f aca="false">A24+1</f>
         <v>23</v>
@@ -13974,7 +14576,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="26" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="0" t="n">
         <f aca="false">A25+1</f>
         <v>24</v>
@@ -14032,7 +14634,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="27" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="0" t="n">
         <f aca="false">A26+1</f>
         <v>25</v>
@@ -14090,7 +14692,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="28" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="0" t="n">
         <f aca="false">A27+1</f>
         <v>26</v>
@@ -14148,7 +14750,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="29" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="0" t="s">
         <v>434</v>
       </c>
@@ -14171,7 +14773,7 @@
         <v>440</v>
       </c>
     </row>
-    <row r="30" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="0" t="n">
         <f aca="false">A28+1</f>
         <v>27</v>
@@ -14222,7 +14824,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="31" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="0" t="n">
         <f aca="false">A30+1</f>
         <v>28</v>
@@ -14273,7 +14875,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="32" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="0" t="n">
         <f aca="false">A31+1</f>
         <v>29</v>
@@ -14324,7 +14926,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="33" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="0" t="n">
         <f aca="false">A32+1</f>
         <v>30</v>
@@ -14375,7 +14977,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="34" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="0" t="n">
         <f aca="false">A33+1</f>
         <v>31</v>
@@ -14426,7 +15028,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="35" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="0" t="n">
         <f aca="false">A34+1</f>
         <v>32</v>
@@ -14477,7 +15079,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="36" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="0" t="n">
         <f aca="false">A35+1</f>
         <v>33</v>
@@ -14528,7 +15130,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="37" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="0" t="n">
         <f aca="false">A36+1</f>
         <v>34</v>
@@ -14579,7 +15181,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="38" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="0" t="n">
         <f aca="false">A37+1</f>
         <v>35</v>
@@ -14630,7 +15232,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="39" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="0" t="n">
         <f aca="false">A38+1</f>
         <v>36</v>
@@ -14681,7 +15283,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="40" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="0" t="n">
         <f aca="false">A39+1</f>
         <v>37</v>
@@ -14732,7 +15334,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="41" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="0" t="n">
         <f aca="false">A40+1</f>
         <v>38</v>
@@ -14783,7 +15385,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="42" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="0" t="n">
         <f aca="false">A41+1</f>
         <v>39</v>
@@ -14852,21 +15454,23 @@
   </sheetPr>
   <dimension ref="A1:E26"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="71" zoomScaleNormal="71" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="E25" activeCellId="0" sqref="E25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.14453125" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="1" style="0" width="8.54"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="12.44"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="64" min="6" style="0" width="8.54"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
         <v>445</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
         <v>446</v>
       </c>
@@ -14874,7 +15478,7 @@
         <v>447</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
         <v>448</v>
       </c>
@@ -14882,7 +15486,7 @@
         <v>449</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
         <v>450</v>
       </c>
@@ -14890,7 +15494,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
         <v>452</v>
       </c>
@@ -14898,12 +15502,12 @@
         <v>453</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
         <v>454</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
         <v>455</v>
       </c>
@@ -14911,7 +15515,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
         <v>453</v>
       </c>
@@ -14919,12 +15523,12 @@
         <v>456</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E12" s="0" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
         <v>290</v>
       </c>
@@ -14932,17 +15536,17 @@
         <v>457</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
         <v>458</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E15" s="0" t="s">
         <v>238</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
         <v>105</v>
       </c>
@@ -14950,17 +15554,17 @@
         <v>459</v>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
         <v>460</v>
       </c>
     </row>
-    <row r="18" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E18" s="0" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="19" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="s">
         <v>305</v>
       </c>
@@ -14968,17 +15572,17 @@
         <v>461</v>
       </c>
     </row>
-    <row r="20" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="s">
         <v>462</v>
       </c>
     </row>
-    <row r="21" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E21" s="0" t="s">
         <v>463</v>
       </c>
     </row>
-    <row r="22" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="0" t="s">
         <v>464</v>
       </c>
@@ -14986,17 +15590,17 @@
         <v>465</v>
       </c>
     </row>
-    <row r="23" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="0" t="s">
         <v>466</v>
       </c>
     </row>
-    <row r="24" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E24" s="0" t="s">
         <v>249</v>
       </c>
     </row>
-    <row r="25" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="0" t="s">
         <v>164</v>
       </c>
@@ -15004,7 +15608,7 @@
         <v>467</v>
       </c>
     </row>
-    <row r="26" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="0" t="s">
         <v>468</v>
       </c>
@@ -15027,178 +15631,181 @@
   </sheetPr>
   <dimension ref="A1:A51"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A25" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A25" colorId="64" zoomScale="71" zoomScaleNormal="71" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A51" activeCellId="0" sqref="A51"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.14453125" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="64" min="1" style="0" width="8.54"/>
+  </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
         <v>469</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
         <v>470</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
         <v>471</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
         <v>472</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
         <v>473</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
         <v>474</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
         <v>475</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
         <v>476</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
         <v>477</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
         <v>478</v>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
         <v>479</v>
       </c>
     </row>
-    <row r="18" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="s">
         <v>480</v>
       </c>
     </row>
-    <row r="20" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="s">
         <v>481</v>
       </c>
     </row>
-    <row r="21" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="s">
         <v>482</v>
       </c>
     </row>
-    <row r="23" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="0" t="s">
         <v>483</v>
       </c>
     </row>
-    <row r="24" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="0" t="s">
         <v>484</v>
       </c>
     </row>
-    <row r="26" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="0" t="s">
         <v>485</v>
       </c>
     </row>
-    <row r="27" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="0" t="s">
         <v>486</v>
       </c>
     </row>
-    <row r="29" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="0" t="s">
         <v>487</v>
       </c>
     </row>
-    <row r="30" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="0" t="s">
         <v>488</v>
       </c>
     </row>
-    <row r="32" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="0" t="s">
         <v>489</v>
       </c>
     </row>
-    <row r="33" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="0" t="s">
         <v>490</v>
       </c>
     </row>
-    <row r="35" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="0" t="s">
         <v>491</v>
       </c>
     </row>
-    <row r="36" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="0" t="s">
         <v>492</v>
       </c>
     </row>
-    <row r="38" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="0" t="s">
         <v>493</v>
       </c>
     </row>
-    <row r="39" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="0" t="s">
         <v>494</v>
       </c>
     </row>
-    <row r="41" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="0" t="s">
         <v>495</v>
       </c>
     </row>
-    <row r="42" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="0" t="s">
         <v>496</v>
       </c>
     </row>
-    <row r="44" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="0" t="s">
         <v>497</v>
       </c>
     </row>
-    <row r="45" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="0" t="s">
         <v>498</v>
       </c>
     </row>
-    <row r="47" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="0" t="s">
         <v>499</v>
       </c>
     </row>
-    <row r="48" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="0" t="s">
         <v>500</v>
       </c>
     </row>
-    <row r="50" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="0" t="s">
         <v>501</v>
       </c>
     </row>
-    <row r="51" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="51" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="0" t="s">
         <v>502</v>
       </c>
@@ -15221,25 +15828,29 @@
   </sheetPr>
   <dimension ref="A1:AM17"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="K1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="K1" colorId="64" zoomScale="71" zoomScaleNormal="71" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="AD14" activeCellId="0" sqref="AD14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.14453125" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="12.66"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="2" style="0" width="8.54"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="11"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="30" min="12" style="0" width="8.54"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="31" min="31" style="0" width="10.66"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="34" min="32" style="0" width="8.54"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="35" min="35" style="0" width="11.78"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="64" min="36" style="0" width="8.54"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
         <v>164</v>
       </c>
       <c r="B1" s="0" t="n">
         <f aca="true">RAND()*100</f>
-        <v>75.3307964170831</v>
+        <v>41.881931236771</v>
       </c>
       <c r="AA1" s="0" t="s">
         <v>307</v>
@@ -15281,13 +15892,13 @@
         <v>238</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
         <v>307</v>
       </c>
       <c r="B2" s="0" t="n">
         <f aca="true">RAND()*100</f>
-        <v>44.114142116158</v>
+        <v>17.9546193225887</v>
       </c>
       <c r="AB2" s="0" t="s">
         <v>164</v>
@@ -15326,13 +15937,13 @@
         <v>238</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
         <v>164</v>
       </c>
       <c r="B3" s="0" t="n">
         <f aca="true">RAND()*100</f>
-        <v>60.1848928206436</v>
+        <v>43.4807456331505</v>
       </c>
       <c r="AC3" s="0" t="s">
         <v>306</v>
@@ -15368,7 +15979,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="AD4" s="0" t="s">
         <v>218</v>
       </c>
@@ -15400,7 +16011,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="AE5" s="0" t="s">
         <v>503</v>
       </c>
@@ -15429,7 +16040,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="AF6" s="0" t="s">
         <v>118</v>
       </c>
@@ -15455,7 +16066,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="AG7" s="0" t="s">
         <v>187</v>
       </c>
@@ -15478,7 +16089,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="AH8" s="0" t="s">
         <v>204</v>
       </c>
@@ -15498,7 +16109,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="AI9" s="0" t="s">
         <v>305</v>
       </c>
@@ -15515,7 +16126,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="AJ10" s="0" t="s">
         <v>105</v>
       </c>
@@ -15529,7 +16140,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="AJ11" s="69"/>
       <c r="AK11" s="0" t="s">
         <v>290</v>
@@ -15541,7 +16152,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="AK12" s="69"/>
       <c r="AL12" s="0" t="s">
         <v>304</v>
@@ -15550,14 +16161,14 @@
         <v>238</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="AK13" s="69"/>
       <c r="AL13" s="69"/>
       <c r="AM13" s="0" t="s">
         <v>238</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="AA14" s="0" t="n">
         <v>13</v>
       </c>
@@ -15598,14 +16209,14 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="AL15" s="69"/>
       <c r="AM15" s="69"/>
     </row>
-    <row r="16" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="AM16" s="69"/>
     </row>
-    <row r="17" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="AM17" s="69"/>
     </row>
   </sheetData>
@@ -15626,18 +16237,22 @@
   </sheetPr>
   <dimension ref="A1:W42"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="71" zoomScaleNormal="71" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="E3" activeCellId="0" sqref="E3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.14453125" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="8.54"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="18.33"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="3" style="0" width="8.54"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="15.77"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="6" style="0" width="8.54"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="17.33"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="64" min="9" style="0" width="8.54"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
         <v>404</v>
       </c>
@@ -15663,7 +16278,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="n">
         <v>1</v>
       </c>
@@ -15741,7 +16356,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="n">
         <f aca="false">A2+1</f>
         <v>2</v>
@@ -15820,7 +16435,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="n">
         <f aca="false">A3+1</f>
         <v>3</v>
@@ -15899,7 +16514,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="n">
         <f aca="false">A4+1</f>
         <v>4</v>
@@ -15978,7 +16593,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="n">
         <f aca="false">A5+1</f>
         <v>5</v>
@@ -16057,7 +16672,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="n">
         <f aca="false">A6+1</f>
         <v>6</v>
@@ -16136,7 +16751,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="n">
         <f aca="false">A7+1</f>
         <v>7</v>
@@ -16215,7 +16830,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="n">
         <f aca="false">A8+1</f>
         <v>8</v>
@@ -16294,7 +16909,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="n">
         <f aca="false">A9+1</f>
         <v>9</v>
@@ -16373,7 +16988,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="11" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="n">
         <f aca="false">A10+1</f>
         <v>10</v>
@@ -16452,7 +17067,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="12" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="n">
         <f aca="false">A11+1</f>
         <v>11</v>
@@ -16531,7 +17146,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="13" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="n">
         <f aca="false">A12+1</f>
         <v>12</v>
@@ -16610,7 +17225,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="14" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="n">
         <f aca="false">A13+1</f>
         <v>13</v>
@@ -16689,7 +17304,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
         <v>422</v>
       </c>
@@ -16718,7 +17333,7 @@
         <v>429</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="16" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="n">
         <f aca="false">A14+1</f>
         <v>14</v>
@@ -16794,7 +17409,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="17" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="n">
         <f aca="false">A16+1</f>
         <v>15</v>
@@ -16870,7 +17485,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="18" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="n">
         <f aca="false">A17+1</f>
         <v>16</v>
@@ -16946,7 +17561,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="19" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="n">
         <f aca="false">A18+1</f>
         <v>17</v>
@@ -17022,7 +17637,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="20" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="n">
         <f aca="false">A19+1</f>
         <v>18</v>
@@ -17098,7 +17713,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="21" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="n">
         <f aca="false">A20+1</f>
         <v>19</v>
@@ -17174,7 +17789,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="22" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="0" t="n">
         <f aca="false">A21+1</f>
         <v>20</v>
@@ -17251,7 +17866,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="23" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="0" t="n">
         <f aca="false">A22+1</f>
         <v>21</v>
@@ -17328,7 +17943,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="24" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="0" t="n">
         <f aca="false">A23+1</f>
         <v>22</v>
@@ -17405,7 +18020,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="25" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="0" t="n">
         <f aca="false">A24+1</f>
         <v>23</v>
@@ -17482,7 +18097,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="26" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="0" t="n">
         <f aca="false">A25+1</f>
         <v>24</v>
@@ -17559,7 +18174,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="27" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="0" t="n">
         <f aca="false">A26+1</f>
         <v>25</v>
@@ -17635,7 +18250,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="28" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="0" t="n">
         <f aca="false">A27+1</f>
         <v>26</v>
@@ -17711,7 +18326,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="0" t="s">
         <v>434</v>
       </c>
@@ -17737,7 +18352,7 @@
       </c>
       <c r="V29" s="60"/>
     </row>
-    <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="30" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="0" t="n">
         <f aca="false">A28+1</f>
         <v>27</v>
@@ -17807,7 +18422,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="31" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="0" t="n">
         <f aca="false">A30+1</f>
         <v>28</v>
@@ -17877,7 +18492,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="32" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="0" t="n">
         <f aca="false">A31+1</f>
         <v>29</v>
@@ -17947,7 +18562,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="33" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="0" t="n">
         <f aca="false">A32+1</f>
         <v>30</v>
@@ -18017,7 +18632,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="34" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="0" t="n">
         <f aca="false">A33+1</f>
         <v>31</v>
@@ -18087,7 +18702,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="35" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="0" t="n">
         <f aca="false">A34+1</f>
         <v>32</v>
@@ -18156,7 +18771,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="36" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="0" t="n">
         <f aca="false">A35+1</f>
         <v>33</v>
@@ -18225,7 +18840,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="37" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="0" t="n">
         <f aca="false">A36+1</f>
         <v>34</v>
@@ -18294,7 +18909,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="38" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="38" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="0" t="n">
         <f aca="false">A37+1</f>
         <v>35</v>
@@ -18363,7 +18978,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="39" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="39" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="0" t="n">
         <f aca="false">A38+1</f>
         <v>36</v>
@@ -18432,7 +19047,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="40" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="40" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="0" t="n">
         <f aca="false">A39+1</f>
         <v>37</v>
@@ -18501,7 +19116,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="41" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="41" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="0" t="n">
         <f aca="false">A40+1</f>
         <v>38</v>
@@ -18570,7 +19185,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="42" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="42" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="0" t="n">
         <f aca="false">A41+1</f>
         <v>39</v>
@@ -18657,16 +19272,18 @@
   </sheetPr>
   <dimension ref="A1:M24"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="71" zoomScaleNormal="71" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="C23" activeCellId="0" sqref="C23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.14453125" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="1" style="0" width="8.54"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="0" width="12.44"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="64" min="14" style="0" width="8.54"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="40.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="71" t="s">
         <v>517</v>
       </c>
@@ -18707,7 +19324,7 @@
         <v>529</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="72" t="n">
         <v>1</v>
       </c>
@@ -18748,7 +19365,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="72" t="n">
         <v>26</v>
       </c>
@@ -18789,7 +19406,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="72" t="n">
         <v>27</v>
       </c>
@@ -18830,7 +19447,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="72" t="n">
         <v>52</v>
       </c>
@@ -18871,7 +19488,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="72" t="n">
         <v>53</v>
       </c>
@@ -18912,7 +19529,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="72" t="n">
         <v>78</v>
       </c>
@@ -18953,7 +19570,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="72" t="n">
         <v>79</v>
       </c>
@@ -18994,7 +19611,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="73" t="n">
         <v>104</v>
       </c>
@@ -19035,7 +19652,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="73" t="n">
         <v>105</v>
       </c>
@@ -19076,7 +19693,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="73" t="n">
         <v>130</v>
       </c>
@@ -19117,7 +19734,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="73" t="n">
         <v>131</v>
       </c>
@@ -19158,7 +19775,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="73" t="n">
         <v>156</v>
       </c>
@@ -19199,7 +19816,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="73" t="n">
         <v>157</v>
       </c>
@@ -19240,7 +19857,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="73" t="n">
         <v>182</v>
       </c>
@@ -19281,7 +19898,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="73" t="n">
         <v>183</v>
       </c>
@@ -19322,7 +19939,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="73" t="n">
         <v>208</v>
       </c>
@@ -19363,7 +19980,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="73" t="n">
         <v>209</v>
       </c>
@@ -19404,7 +20021,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="73" t="n">
         <v>234</v>
       </c>
@@ -19445,7 +20062,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="73" t="n">
         <v>235</v>
       </c>
@@ -19486,7 +20103,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="73" t="n">
         <v>260</v>
       </c>
@@ -19527,7 +20144,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="74" t="n">
         <v>261</v>
       </c>
@@ -19568,7 +20185,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="74" t="n">
         <v>286</v>
       </c>
@@ -19609,7 +20226,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="74" t="n">
         <v>287</v>
       </c>

--- a/keepers 2022 (Oct  13 Edition).xlsx
+++ b/keepers 2022 (Oct  13 Edition).xlsx
@@ -1010,6 +1010,7 @@
         <color rgb="FF0070C0"/>
         <rFont val="Calibri"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">(Names in </t>
     </r>
@@ -1019,6 +1020,7 @@
         <color rgb="FFFF0000"/>
         <rFont val="Calibri"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">red</t>
     </r>
@@ -1028,6 +1030,7 @@
         <color rgb="FF0070C0"/>
         <rFont val="Calibri"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve"> were kept last year and only have 1 eligible year remaining )</t>
     </r>
@@ -1918,6 +1921,7 @@
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">Days in 1</t>
     </r>
@@ -1928,6 +1932,7 @@
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">st</t>
     </r>
@@ -2024,6 +2029,7 @@
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -2046,18 +2052,21 @@
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="9"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="9"/>
       <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <b val="true"/>
@@ -2065,12 +2074,14 @@
       <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF0070C0"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <i val="true"/>
@@ -2078,6 +2089,7 @@
       <color rgb="FF0070C0"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <b val="true"/>
@@ -2085,29 +2097,34 @@
       <color rgb="FF0070C0"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FFFFFF00"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <b val="true"/>
       <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <b val="true"/>
@@ -2115,6 +2132,7 @@
       <color rgb="FF212529"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <b val="true"/>
@@ -2123,6 +2141,7 @@
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <strike val="true"/>
@@ -2130,6 +2149,7 @@
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <strike val="true"/>
@@ -2137,6 +2157,7 @@
       <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <b val="true"/>
@@ -2145,12 +2166,14 @@
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <b val="true"/>
@@ -2158,6 +2181,7 @@
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <b val="true"/>
@@ -2166,6 +2190,7 @@
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <strike val="true"/>
@@ -2173,23 +2198,27 @@
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="8"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="9"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <vertAlign val="superscript"/>
@@ -2197,6 +2226,7 @@
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -3176,11 +3206,11 @@
         </c:ser>
         <c:gapWidth val="100"/>
         <c:overlap val="0"/>
-        <c:axId val="58940979"/>
-        <c:axId val="46335098"/>
+        <c:axId val="11536922"/>
+        <c:axId val="46911082"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="58940979"/>
+        <c:axId val="11536922"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3208,7 +3238,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="46335098"/>
+        <c:crossAx val="46911082"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3216,7 +3246,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="46335098"/>
+        <c:axId val="46911082"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3253,7 +3283,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="58940979"/>
+        <c:crossAx val="11536922"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3291,9 +3321,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>101520</xdr:colOff>
+      <xdr:colOff>101160</xdr:colOff>
       <xdr:row>20</xdr:row>
-      <xdr:rowOff>93960</xdr:rowOff>
+      <xdr:rowOff>93600</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -3301,8 +3331,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="5836320" y="376560"/>
-        <a:ext cx="5761080" cy="3236400"/>
+        <a:off x="5840280" y="376560"/>
+        <a:ext cx="5765040" cy="3236040"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -3452,10 +3482,10 @@
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="55" zoomScaleNormal="55" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="1" ySplit="0" topLeftCell="D1" activePane="topRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="topRight" activeCell="R6" activeCellId="0" sqref="R6"/>
+      <selection pane="topRight" activeCell="R1" activeCellId="0" sqref="R1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.15234375" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.16015625" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="1" style="0" width="8.55"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="15"/>
@@ -4938,7 +4968,7 @@
       <c r="Q38" s="7" t="s">
         <v>193</v>
       </c>
-      <c r="R38" s="7" t="s">
+      <c r="R38" s="3" t="s">
         <v>193</v>
       </c>
     </row>
@@ -6074,7 +6104,7 @@
       <selection pane="topLeft" activeCell="A22" activeCellId="0" sqref="A22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.15234375" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.16015625" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="1" style="0" width="8.55"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="13.44"/>
@@ -7270,7 +7300,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.15234375" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.16015625" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="6.44"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="8.55"/>
@@ -7971,7 +8001,7 @@
       <selection pane="topLeft" activeCell="E21" activeCellId="0" sqref="E21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.15234375" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.16015625" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="1" style="0" width="8.55"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="16.66"/>
@@ -8605,7 +8635,7 @@
       <selection pane="topLeft" activeCell="T155" activeCellId="0" sqref="T155"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.15234375" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.16015625" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="10.36"/>
   </cols>
@@ -10521,7 +10551,7 @@
       <selection pane="topLeft" activeCell="A8" activeCellId="0" sqref="A8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.15234375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.16015625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="110" t="s">
@@ -10651,7 +10681,7 @@
       <selection pane="topLeft" activeCell="E33" activeCellId="0" sqref="E33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.15234375" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.16015625" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="1" style="0" width="8.54"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="26.21"/>
@@ -13328,7 +13358,7 @@
       <selection pane="topLeft" activeCell="K31" activeCellId="0" sqref="K31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.15234375" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.16015625" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="64" min="1" style="0" width="8.54"/>
   </cols>
@@ -15600,7 +15630,7 @@
       <selection pane="topLeft" activeCell="E25" activeCellId="0" sqref="E25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.15234375" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.16015625" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="1" style="0" width="8.54"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="12.44"/>
@@ -15777,7 +15807,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.15234375" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.16015625" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="64" min="1" style="0" width="8.54"/>
   </cols>
@@ -15974,7 +16004,7 @@
       <selection pane="topLeft" activeCell="AD14" activeCellId="0" sqref="AD14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.15234375" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.16015625" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="12.66"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="2" style="0" width="8.54"/>
@@ -15992,7 +16022,7 @@
       </c>
       <c r="B1" s="0" t="n">
         <f aca="true">RAND()*100</f>
-        <v>14.7027385380138</v>
+        <v>74.4590456841612</v>
       </c>
       <c r="AA1" s="0" t="s">
         <v>318</v>
@@ -16040,7 +16070,7 @@
       </c>
       <c r="B2" s="0" t="n">
         <f aca="true">RAND()*100</f>
-        <v>40.26155787237</v>
+        <v>50.3607051855345</v>
       </c>
       <c r="AB2" s="0" t="s">
         <v>169</v>
@@ -16085,7 +16115,7 @@
       </c>
       <c r="B3" s="0" t="n">
         <f aca="true">RAND()*100</f>
-        <v>97.0843827861539</v>
+        <v>27.162771392206</v>
       </c>
       <c r="AC3" s="0" t="s">
         <v>317</v>
@@ -16383,7 +16413,7 @@
       <selection pane="topLeft" activeCell="E3" activeCellId="0" sqref="E3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.15234375" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.16015625" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="8.54"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="18.33"/>
@@ -19418,7 +19448,7 @@
       <selection pane="topLeft" activeCell="C23" activeCellId="0" sqref="C23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.15234375" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.16015625" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="1" style="0" width="8.54"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="0" width="12.44"/>

--- a/keepers 2022 (Oct  13 Edition).xlsx
+++ b/keepers 2022 (Oct  13 Edition).xlsx
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2455" uniqueCount="662">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2457" uniqueCount="663">
   <si>
     <t xml:space="preserve">2008/2009</t>
   </si>
@@ -849,6 +849,9 @@
   </si>
   <si>
     <t xml:space="preserve">Jack Quinn, JJ Peterka</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mattieu Poitras</t>
   </si>
   <si>
     <t xml:space="preserve">Kurtis</t>
@@ -3145,7 +3148,7 @@
 </styleSheet>
 </file>
 
-<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -3287,11 +3290,11 @@
         </c:ser>
         <c:gapWidth val="100"/>
         <c:overlap val="0"/>
-        <c:axId val="87010576"/>
-        <c:axId val="24571990"/>
+        <c:axId val="65095806"/>
+        <c:axId val="51727174"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="87010576"/>
+        <c:axId val="65095806"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3319,7 +3322,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="24571990"/>
+        <c:crossAx val="51727174"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3327,7 +3330,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="24571990"/>
+        <c:axId val="51727174"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3364,7 +3367,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="87010576"/>
+        <c:crossAx val="65095806"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3402,9 +3405,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>100440</xdr:colOff>
+      <xdr:colOff>100080</xdr:colOff>
       <xdr:row>20</xdr:row>
-      <xdr:rowOff>92880</xdr:rowOff>
+      <xdr:rowOff>92520</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -3413,7 +3416,7 @@
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="5847840" y="376560"/>
-        <a:ext cx="5773320" cy="3235320"/>
+        <a:ext cx="5772960" cy="3234960"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -3563,7 +3566,7 @@
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="55" zoomScaleNormal="55" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="1" ySplit="0" topLeftCell="B1" activePane="topRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="topRight" activeCell="S42" activeCellId="0" sqref="S42"/>
+      <selection pane="topRight" activeCell="Q26" activeCellId="0" sqref="Q26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.171875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -4722,7 +4725,7 @@
       <c r="R26" s="18" t="s">
         <v>198</v>
       </c>
-      <c r="S26" s="0" t="s">
+      <c r="S26" s="8" t="s">
         <v>39</v>
       </c>
     </row>
@@ -5322,7 +5325,9 @@
       <c r="R46" s="3" t="s">
         <v>263</v>
       </c>
-      <c r="S46" s="15"/>
+      <c r="S46" s="8" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B47" s="1" t="s">
@@ -5349,7 +5354,6 @@
       <c r="R47" s="14" t="s">
         <v>266</v>
       </c>
-      <c r="S47" s="15"/>
     </row>
     <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B48" s="1" t="s">
@@ -5381,7 +5385,9 @@
       <c r="R48" s="1" t="s">
         <v>270</v>
       </c>
-      <c r="S48" s="15"/>
+      <c r="S48" s="0" t="s">
+        <v>271</v>
+      </c>
     </row>
     <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H49" s="1"/>
@@ -5392,7 +5398,7 @@
     </row>
     <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="33" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="B50" s="1" t="s">
         <v>18</v>
@@ -5401,16 +5407,16 @@
         <v>192</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="F50" s="2" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="G50" s="2" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="H50" s="29"/>
       <c r="I50" s="2" t="s">
@@ -5420,7 +5426,7 @@
         <v>167</v>
       </c>
       <c r="K50" s="5" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="L50" s="5" t="s">
         <v>168</v>
@@ -5428,7 +5434,7 @@
       <c r="M50" s="9"/>
       <c r="N50" s="29"/>
       <c r="O50" s="3" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="P50" s="7" t="s">
         <v>202</v>
@@ -5437,7 +5443,7 @@
         <v>89</v>
       </c>
       <c r="R50" s="7" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="S50" s="34"/>
     </row>
@@ -5448,24 +5454,24 @@
       </c>
       <c r="C51" s="9"/>
       <c r="D51" s="10" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="E51" s="10" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="F51" s="10" t="s">
         <v>211</v>
       </c>
       <c r="G51" s="11" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="H51" s="29" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
       <c r="K51" s="10" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="L51" s="10" t="s">
         <v>122</v>
@@ -5473,19 +5479,19 @@
       <c r="M51" s="9"/>
       <c r="N51" s="29"/>
       <c r="O51" s="1" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="P51" s="1" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="Q51" s="1" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="R51" s="1" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="S51" s="34" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5494,44 +5500,44 @@
         <v>45</v>
       </c>
       <c r="C52" s="10" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="D52" s="10" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="E52" s="10" t="s">
         <v>211</v>
       </c>
       <c r="F52" s="10" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="G52" s="11" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="H52" s="29"/>
       <c r="I52" s="9"/>
       <c r="J52" s="10" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="K52" s="10" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="L52" s="10" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="M52" s="9"/>
       <c r="N52" s="29"/>
       <c r="O52" s="27" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="P52" s="1" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="Q52" s="1" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="R52" s="1" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="S52" s="34"/>
     </row>
@@ -5550,7 +5556,7 @@
     </row>
     <row r="54" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="1" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="B54" s="1" t="s">
         <v>18</v>
@@ -5631,7 +5637,7 @@
     </row>
     <row r="58" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="1" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="B58" s="1" t="s">
         <v>18</v>
@@ -5715,7 +5721,7 @@
     </row>
     <row r="62" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="1" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="B62" s="1" t="s">
         <v>18</v>
@@ -5799,25 +5805,25 @@
     </row>
     <row r="66" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="1" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="B66" s="1" t="s">
         <v>18</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="E66" s="3" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="F66" s="2" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="G66" s="23" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="H66" s="35" t="s">
         <v>22</v>
@@ -5826,10 +5832,10 @@
         <v>116</v>
       </c>
       <c r="J66" s="4" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="K66" s="3" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="L66" s="5" t="s">
         <v>197</v>
@@ -5838,7 +5844,7 @@
         <v>197</v>
       </c>
       <c r="N66" s="5" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="O66" s="9"/>
       <c r="P66" s="31"/>
@@ -5858,17 +5864,17 @@
       <c r="G67" s="29"/>
       <c r="H67" s="29"/>
       <c r="I67" s="10" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="J67" s="26"/>
       <c r="K67" s="9"/>
       <c r="L67" s="10" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="M67" s="12"/>
       <c r="N67" s="10"/>
       <c r="O67" s="37" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="P67" s="31"/>
       <c r="Q67" s="36"/>
@@ -5886,17 +5892,17 @@
       <c r="F68" s="9"/>
       <c r="G68" s="29"/>
       <c r="H68" s="11" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="26"/>
       <c r="K68" s="10" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="L68" s="9"/>
       <c r="M68" s="12"/>
       <c r="N68" s="10" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="O68" s="19"/>
       <c r="P68" s="31"/>
@@ -5919,7 +5925,7 @@
     </row>
     <row r="70" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="0" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="B70" s="1" t="s">
         <v>18</v>
@@ -5939,13 +5945,13 @@
         <v>118</v>
       </c>
       <c r="K70" s="5" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="L70" s="5" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="M70" s="5" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="N70" s="9"/>
       <c r="O70" s="9"/>
@@ -5967,13 +5973,13 @@
       <c r="I71" s="9"/>
       <c r="J71" s="26"/>
       <c r="K71" s="11" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="L71" s="10" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="M71" s="10" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="N71" s="9"/>
       <c r="O71" s="9"/>
@@ -5992,17 +5998,17 @@
       <c r="F72" s="31"/>
       <c r="G72" s="31"/>
       <c r="H72" s="11" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="39" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="K72" s="10" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="L72" s="10" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="M72" s="10"/>
       <c r="N72" s="9"/>
@@ -6014,7 +6020,7 @@
     </row>
     <row r="74" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A74" s="33" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="B74" s="1" t="s">
         <v>18</v>
@@ -6063,7 +6069,7 @@
         <v>239</v>
       </c>
       <c r="P75" s="37" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="Q75" s="36"/>
       <c r="R75" s="36"/>
@@ -6113,7 +6119,7 @@
     </row>
     <row r="78" customFormat="false" ht="14.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A78" s="0" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="B78" s="1" t="s">
         <v>18</v>
@@ -6133,7 +6139,7 @@
         <v>83</v>
       </c>
       <c r="K78" s="7" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="L78" s="9"/>
       <c r="M78" s="31"/>
@@ -6193,7 +6199,7 @@
     </row>
     <row r="82" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A82" s="1" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="B82" s="1" t="s">
         <v>18</v>
@@ -6202,10 +6208,10 @@
       <c r="D82" s="9"/>
       <c r="E82" s="9"/>
       <c r="F82" s="2" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="G82" s="28" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="H82" s="29"/>
       <c r="I82" s="9"/>
@@ -6230,7 +6236,7 @@
       <c r="E83" s="9"/>
       <c r="F83" s="9"/>
       <c r="G83" s="40" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="H83" s="29"/>
       <c r="I83" s="9"/>
@@ -6256,7 +6262,7 @@
       <c r="D84" s="9"/>
       <c r="E84" s="9"/>
       <c r="F84" s="10" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="G84" s="29"/>
       <c r="H84" s="29"/>
@@ -6286,7 +6292,7 @@
     </row>
     <row r="86" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A86" s="1" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="B86" s="1" t="s">
         <v>18</v>
@@ -6298,7 +6304,7 @@
         <v>194</v>
       </c>
       <c r="G86" s="28" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="H86" s="29"/>
       <c r="I86" s="9"/>
@@ -6323,7 +6329,7 @@
       <c r="E87" s="29"/>
       <c r="F87" s="29"/>
       <c r="G87" s="40" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="H87" s="29"/>
       <c r="I87" s="9"/>
@@ -6347,7 +6353,7 @@
       <c r="D88" s="29"/>
       <c r="E88" s="29"/>
       <c r="F88" s="1" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="G88" s="29"/>
       <c r="H88" s="29"/>
@@ -6377,19 +6383,19 @@
     </row>
     <row r="90" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A90" s="1" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="B90" s="1" t="s">
         <v>18</v>
       </c>
       <c r="C90" s="2" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="D90" s="3" t="s">
         <v>22</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="F90" s="2" t="s">
         <v>123</v>
@@ -6444,7 +6450,7 @@
       </c>
       <c r="E92" s="9"/>
       <c r="F92" s="10" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="G92" s="29"/>
       <c r="H92" s="29"/>
@@ -6462,7 +6468,7 @@
     </row>
     <row r="94" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A94" s="0" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="B94" s="1" t="s">
         <v>18</v>
@@ -6610,10 +6616,10 @@
         <v>23</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="I2" s="79" t="s">
-        <v>562</v>
+        <v>563</v>
       </c>
       <c r="J2" s="80"/>
     </row>
@@ -6639,7 +6645,7 @@
         <v>36</v>
       </c>
       <c r="I3" s="81" t="s">
-        <v>563</v>
+        <v>564</v>
       </c>
       <c r="J3" s="80"/>
     </row>
@@ -6664,10 +6670,10 @@
         <v>36</v>
       </c>
       <c r="H4" s="11" t="s">
-        <v>563</v>
+        <v>564</v>
       </c>
       <c r="I4" s="27" t="s">
-        <v>564</v>
+        <v>565</v>
       </c>
       <c r="J4" s="80"/>
     </row>
@@ -6705,10 +6711,10 @@
         <v>57</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="I6" s="79" t="s">
-        <v>566</v>
+        <v>567</v>
       </c>
       <c r="J6" s="80"/>
     </row>
@@ -6749,10 +6755,10 @@
         <v>75</v>
       </c>
       <c r="H8" s="11" t="s">
-        <v>567</v>
+        <v>568</v>
       </c>
       <c r="I8" s="27" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
       <c r="J8" s="80"/>
     </row>
@@ -6790,10 +6796,10 @@
         <v>83</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>569</v>
+        <v>570</v>
       </c>
       <c r="I10" s="27" t="s">
-        <v>570</v>
+        <v>571</v>
       </c>
       <c r="J10" s="80"/>
     </row>
@@ -6815,7 +6821,7 @@
       </c>
       <c r="H11" s="9"/>
       <c r="I11" s="81" t="s">
-        <v>571</v>
+        <v>572</v>
       </c>
       <c r="J11" s="80"/>
     </row>
@@ -6840,10 +6846,10 @@
         <v>105</v>
       </c>
       <c r="H12" s="11" t="s">
-        <v>571</v>
+        <v>572</v>
       </c>
       <c r="I12" s="27" t="s">
-        <v>572</v>
+        <v>573</v>
       </c>
       <c r="J12" s="80"/>
     </row>
@@ -6883,7 +6889,7 @@
         <v>21</v>
       </c>
       <c r="I14" s="83" t="s">
-        <v>573</v>
+        <v>574</v>
       </c>
       <c r="J14" s="80"/>
     </row>
@@ -6907,7 +6913,7 @@
         <v>150</v>
       </c>
       <c r="I15" s="84" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="J15" s="80"/>
     </row>
@@ -6930,10 +6936,10 @@
         <v>150</v>
       </c>
       <c r="H16" s="11" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="I16" s="85" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="J16" s="80"/>
     </row>
@@ -6966,10 +6972,10 @@
         <v>192</v>
       </c>
       <c r="H18" s="2" t="s">
-        <v>576</v>
+        <v>577</v>
       </c>
       <c r="I18" s="27" t="s">
-        <v>577</v>
+        <v>578</v>
       </c>
       <c r="J18" s="80"/>
     </row>
@@ -7007,7 +7013,7 @@
       </c>
       <c r="H20" s="9"/>
       <c r="I20" s="27" t="s">
-        <v>578</v>
+        <v>579</v>
       </c>
       <c r="J20" s="80"/>
     </row>
@@ -7018,7 +7024,7 @@
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="0" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="B22" s="1" t="s">
         <v>18</v>
@@ -7029,10 +7035,10 @@
       <c r="F22" s="31"/>
       <c r="G22" s="31"/>
       <c r="H22" s="2" t="s">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="I22" s="27" t="s">
-        <v>580</v>
+        <v>581</v>
       </c>
       <c r="J22" s="80"/>
     </row>
@@ -7059,7 +7065,7 @@
       <c r="F24" s="31"/>
       <c r="G24" s="31"/>
       <c r="H24" s="11" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="I24" s="27"/>
       <c r="J24" s="80"/>
@@ -7095,10 +7101,10 @@
         <v>170</v>
       </c>
       <c r="H26" s="2" t="s">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="I26" s="27" t="s">
-        <v>582</v>
+        <v>583</v>
       </c>
       <c r="J26" s="80"/>
     </row>
@@ -7134,7 +7140,7 @@
       <c r="G28" s="9"/>
       <c r="H28" s="9"/>
       <c r="I28" s="27" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="J28" s="80"/>
     </row>
@@ -7170,10 +7176,10 @@
         <v>166</v>
       </c>
       <c r="H30" s="3" t="s">
-        <v>583</v>
+        <v>584</v>
       </c>
       <c r="I30" s="27" t="s">
-        <v>584</v>
+        <v>585</v>
       </c>
       <c r="J30" s="80"/>
     </row>
@@ -7218,10 +7224,10 @@
         <v>176</v>
       </c>
       <c r="H32" s="11" t="s">
-        <v>585</v>
+        <v>586</v>
       </c>
       <c r="I32" s="27" t="s">
-        <v>586</v>
+        <v>587</v>
       </c>
       <c r="J32" s="80"/>
     </row>
@@ -7239,31 +7245,31 @@
     </row>
     <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="1" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="B34" s="1" t="s">
         <v>18</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="E34" s="3" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="F34" s="2" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="G34" s="3" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="H34" s="2" t="s">
-        <v>587</v>
+        <v>588</v>
       </c>
       <c r="I34" s="27" t="s">
-        <v>588</v>
+        <v>589</v>
       </c>
       <c r="J34" s="80"/>
     </row>
@@ -7279,7 +7285,7 @@
       <c r="G35" s="9"/>
       <c r="H35" s="9"/>
       <c r="I35" s="81" t="s">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="J35" s="80"/>
     </row>
@@ -7294,7 +7300,7 @@
       <c r="F36" s="9"/>
       <c r="G36" s="9"/>
       <c r="H36" s="11" t="s">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="I36" s="27"/>
       <c r="J36" s="80"/>
@@ -7334,10 +7340,10 @@
         <v>55</v>
       </c>
       <c r="H38" s="2" t="s">
-        <v>590</v>
+        <v>591</v>
       </c>
       <c r="I38" s="27" t="s">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="J38" s="80"/>
     </row>
@@ -7363,7 +7369,7 @@
         <v>127</v>
       </c>
       <c r="I39" s="81" t="s">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="J39" s="80"/>
     </row>
@@ -7388,10 +7394,10 @@
         <v>127</v>
       </c>
       <c r="H40" s="11" t="s">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="I40" s="27" t="s">
-        <v>593</v>
+        <v>594</v>
       </c>
       <c r="J40" s="80"/>
     </row>
@@ -7423,7 +7429,7 @@
         <v>226</v>
       </c>
       <c r="I42" s="27" t="s">
-        <v>594</v>
+        <v>595</v>
       </c>
       <c r="J42" s="80"/>
     </row>
@@ -7451,7 +7457,7 @@
       <c r="G44" s="31"/>
       <c r="H44" s="9"/>
       <c r="I44" s="27" t="s">
-        <v>595</v>
+        <v>596</v>
       </c>
       <c r="J44" s="80"/>
     </row>
@@ -7461,7 +7467,7 @@
     </row>
     <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="0" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="B46" s="1" t="s">
         <v>18</v>
@@ -7475,7 +7481,7 @@
         <v>226</v>
       </c>
       <c r="I46" s="27" t="s">
-        <v>596</v>
+        <v>597</v>
       </c>
       <c r="J46" s="80"/>
     </row>
@@ -7505,7 +7511,7 @@
     </row>
     <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="0" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="B50" s="1" t="s">
         <v>18</v>
@@ -7541,7 +7547,7 @@
     </row>
     <row r="54" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="1" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="B54" s="1" t="s">
         <v>18</v>
@@ -7550,19 +7556,19 @@
         <v>192</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="F54" s="2" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="G54" s="2" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="H54" s="86" t="s">
-        <v>597</v>
+        <v>598</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7572,16 +7578,16 @@
       </c>
       <c r="C55" s="9"/>
       <c r="D55" s="10" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="E55" s="10" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="F55" s="10" t="s">
         <v>211</v>
       </c>
       <c r="G55" s="11" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="H55" s="29"/>
     </row>
@@ -7591,19 +7597,19 @@
         <v>45</v>
       </c>
       <c r="C56" s="10" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="D56" s="10" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="E56" s="10" t="s">
         <v>211</v>
       </c>
       <c r="F56" s="10" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="G56" s="11" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="H56" s="87"/>
     </row>
@@ -7618,7 +7624,7 @@
     </row>
     <row r="58" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="88" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="B58" s="88" t="s">
         <v>18</v>
@@ -7627,13 +7633,13 @@
       <c r="D58" s="89"/>
       <c r="E58" s="89"/>
       <c r="F58" s="90" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="G58" s="90" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="H58" s="88" t="s">
-        <v>598</v>
+        <v>599</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7646,7 +7652,7 @@
       <c r="E59" s="89"/>
       <c r="F59" s="89"/>
       <c r="G59" s="91" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="H59" s="88"/>
     </row>
@@ -7659,11 +7665,11 @@
       <c r="D60" s="89"/>
       <c r="E60" s="89"/>
       <c r="F60" s="92" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="G60" s="92"/>
       <c r="H60" s="88" t="s">
-        <v>599</v>
+        <v>600</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7677,7 +7683,7 @@
     </row>
     <row r="62" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="88" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="B62" s="88" t="s">
         <v>18</v>
@@ -7689,10 +7695,10 @@
         <v>194</v>
       </c>
       <c r="G62" s="90" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="H62" s="88" t="s">
-        <v>600</v>
+        <v>601</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7705,7 +7711,7 @@
       <c r="E63" s="93"/>
       <c r="F63" s="93"/>
       <c r="G63" s="91" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="H63" s="88"/>
     </row>
@@ -7718,11 +7724,11 @@
       <c r="D64" s="93"/>
       <c r="E64" s="93"/>
       <c r="F64" s="88" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="G64" s="92"/>
       <c r="H64" s="88" t="s">
-        <v>601</v>
+        <v>602</v>
       </c>
     </row>
   </sheetData>
@@ -7773,13 +7779,13 @@
         <v>18</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="D2" s="16" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="E2" s="16" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7791,10 +7797,10 @@
         <v>36</v>
       </c>
       <c r="D3" s="81" t="s">
-        <v>563</v>
+        <v>564</v>
       </c>
       <c r="E3" s="81" t="s">
-        <v>604</v>
+        <v>605</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7803,13 +7809,13 @@
         <v>45</v>
       </c>
       <c r="C4" s="11" t="s">
-        <v>563</v>
+        <v>564</v>
       </c>
       <c r="D4" s="81" t="s">
-        <v>604</v>
+        <v>605</v>
       </c>
       <c r="E4" s="81" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7827,13 +7833,13 @@
         <v>18</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="D6" s="16" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="E6" s="95" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7844,7 +7850,7 @@
       <c r="C7" s="9"/>
       <c r="D7" s="81"/>
       <c r="E7" s="81" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7853,13 +7859,13 @@
         <v>45</v>
       </c>
       <c r="C8" s="11" t="s">
-        <v>567</v>
+        <v>568</v>
       </c>
       <c r="D8" s="81" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
       <c r="E8" s="81" t="s">
-        <v>607</v>
+        <v>608</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7877,13 +7883,13 @@
         <v>18</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>569</v>
+        <v>570</v>
       </c>
       <c r="D10" s="16" t="s">
-        <v>608</v>
+        <v>609</v>
       </c>
       <c r="E10" s="95" t="s">
-        <v>608</v>
+        <v>609</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7893,10 +7899,10 @@
       </c>
       <c r="C11" s="9"/>
       <c r="D11" s="81" t="s">
-        <v>571</v>
+        <v>572</v>
       </c>
       <c r="E11" s="81" t="s">
-        <v>572</v>
+        <v>573</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7905,13 +7911,13 @@
         <v>45</v>
       </c>
       <c r="C12" s="11" t="s">
-        <v>571</v>
+        <v>572</v>
       </c>
       <c r="D12" s="81" t="s">
-        <v>572</v>
+        <v>573</v>
       </c>
       <c r="E12" s="81" t="s">
-        <v>609</v>
+        <v>610</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7929,13 +7935,13 @@
         <v>18</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>610</v>
+        <v>611</v>
       </c>
       <c r="D14" s="96" t="s">
-        <v>569</v>
+        <v>570</v>
       </c>
       <c r="E14" s="16" t="s">
-        <v>611</v>
+        <v>612</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7947,10 +7953,10 @@
         <v>150</v>
       </c>
       <c r="D15" s="84" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="E15" s="84" t="s">
-        <v>612</v>
+        <v>613</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7959,13 +7965,13 @@
         <v>45</v>
       </c>
       <c r="C16" s="11" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="D16" s="84" t="s">
-        <v>612</v>
+        <v>613</v>
       </c>
       <c r="E16" s="81" t="s">
-        <v>613</v>
+        <v>614</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7983,13 +7989,13 @@
         <v>18</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>576</v>
+        <v>577</v>
       </c>
       <c r="D18" s="16" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="E18" s="95" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8002,7 +8008,7 @@
       </c>
       <c r="D19" s="81"/>
       <c r="E19" s="81" t="s">
-        <v>614</v>
+        <v>615</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8012,7 +8018,7 @@
       </c>
       <c r="C20" s="9"/>
       <c r="D20" s="81" t="s">
-        <v>614</v>
+        <v>615</v>
       </c>
       <c r="E20" s="27"/>
     </row>
@@ -8023,19 +8029,19 @@
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="0" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="B22" s="1" t="s">
         <v>18</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="D22" s="95" t="s">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="E22" s="81" t="s">
-        <v>590</v>
+        <v>591</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8051,11 +8057,11 @@
         <v>45</v>
       </c>
       <c r="C24" s="11" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="D24" s="81"/>
       <c r="E24" s="81" t="s">
-        <v>615</v>
+        <v>616</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8073,13 +8079,13 @@
         <v>18</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="D26" s="16" t="s">
-        <v>616</v>
+        <v>617</v>
       </c>
       <c r="E26" s="16" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8090,7 +8096,7 @@
       <c r="C27" s="9"/>
       <c r="D27" s="81"/>
       <c r="E27" s="81" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8100,10 +8106,10 @@
       </c>
       <c r="C28" s="9"/>
       <c r="D28" s="81" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="E28" s="27" t="s">
-        <v>617</v>
+        <v>618</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8121,13 +8127,13 @@
         <v>18</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>583</v>
+        <v>584</v>
       </c>
       <c r="D30" s="16" t="s">
-        <v>618</v>
+        <v>619</v>
       </c>
       <c r="E30" s="16" t="s">
-        <v>618</v>
+        <v>619</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8139,10 +8145,10 @@
         <v>176</v>
       </c>
       <c r="D31" s="81" t="s">
-        <v>585</v>
+        <v>586</v>
       </c>
       <c r="E31" s="81" t="s">
-        <v>619</v>
+        <v>620</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8151,10 +8157,10 @@
         <v>45</v>
       </c>
       <c r="C32" s="11" t="s">
-        <v>585</v>
+        <v>586</v>
       </c>
       <c r="D32" s="81" t="s">
-        <v>619</v>
+        <v>620</v>
       </c>
       <c r="E32" s="27"/>
     </row>
@@ -8167,19 +8173,19 @@
     </row>
     <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="1" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="B34" s="1" t="s">
         <v>18</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>587</v>
+        <v>588</v>
       </c>
       <c r="D34" s="16" t="s">
-        <v>620</v>
+        <v>621</v>
       </c>
       <c r="E34" s="16" t="s">
-        <v>621</v>
+        <v>622</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8189,7 +8195,7 @@
       </c>
       <c r="C35" s="9"/>
       <c r="D35" s="97" t="s">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="E35" s="27"/>
     </row>
@@ -8199,7 +8205,7 @@
         <v>45</v>
       </c>
       <c r="C36" s="11" t="s">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="D36" s="81"/>
       <c r="E36" s="27"/>
@@ -8219,13 +8225,13 @@
         <v>18</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>590</v>
+        <v>591</v>
       </c>
       <c r="D38" s="16" t="s">
-        <v>622</v>
+        <v>623</v>
       </c>
       <c r="E38" s="16" t="s">
-        <v>623</v>
+        <v>624</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8237,10 +8243,10 @@
         <v>127</v>
       </c>
       <c r="D39" s="81" t="s">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="E39" s="81" t="s">
-        <v>624</v>
+        <v>625</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8249,13 +8255,13 @@
         <v>45</v>
       </c>
       <c r="C40" s="11" t="s">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="D40" s="81" t="s">
-        <v>624</v>
+        <v>625</v>
       </c>
       <c r="E40" s="81" t="s">
-        <v>625</v>
+        <v>626</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8273,13 +8279,13 @@
         <v>18</v>
       </c>
       <c r="C42" s="98" t="s">
-        <v>626</v>
+        <v>627</v>
       </c>
       <c r="D42" s="16" t="s">
-        <v>627</v>
+        <v>628</v>
       </c>
       <c r="E42" s="95" t="s">
-        <v>627</v>
+        <v>628</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8289,7 +8295,7 @@
       <c r="C43" s="9"/>
       <c r="D43" s="81"/>
       <c r="E43" s="81" t="s">
-        <v>628</v>
+        <v>629</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8298,10 +8304,10 @@
       </c>
       <c r="C44" s="9"/>
       <c r="D44" s="81" t="s">
-        <v>628</v>
+        <v>629</v>
       </c>
       <c r="E44" s="99" t="s">
-        <v>629</v>
+        <v>630</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8323,19 +8329,19 @@
     </row>
     <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="1" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="B48" s="1" t="s">
         <v>18</v>
       </c>
       <c r="C48" s="100" t="s">
-        <v>626</v>
+        <v>627</v>
       </c>
       <c r="D48" s="16" t="s">
-        <v>630</v>
+        <v>631</v>
       </c>
       <c r="E48" s="95" t="s">
-        <v>630</v>
+        <v>631</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8360,7 +8366,7 @@
     </row>
     <row r="52" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="0" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="B52" s="1" t="s">
         <v>18</v>
@@ -8368,7 +8374,7 @@
       <c r="C52" s="29"/>
       <c r="D52" s="31"/>
       <c r="E52" s="28" t="s">
-        <v>610</v>
+        <v>611</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8393,17 +8399,17 @@
     </row>
     <row r="56" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="1" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="B56" s="1" t="s">
         <v>18</v>
       </c>
       <c r="C56" s="87"/>
       <c r="D56" s="28" t="s">
-        <v>631</v>
+        <v>632</v>
       </c>
       <c r="E56" s="23" t="s">
-        <v>631</v>
+        <v>632</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8423,7 +8429,7 @@
       <c r="C58" s="87"/>
       <c r="D58" s="31"/>
       <c r="E58" s="40" t="s">
-        <v>632</v>
+        <v>633</v>
       </c>
     </row>
   </sheetData>
@@ -8467,7 +8473,7 @@
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>18</v>
@@ -8476,7 +8482,7 @@
         <v>167</v>
       </c>
       <c r="D2" s="101" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8486,7 +8492,7 @@
       </c>
       <c r="C3" s="10"/>
       <c r="D3" s="102" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8495,10 +8501,10 @@
         <v>45</v>
       </c>
       <c r="C4" s="10" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="D4" s="101" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8624,7 +8630,7 @@
         <v>96</v>
       </c>
       <c r="D16" s="103" t="s">
-        <v>633</v>
+        <v>634</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8633,16 +8639,16 @@
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="1" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="B18" s="1" t="s">
         <v>18</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="D18" s="103" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8660,7 +8666,7 @@
       </c>
       <c r="C20" s="105"/>
       <c r="D20" s="103" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8744,7 +8750,7 @@
         <v>153</v>
       </c>
       <c r="D28" s="103" t="s">
-        <v>634</v>
+        <v>635</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8829,7 +8835,7 @@
     </row>
     <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="0" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="B38" s="1" t="s">
         <v>18</v>
@@ -8838,7 +8844,7 @@
         <v>118</v>
       </c>
       <c r="D38" s="103" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8847,7 +8853,7 @@
       </c>
       <c r="C39" s="109"/>
       <c r="D39" s="104" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8855,10 +8861,10 @@
         <v>45</v>
       </c>
       <c r="C40" s="109" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="D40" s="103" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8941,7 +8947,7 @@
     </row>
     <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="0" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="B50" s="1" t="s">
         <v>18</v>
@@ -8950,7 +8956,7 @@
         <v>83</v>
       </c>
       <c r="D50" s="40" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8967,7 +8973,7 @@
     </row>
     <row r="54" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="0" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="B54" s="1" t="s">
         <v>18</v>
@@ -8994,7 +9000,7 @@
     </row>
     <row r="58" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="1" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="B58" s="1" t="s">
         <v>18</v>
@@ -9018,7 +9024,7 @@
     </row>
     <row r="62" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="1" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="B62" s="1" t="s">
         <v>18</v>
@@ -9042,7 +9048,7 @@
     </row>
     <row r="66" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="1" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="B66" s="1" t="s">
         <v>18</v>
@@ -9092,13 +9098,13 @@
         <v>44842</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>635</v>
+        <v>636</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>636</v>
+        <v>637</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9106,7 +9112,7 @@
         <v>44843</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="E2" s="0" t="s">
         <v>247</v>
@@ -9121,10 +9127,10 @@
         <v>44844</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="F3" s="0" t="n">
         <f aca="false">COUNTIF(B$1:B401,"Harrington")+5</f>
@@ -9136,10 +9142,10 @@
         <v>44845</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="E4" s="0" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="F4" s="0" t="n">
         <f aca="false">COUNTIF(B$1:B402,"Patrick")</f>
@@ -9151,7 +9157,7 @@
         <v>44846</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="E5" s="0" t="s">
         <v>225</v>
@@ -9166,10 +9172,10 @@
         <v>44847</v>
       </c>
       <c r="B6" s="0" t="s">
+        <v>338</v>
+      </c>
+      <c r="E6" s="0" t="s">
         <v>337</v>
-      </c>
-      <c r="E6" s="0" t="s">
-        <v>336</v>
       </c>
       <c r="F6" s="0" t="n">
         <f aca="false">COUNTIF(B$2:B404,"Symmington")</f>
@@ -9201,7 +9207,7 @@
         <v>225</v>
       </c>
       <c r="E8" s="0" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="F8" s="0" t="n">
         <f aca="false">COUNTIF(B$1:B406,"Duggan")</f>
@@ -9246,7 +9252,7 @@
         <v>44852</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="E11" s="0" t="s">
         <v>165</v>
@@ -9281,7 +9287,7 @@
         <v>247</v>
       </c>
       <c r="E13" s="0" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="F13" s="0" t="n">
         <f aca="false">COUNTIF(B$1:B411,"Kurtis")</f>
@@ -9475,7 +9481,7 @@
         <v>247</v>
       </c>
       <c r="F33" s="0" t="s">
-        <v>637</v>
+        <v>638</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9496,19 +9502,19 @@
         <v>247</v>
       </c>
       <c r="F35" s="0" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="G35" s="0" t="s">
-        <v>638</v>
+        <v>639</v>
       </c>
       <c r="H35" s="0" t="s">
-        <v>639</v>
+        <v>640</v>
       </c>
       <c r="I35" s="0" t="s">
-        <v>640</v>
+        <v>641</v>
       </c>
       <c r="K35" s="0" t="s">
-        <v>641</v>
+        <v>642</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9523,13 +9529,13 @@
         <v>247</v>
       </c>
       <c r="G36" s="0" t="s">
-        <v>642</v>
+        <v>643</v>
       </c>
       <c r="K36" s="0" t="s">
-        <v>643</v>
+        <v>644</v>
       </c>
       <c r="L36" s="0" t="s">
-        <v>644</v>
+        <v>645</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9544,13 +9550,13 @@
         <v>165</v>
       </c>
       <c r="G37" s="0" t="s">
-        <v>645</v>
+        <v>646</v>
       </c>
       <c r="H37" s="0" t="s">
-        <v>646</v>
+        <v>647</v>
       </c>
       <c r="K37" s="0" t="s">
-        <v>647</v>
+        <v>648</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9562,13 +9568,13 @@
         <v>247</v>
       </c>
       <c r="F38" s="0" t="s">
-        <v>648</v>
+        <v>649</v>
       </c>
       <c r="G38" s="0" t="s">
-        <v>649</v>
+        <v>650</v>
       </c>
       <c r="H38" s="0" t="s">
-        <v>650</v>
+        <v>651</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9592,13 +9598,13 @@
         <v>247</v>
       </c>
       <c r="F40" s="0" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="G40" s="0" t="s">
-        <v>651</v>
+        <v>652</v>
       </c>
       <c r="H40" s="0" t="s">
-        <v>652</v>
+        <v>653</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9625,7 +9631,7 @@
         <v>261</v>
       </c>
       <c r="G42" s="0" t="s">
-        <v>653</v>
+        <v>654</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9640,10 +9646,10 @@
         <v>225</v>
       </c>
       <c r="G43" s="0" t="s">
-        <v>654</v>
+        <v>655</v>
       </c>
       <c r="H43" s="0" t="s">
-        <v>655</v>
+        <v>656</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9667,13 +9673,13 @@
         <v>247</v>
       </c>
       <c r="F45" s="0" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="G45" s="0" t="s">
-        <v>656</v>
+        <v>657</v>
       </c>
       <c r="H45" s="0" t="s">
-        <v>657</v>
+        <v>658</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9685,10 +9691,10 @@
         <v>247</v>
       </c>
       <c r="F46" s="0" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="G46" s="0" t="s">
-        <v>658</v>
+        <v>659</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10606,7 +10612,7 @@
         <v>44989</v>
       </c>
       <c r="B148" s="0" t="s">
-        <v>659</v>
+        <v>660</v>
       </c>
     </row>
     <row r="149" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10615,7 +10621,7 @@
         <v>44990</v>
       </c>
       <c r="B149" s="0" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
     </row>
     <row r="150" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10633,7 +10639,7 @@
         <v>44992</v>
       </c>
       <c r="B151" s="0" t="s">
-        <v>659</v>
+        <v>660</v>
       </c>
     </row>
     <row r="152" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10660,7 +10666,7 @@
         <v>44995</v>
       </c>
       <c r="B154" s="0" t="s">
-        <v>659</v>
+        <v>660</v>
       </c>
     </row>
     <row r="155" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10678,7 +10684,7 @@
         <v>44997</v>
       </c>
       <c r="B156" s="0" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
     </row>
     <row r="157" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10687,7 +10693,7 @@
         <v>44998</v>
       </c>
       <c r="B157" s="0" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
     </row>
     <row r="158" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10696,7 +10702,7 @@
         <v>44999</v>
       </c>
       <c r="B158" s="0" t="s">
-        <v>659</v>
+        <v>660</v>
       </c>
     </row>
     <row r="159" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10705,7 +10711,7 @@
         <v>45000</v>
       </c>
       <c r="B159" s="0" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
     </row>
     <row r="160" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10750,7 +10756,7 @@
         <v>45005</v>
       </c>
       <c r="B164" s="0" t="s">
-        <v>659</v>
+        <v>660</v>
       </c>
     </row>
     <row r="165" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10759,7 +10765,7 @@
         <v>45006</v>
       </c>
       <c r="B165" s="0" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
     </row>
     <row r="166" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10768,7 +10774,7 @@
         <v>45007</v>
       </c>
       <c r="B166" s="0" t="s">
-        <v>660</v>
+        <v>661</v>
       </c>
     </row>
     <row r="167" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11002,7 +11008,7 @@
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="112" t="s">
-        <v>635</v>
+        <v>636</v>
       </c>
       <c r="B1" s="113"/>
       <c r="C1" s="113"/>
@@ -11023,7 +11029,7 @@
         <v>237</v>
       </c>
       <c r="B2" s="116" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="C2" s="116" t="s">
         <v>191</v>
@@ -11032,7 +11038,7 @@
         <v>209</v>
       </c>
       <c r="E2" s="116" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="F2" s="116" t="s">
         <v>165</v>
@@ -11041,7 +11047,7 @@
         <v>261</v>
       </c>
       <c r="H2" s="116" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="I2" s="116" t="s">
         <v>247</v>
@@ -11053,13 +11059,13 @@
         <v>114</v>
       </c>
       <c r="L2" s="116" t="s">
+        <v>338</v>
+      </c>
+      <c r="M2" s="116" t="s">
         <v>337</v>
       </c>
-      <c r="M2" s="116" t="s">
-        <v>336</v>
-      </c>
       <c r="N2" s="117" t="s">
-        <v>661</v>
+        <v>662</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11190,7 +11196,7 @@
         <v>45</v>
       </c>
       <c r="C5" s="43" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="D5" s="42" t="s">
         <v>48</v>
@@ -11224,7 +11230,7 @@
         <v>69</v>
       </c>
       <c r="D8" s="42" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11276,7 +11282,7 @@
         <v>45</v>
       </c>
       <c r="C13" s="41" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="D13" s="42" t="s">
         <v>108</v>
@@ -11289,7 +11295,7 @@
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="1" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="B15" s="1" t="s">
         <v>18</v>
@@ -11307,7 +11313,7 @@
         <v>32</v>
       </c>
       <c r="C16" s="41" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="D16" s="44"/>
     </row>
@@ -11402,7 +11408,7 @@
         <v>45</v>
       </c>
       <c r="C25" s="41" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="D25" s="42" t="s">
         <v>160</v>
@@ -11506,13 +11512,13 @@
     </row>
     <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="0" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="B35" s="1" t="s">
         <v>18</v>
       </c>
       <c r="C35" s="41" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="D35" s="42" t="s">
         <v>31</v>
@@ -11526,10 +11532,10 @@
         <v>32</v>
       </c>
       <c r="C36" s="41" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="D36" s="42" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11537,7 +11543,7 @@
         <v>45</v>
       </c>
       <c r="C37" s="41" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="D37" s="44"/>
     </row>
@@ -11556,7 +11562,7 @@
         <v>123</v>
       </c>
       <c r="D39" s="42" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="E39" s="23" t="s">
         <v>197</v>
@@ -11622,7 +11628,7 @@
     </row>
     <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="0" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="B47" s="1" t="s">
         <v>18</v>
@@ -11697,7 +11703,7 @@
   <sheetData>
     <row r="1" s="50" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="49" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="B1" s="50" t="n">
         <v>1</v>
@@ -12163,7 +12169,7 @@
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="B7" s="0" t="n">
         <v>1</v>
@@ -12311,7 +12317,7 @@
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="B9" s="0" t="n">
         <v>1</v>
@@ -12385,7 +12391,7 @@
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="B10" s="0" t="n">
         <v>1</v>
@@ -12459,7 +12465,7 @@
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="B11" s="0" t="n">
         <v>1</v>
@@ -12533,7 +12539,7 @@
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="B12" s="0" t="n">
         <v>1</v>
@@ -12681,7 +12687,7 @@
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="B14" s="0" t="n">
         <v>1</v>
@@ -12781,11 +12787,11 @@
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="52" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="B16" s="52"/>
       <c r="C16" s="53" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="D16" s="52"/>
       <c r="E16" s="52"/>
@@ -12794,7 +12800,7 @@
       <c r="H16" s="52"/>
       <c r="I16" s="52"/>
       <c r="J16" s="54" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="K16" s="52"/>
       <c r="L16" s="52"/>
@@ -12815,7 +12821,7 @@
       <c r="A17" s="52"/>
       <c r="B17" s="52"/>
       <c r="C17" s="52" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="D17" s="52"/>
       <c r="E17" s="52"/>
@@ -12824,7 +12830,7 @@
       <c r="H17" s="52"/>
       <c r="I17" s="52"/>
       <c r="J17" s="54" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="K17" s="52"/>
       <c r="L17" s="52"/>
@@ -12869,12 +12875,12 @@
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="57" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="B19" s="57"/>
       <c r="C19" s="57"/>
       <c r="D19" s="57" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="E19" s="58"/>
       <c r="F19" s="58"/>
@@ -12902,7 +12908,7 @@
       <c r="B20" s="57"/>
       <c r="C20" s="57"/>
       <c r="D20" s="57" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="E20" s="58"/>
       <c r="F20" s="58"/>
@@ -12953,13 +12959,13 @@
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="60" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="B22" s="61" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="C22" s="62" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="D22" s="63"/>
       <c r="E22" s="63"/>
@@ -12971,10 +12977,10 @@
     <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="50"/>
       <c r="B23" s="61" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="C23" s="62" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="D23" s="64"/>
       <c r="E23" s="64"/>
@@ -12989,10 +12995,10 @@
         <v>45</v>
       </c>
       <c r="C24" s="62" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="D24" s="65" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="E24" s="63"/>
       <c r="F24" s="63"/>
@@ -13005,10 +13011,10 @@
         <v>225</v>
       </c>
       <c r="B25" s="0" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="C25" s="64" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="D25" s="64"/>
       <c r="E25" s="64"/>
@@ -13020,7 +13026,7 @@
     <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="50"/>
       <c r="B26" s="0" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="C26" s="65"/>
       <c r="D26" s="63"/>
@@ -13036,7 +13042,7 @@
         <v>45</v>
       </c>
       <c r="C27" s="66" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="D27" s="64"/>
       <c r="E27" s="64"/>
@@ -13050,10 +13056,10 @@
         <v>114</v>
       </c>
       <c r="B28" s="0" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="C28" s="66" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="D28" s="64"/>
       <c r="E28" s="64"/>
@@ -13065,7 +13071,7 @@
     <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="50"/>
       <c r="B29" s="0" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="C29" s="65"/>
       <c r="D29" s="64"/>
@@ -13081,7 +13087,7 @@
         <v>45</v>
       </c>
       <c r="C30" s="64" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="D30" s="64"/>
       <c r="E30" s="64"/>
@@ -13092,13 +13098,13 @@
     </row>
     <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="60" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="B31" s="61" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="C31" s="62" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="D31" s="63"/>
       <c r="F31" s="63"/>
@@ -13109,10 +13115,10 @@
     <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="50"/>
       <c r="B32" s="61" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="C32" s="65" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="D32" s="64"/>
       <c r="E32" s="64"/>
@@ -13138,10 +13144,10 @@
         <v>165</v>
       </c>
       <c r="B34" s="0" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="C34" s="65" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="D34" s="64"/>
       <c r="E34" s="64"/>
@@ -13153,10 +13159,10 @@
     <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="50"/>
       <c r="B35" s="0" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="C35" s="65" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="D35" s="64"/>
       <c r="E35" s="64"/>
@@ -13171,10 +13177,10 @@
         <v>45</v>
       </c>
       <c r="C36" s="64" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="D36" s="0" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="E36" s="64"/>
       <c r="F36" s="64"/>
@@ -13184,13 +13190,13 @@
     </row>
     <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="60" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="B37" s="61" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="C37" s="62" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="D37" s="63"/>
       <c r="E37" s="63"/>
@@ -13202,10 +13208,10 @@
     <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="50"/>
       <c r="B38" s="61" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="C38" s="62" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="D38" s="64"/>
       <c r="E38" s="64"/>
@@ -13220,10 +13226,10 @@
         <v>45</v>
       </c>
       <c r="C39" s="62" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="D39" s="64" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="E39" s="63"/>
       <c r="F39" s="64"/>
@@ -13233,13 +13239,13 @@
     </row>
     <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="50" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="B40" s="0" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="C40" s="64" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="D40" s="64"/>
       <c r="E40" s="64"/>
@@ -13251,7 +13257,7 @@
     <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="50"/>
       <c r="B41" s="0" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="C41" s="65"/>
       <c r="D41" s="64"/>
@@ -13279,10 +13285,10 @@
         <v>191</v>
       </c>
       <c r="B43" s="61" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="C43" s="62" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="D43" s="63"/>
       <c r="E43" s="63"/>
@@ -13294,10 +13300,10 @@
     <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="50"/>
       <c r="B44" s="61" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="C44" s="62" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="D44" s="63"/>
       <c r="E44" s="64"/>
@@ -13323,10 +13329,10 @@
         <v>209</v>
       </c>
       <c r="B46" s="0" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="C46" s="65" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="D46" s="64"/>
       <c r="E46" s="64"/>
@@ -13338,10 +13344,10 @@
     <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="50"/>
       <c r="B47" s="0" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="C47" s="64" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="D47" s="64"/>
       <c r="E47" s="64"/>
@@ -13356,10 +13362,10 @@
         <v>45</v>
       </c>
       <c r="C48" s="62" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="D48" s="64" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="E48" s="64"/>
       <c r="F48" s="64"/>
@@ -13369,13 +13375,13 @@
     </row>
     <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="60" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="B49" s="61" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="C49" s="62" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="E49" s="63"/>
       <c r="F49" s="63"/>
@@ -13386,10 +13392,10 @@
     <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="50"/>
       <c r="B50" s="61" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="C50" s="62" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="D50" s="64"/>
       <c r="E50" s="64"/>
@@ -13404,10 +13410,10 @@
         <v>45</v>
       </c>
       <c r="C51" s="62" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="D51" s="65" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="E51" s="64"/>
       <c r="F51" s="64"/>
@@ -13420,10 +13426,10 @@
         <v>261</v>
       </c>
       <c r="B52" s="0" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="C52" s="65" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="D52" s="64"/>
       <c r="E52" s="64"/>
@@ -13434,10 +13440,10 @@
     </row>
     <row r="53" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B53" s="0" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="C53" s="64" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="D53" s="64"/>
       <c r="E53" s="64"/>
@@ -13451,10 +13457,10 @@
         <v>45</v>
       </c>
       <c r="C54" s="63" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="D54" s="65" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="E54" s="64"/>
       <c r="F54" s="64"/>
@@ -13464,13 +13470,13 @@
     </row>
     <row r="55" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="50" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="B55" s="0" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="C55" s="65" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="D55" s="64"/>
       <c r="E55" s="64"/>
@@ -13481,10 +13487,10 @@
     </row>
     <row r="56" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B56" s="0" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="C56" s="64" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="D56" s="64"/>
       <c r="E56" s="64"/>
@@ -13498,10 +13504,10 @@
         <v>45</v>
       </c>
       <c r="C57" s="65" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="D57" s="64" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="E57" s="64"/>
       <c r="G57" s="64"/>
@@ -13513,10 +13519,10 @@
         <v>247</v>
       </c>
       <c r="B58" s="0" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="C58" s="65" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="D58" s="64"/>
       <c r="E58" s="64"/>
@@ -13527,10 +13533,10 @@
     </row>
     <row r="59" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B59" s="0" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="C59" s="65" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="D59" s="64"/>
       <c r="E59" s="64"/>
@@ -13544,10 +13550,10 @@
         <v>45</v>
       </c>
       <c r="C60" s="65" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="D60" s="65" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="E60" s="64"/>
       <c r="G60" s="64"/>
@@ -13583,12 +13589,12 @@
     </row>
     <row r="66" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="50" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="33" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13602,185 +13608,185 @@
     </row>
     <row r="72" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="0" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="0" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="0" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
     </row>
     <row r="77" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A77" s="0" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
     </row>
     <row r="78" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A78" s="0" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
     </row>
     <row r="81" customFormat="false" ht="43.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A81" s="72" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
     </row>
     <row r="82" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A82" s="33" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="B82" s="0" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
     </row>
     <row r="83" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A83" s="33" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="B83" s="0" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
     </row>
     <row r="84" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A84" s="33" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="B84" s="0" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
     </row>
     <row r="85" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A85" s="33" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="B85" s="0" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
     </row>
     <row r="86" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A86" s="33" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="B86" s="0" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
     </row>
     <row r="87" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A87" s="33" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="B87" s="0" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
     </row>
     <row r="88" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A88" s="33" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="B88" s="0" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
     </row>
     <row r="89" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A89" s="33" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="B89" s="0" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
     </row>
     <row r="90" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A90" s="33" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="B90" s="0" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
     </row>
     <row r="91" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A91" s="33" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="B91" s="0" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
     </row>
     <row r="92" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A92" s="33" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="B92" s="0" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
     </row>
     <row r="93" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A93" s="33" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="B93" s="0" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
     </row>
     <row r="94" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A94" s="33" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="B94" s="0" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
     </row>
     <row r="95" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A95" s="33" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="B95" s="0" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
     </row>
     <row r="96" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A96" s="33" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="B96" s="0" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
     </row>
     <row r="97" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A97" s="33" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="B97" s="0" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
     </row>
     <row r="101" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A101" s="0" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
     </row>
     <row r="102" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A102" s="0" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
     </row>
     <row r="103" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A103" s="0" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
     </row>
     <row r="104" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A104" s="0" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
     </row>
     <row r="105" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A105" s="0" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
     </row>
   </sheetData>
@@ -13812,28 +13818,28 @@
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="J1" s="0" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="M1" s="0" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="P1" s="0" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="S1" s="0" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="V1" s="0" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13848,7 +13854,7 @@
         <v>40</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="G2" s="0" t="n">
         <f aca="false">D42+1</f>
@@ -13862,7 +13868,7 @@
         <v>118</v>
       </c>
       <c r="K2" s="0" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="M2" s="0" t="n">
         <f aca="false">J42+1</f>
@@ -13876,7 +13882,7 @@
         <v>196</v>
       </c>
       <c r="Q2" s="0" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="S2" s="0" t="n">
         <f aca="false">P42+1</f>
@@ -13890,7 +13896,7 @@
         <v>274</v>
       </c>
       <c r="W2" s="0" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13899,56 +13905,56 @@
         <v>2</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="D3" s="0" t="n">
         <f aca="false">D2+1</f>
         <v>41</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="G3" s="0" t="n">
         <f aca="false">G2+1</f>
         <v>80</v>
       </c>
       <c r="H3" s="0" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="J3" s="0" t="n">
         <f aca="false">J2+1</f>
         <v>119</v>
       </c>
       <c r="K3" s="0" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="M3" s="0" t="n">
         <f aca="false">M2+1</f>
         <v>158</v>
       </c>
       <c r="N3" s="0" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="P3" s="0" t="n">
         <f aca="false">P2+1</f>
         <v>197</v>
       </c>
       <c r="Q3" s="0" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="S3" s="0" t="n">
         <f aca="false">S2+1</f>
         <v>236</v>
       </c>
       <c r="T3" s="0" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="V3" s="73" t="n">
         <f aca="false">V2+1</f>
         <v>275</v>
       </c>
       <c r="W3" s="73" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13957,56 +13963,56 @@
         <v>3</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="D4" s="0" t="n">
         <f aca="false">D3+1</f>
         <v>42</v>
       </c>
       <c r="E4" s="0" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="G4" s="0" t="n">
         <f aca="false">G3+1</f>
         <v>81</v>
       </c>
       <c r="H4" s="0" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="J4" s="0" t="n">
         <f aca="false">J3+1</f>
         <v>120</v>
       </c>
       <c r="K4" s="0" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="M4" s="0" t="n">
         <f aca="false">M3+1</f>
         <v>159</v>
       </c>
       <c r="N4" s="0" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="P4" s="0" t="n">
         <f aca="false">P3+1</f>
         <v>198</v>
       </c>
       <c r="Q4" s="0" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="S4" s="0" t="n">
         <f aca="false">S3+1</f>
         <v>237</v>
       </c>
       <c r="T4" s="0" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="V4" s="0" t="n">
         <f aca="false">V3+1</f>
         <v>276</v>
       </c>
       <c r="W4" s="0" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14015,7 +14021,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="D5" s="0" t="n">
         <f aca="false">D4+1</f>
@@ -14029,7 +14035,7 @@
         <v>82</v>
       </c>
       <c r="H5" s="0" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="J5" s="0" t="n">
         <f aca="false">J4+1</f>
@@ -14043,7 +14049,7 @@
         <v>160</v>
       </c>
       <c r="N5" s="0" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="P5" s="0" t="n">
         <f aca="false">P4+1</f>
@@ -14057,7 +14063,7 @@
         <v>238</v>
       </c>
       <c r="T5" s="0" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="V5" s="73" t="n">
         <f aca="false">V4+1</f>
@@ -14073,7 +14079,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="D6" s="0" t="n">
         <f aca="false">D5+1</f>
@@ -14087,7 +14093,7 @@
         <v>83</v>
       </c>
       <c r="H6" s="0" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="J6" s="0" t="n">
         <f aca="false">J5+1</f>
@@ -14101,7 +14107,7 @@
         <v>161</v>
       </c>
       <c r="N6" s="0" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="P6" s="0" t="n">
         <f aca="false">P5+1</f>
@@ -14115,7 +14121,7 @@
         <v>239</v>
       </c>
       <c r="T6" s="0" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="V6" s="73" t="n">
         <f aca="false">V5+1</f>
@@ -14145,7 +14151,7 @@
         <v>84</v>
       </c>
       <c r="H7" s="0" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="J7" s="0" t="n">
         <f aca="false">J6+1</f>
@@ -14254,7 +14260,7 @@
         <v>47</v>
       </c>
       <c r="E9" s="0" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="G9" s="0" t="n">
         <f aca="false">G8+1</f>
@@ -14282,7 +14288,7 @@
         <v>203</v>
       </c>
       <c r="Q9" s="0" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="S9" s="0" t="n">
         <f aca="false">S8+1</f>
@@ -14305,28 +14311,28 @@
         <v>9</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="D10" s="0" t="n">
         <f aca="false">D9+1</f>
         <v>48</v>
       </c>
       <c r="E10" s="0" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="G10" s="0" t="n">
         <f aca="false">G9+1</f>
         <v>87</v>
       </c>
       <c r="H10" s="0" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="J10" s="0" t="n">
         <f aca="false">J9+1</f>
         <v>126</v>
       </c>
       <c r="K10" s="0" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="M10" s="0" t="n">
         <f aca="false">M9+1</f>
@@ -14340,7 +14346,7 @@
         <v>204</v>
       </c>
       <c r="Q10" s="0" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="S10" s="0" t="n">
         <f aca="false">S9+1</f>
@@ -14354,7 +14360,7 @@
         <v>282</v>
       </c>
       <c r="W10" s="73" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14370,7 +14376,7 @@
         <v>49</v>
       </c>
       <c r="E11" s="0" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="G11" s="0" t="n">
         <f aca="false">G10+1</f>
@@ -14384,7 +14390,7 @@
         <v>127</v>
       </c>
       <c r="K11" s="0" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="M11" s="0" t="n">
         <f aca="false">M10+1</f>
@@ -14398,7 +14404,7 @@
         <v>205</v>
       </c>
       <c r="Q11" s="0" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="S11" s="0" t="n">
         <f aca="false">S10+1</f>
@@ -14412,7 +14418,7 @@
         <v>283</v>
       </c>
       <c r="W11" s="73" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14421,56 +14427,56 @@
         <v>11</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="D12" s="0" t="n">
         <f aca="false">D11+1</f>
         <v>50</v>
       </c>
       <c r="E12" s="0" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="G12" s="0" t="n">
         <f aca="false">G11+1</f>
         <v>89</v>
       </c>
       <c r="H12" s="0" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="J12" s="0" t="n">
         <f aca="false">J11+1</f>
         <v>128</v>
       </c>
       <c r="K12" s="0" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="M12" s="0" t="n">
         <f aca="false">M11+1</f>
         <v>167</v>
       </c>
       <c r="N12" s="0" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="P12" s="0" t="n">
         <f aca="false">P11+1</f>
         <v>206</v>
       </c>
       <c r="Q12" s="0" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="S12" s="0" t="n">
         <f aca="false">S11+1</f>
         <v>245</v>
       </c>
       <c r="T12" s="0" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="V12" s="73" t="n">
         <f aca="false">V11+1</f>
         <v>284</v>
       </c>
       <c r="W12" s="73" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14479,56 +14485,56 @@
         <v>12</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="D13" s="0" t="n">
         <f aca="false">D12+1</f>
         <v>51</v>
       </c>
       <c r="E13" s="0" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="G13" s="0" t="n">
         <f aca="false">G12+1</f>
         <v>90</v>
       </c>
       <c r="H13" s="0" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="J13" s="0" t="n">
         <f aca="false">J12+1</f>
         <v>129</v>
       </c>
       <c r="K13" s="0" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="M13" s="0" t="n">
         <f aca="false">M12+1</f>
         <v>168</v>
       </c>
       <c r="N13" s="0" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="P13" s="0" t="n">
         <f aca="false">P12+1</f>
         <v>207</v>
       </c>
       <c r="Q13" s="0" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="S13" s="0" t="n">
         <f aca="false">S12+1</f>
         <v>246</v>
       </c>
       <c r="T13" s="0" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="V13" s="73" t="n">
         <f aca="false">V12+1</f>
         <v>285</v>
       </c>
       <c r="W13" s="73" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14537,7 +14543,7 @@
         <v>13</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="D14" s="0" t="n">
         <f aca="false">D13+1</f>
@@ -14551,21 +14557,21 @@
         <v>91</v>
       </c>
       <c r="H14" s="0" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="J14" s="0" t="n">
         <f aca="false">J13+1</f>
         <v>130</v>
       </c>
       <c r="K14" s="0" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="M14" s="0" t="n">
         <f aca="false">M13+1</f>
         <v>169</v>
       </c>
       <c r="N14" s="0" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="P14" s="0" t="n">
         <f aca="false">P13+1</f>
@@ -14579,7 +14585,7 @@
         <v>247</v>
       </c>
       <c r="T14" s="0" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="V14" s="0" t="n">
         <f aca="false">V13+1</f>
@@ -14591,28 +14597,28 @@
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="D15" s="0" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="G15" s="0" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="J15" s="0" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="M15" s="0" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="P15" s="0" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="S15" s="0" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="V15" s="0" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14621,7 +14627,7 @@
         <v>14</v>
       </c>
       <c r="B16" s="0" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="D16" s="0" t="n">
         <f aca="false">D14+1</f>
@@ -14635,7 +14641,7 @@
         <v>92</v>
       </c>
       <c r="H16" s="0" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="J16" s="0" t="n">
         <f aca="false">J14+1</f>
@@ -14649,7 +14655,7 @@
         <v>170</v>
       </c>
       <c r="N16" s="0" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="P16" s="0" t="n">
         <f aca="false">P14+1</f>
@@ -14663,7 +14669,7 @@
         <v>248</v>
       </c>
       <c r="T16" s="0" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="V16" s="0" t="n">
         <f aca="false">V14+1</f>
@@ -14679,56 +14685,56 @@
         <v>15</v>
       </c>
       <c r="B17" s="0" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="D17" s="0" t="n">
         <f aca="false">D16+1</f>
         <v>54</v>
       </c>
       <c r="E17" s="0" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="G17" s="0" t="n">
         <f aca="false">G16+1</f>
         <v>93</v>
       </c>
       <c r="H17" s="0" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="J17" s="0" t="n">
         <f aca="false">J16+1</f>
         <v>132</v>
       </c>
       <c r="K17" s="0" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="M17" s="0" t="n">
         <f aca="false">M16+1</f>
         <v>171</v>
       </c>
       <c r="N17" s="0" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="P17" s="0" t="n">
         <f aca="false">P16+1</f>
         <v>210</v>
       </c>
       <c r="Q17" s="0" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="S17" s="0" t="n">
         <f aca="false">S16+1</f>
         <v>249</v>
       </c>
       <c r="T17" s="0" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="V17" s="73" t="n">
         <f aca="false">V16+1</f>
         <v>288</v>
       </c>
       <c r="W17" s="73" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14737,56 +14743,56 @@
         <v>16</v>
       </c>
       <c r="B18" s="0" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="D18" s="0" t="n">
         <f aca="false">D17+1</f>
         <v>55</v>
       </c>
       <c r="E18" s="0" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="G18" s="0" t="n">
         <f aca="false">G17+1</f>
         <v>94</v>
       </c>
       <c r="H18" s="0" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="J18" s="0" t="n">
         <f aca="false">J17+1</f>
         <v>133</v>
       </c>
       <c r="K18" s="0" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="M18" s="0" t="n">
         <f aca="false">M17+1</f>
         <v>172</v>
       </c>
       <c r="N18" s="0" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="P18" s="0" t="n">
         <f aca="false">P17+1</f>
         <v>211</v>
       </c>
       <c r="Q18" s="0" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="S18" s="0" t="n">
         <f aca="false">S17+1</f>
         <v>250</v>
       </c>
       <c r="T18" s="0" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="V18" s="73" t="n">
         <f aca="false">V17+1</f>
         <v>289</v>
       </c>
       <c r="W18" s="73" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14802,7 +14808,7 @@
         <v>56</v>
       </c>
       <c r="E19" s="0" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="G19" s="0" t="n">
         <f aca="false">G18+1</f>
@@ -14816,7 +14822,7 @@
         <v>134</v>
       </c>
       <c r="K19" s="0" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="M19" s="0" t="n">
         <f aca="false">M18+1</f>
@@ -14830,7 +14836,7 @@
         <v>212</v>
       </c>
       <c r="Q19" s="0" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="S19" s="73" t="n">
         <f aca="false">S18+1</f>
@@ -14844,7 +14850,7 @@
         <v>290</v>
       </c>
       <c r="W19" s="73" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14860,7 +14866,7 @@
         <v>57</v>
       </c>
       <c r="E20" s="0" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="G20" s="0" t="n">
         <f aca="false">G19+1</f>
@@ -14874,7 +14880,7 @@
         <v>135</v>
       </c>
       <c r="K20" s="0" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="M20" s="0" t="n">
         <f aca="false">M19+1</f>
@@ -14888,7 +14894,7 @@
         <v>213</v>
       </c>
       <c r="Q20" s="0" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="S20" s="73" t="n">
         <f aca="false">S19+1</f>
@@ -14902,7 +14908,7 @@
         <v>291</v>
       </c>
       <c r="W20" s="73" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15041,7 +15047,7 @@
         <v>99</v>
       </c>
       <c r="H23" s="0" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="J23" s="0" t="n">
         <f aca="false">J22+1</f>
@@ -15085,7 +15091,7 @@
         <v>22</v>
       </c>
       <c r="B24" s="0" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="D24" s="0" t="n">
         <f aca="false">D23+1</f>
@@ -15099,7 +15105,7 @@
         <v>100</v>
       </c>
       <c r="H24" s="0" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="J24" s="0" t="n">
         <f aca="false">J23+1</f>
@@ -15113,21 +15119,21 @@
         <v>178</v>
       </c>
       <c r="N24" s="0" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="P24" s="0" t="n">
         <f aca="false">P23+1</f>
         <v>217</v>
       </c>
       <c r="Q24" s="0" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="S24" s="0" t="n">
         <f aca="false">S23+1</f>
         <v>256</v>
       </c>
       <c r="T24" s="0" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="V24" s="73" t="n">
         <f aca="false">V23+1</f>
@@ -15143,7 +15149,7 @@
         <v>23</v>
       </c>
       <c r="B25" s="0" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="D25" s="0" t="n">
         <f aca="false">D24+1</f>
@@ -15157,7 +15163,7 @@
         <v>101</v>
       </c>
       <c r="H25" s="0" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="J25" s="0" t="n">
         <f aca="false">J24+1</f>
@@ -15171,7 +15177,7 @@
         <v>179</v>
       </c>
       <c r="N25" s="0" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="P25" s="0" t="n">
         <f aca="false">P24+1</f>
@@ -15185,7 +15191,7 @@
         <v>257</v>
       </c>
       <c r="T25" s="73" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="V25" s="73" t="n">
         <f aca="false">V24+1</f>
@@ -15201,56 +15207,56 @@
         <v>24</v>
       </c>
       <c r="B26" s="0" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="D26" s="0" t="n">
         <f aca="false">D25+1</f>
         <v>63</v>
       </c>
       <c r="E26" s="0" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="G26" s="0" t="n">
         <f aca="false">G25+1</f>
         <v>102</v>
       </c>
       <c r="H26" s="0" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="J26" s="0" t="n">
         <f aca="false">J25+1</f>
         <v>141</v>
       </c>
       <c r="K26" s="0" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="M26" s="0" t="n">
         <f aca="false">M25+1</f>
         <v>180</v>
       </c>
       <c r="N26" s="0" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="P26" s="0" t="n">
         <f aca="false">P25+1</f>
         <v>219</v>
       </c>
       <c r="Q26" s="0" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="S26" s="73" t="n">
         <f aca="false">S25+1</f>
         <v>258</v>
       </c>
       <c r="T26" s="73" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="V26" s="73" t="n">
         <f aca="false">V25+1</f>
         <v>297</v>
       </c>
       <c r="W26" s="73" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15259,56 +15265,56 @@
         <v>25</v>
       </c>
       <c r="B27" s="0" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="D27" s="0" t="n">
         <f aca="false">D26+1</f>
         <v>64</v>
       </c>
       <c r="E27" s="0" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="G27" s="0" t="n">
         <f aca="false">G26+1</f>
         <v>103</v>
       </c>
       <c r="H27" s="0" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="J27" s="0" t="n">
         <f aca="false">J26+1</f>
         <v>142</v>
       </c>
       <c r="K27" s="0" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="M27" s="0" t="n">
         <f aca="false">M26+1</f>
         <v>181</v>
       </c>
       <c r="N27" s="0" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="P27" s="0" t="n">
         <f aca="false">P26+1</f>
         <v>220</v>
       </c>
       <c r="Q27" s="0" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="S27" s="73" t="n">
         <f aca="false">S26+1</f>
         <v>259</v>
       </c>
       <c r="T27" s="73" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="V27" s="73" t="n">
         <f aca="false">V26+1</f>
         <v>298</v>
       </c>
       <c r="W27" s="73" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15324,7 +15330,7 @@
         <v>65</v>
       </c>
       <c r="E28" s="0" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="G28" s="0" t="n">
         <f aca="false">G27+1</f>
@@ -15338,7 +15344,7 @@
         <v>143</v>
       </c>
       <c r="K28" s="0" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="M28" s="0" t="n">
         <f aca="false">M27+1</f>
@@ -15352,7 +15358,7 @@
         <v>221</v>
       </c>
       <c r="Q28" s="0" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="S28" s="0" t="n">
         <f aca="false">S27+1</f>
@@ -15366,30 +15372,30 @@
         <v>299</v>
       </c>
       <c r="W28" s="73" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="0" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="D29" s="0" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="G29" s="0" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="J29" s="0" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="M29" s="0" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="P29" s="0" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="S29" s="0" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15405,7 +15411,7 @@
         <v>66</v>
       </c>
       <c r="E30" s="0" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="G30" s="0" t="n">
         <f aca="false">G28+1</f>
@@ -15419,7 +15425,7 @@
         <v>144</v>
       </c>
       <c r="K30" s="0" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="M30" s="0" t="n">
         <f aca="false">M28+1</f>
@@ -15433,7 +15439,7 @@
         <v>222</v>
       </c>
       <c r="Q30" s="0" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="S30" s="0" t="n">
         <f aca="false">S28+1</f>
@@ -15449,49 +15455,49 @@
         <v>28</v>
       </c>
       <c r="B31" s="0" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="D31" s="0" t="n">
         <f aca="false">D30+1</f>
         <v>67</v>
       </c>
       <c r="E31" s="0" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="G31" s="0" t="n">
         <f aca="false">G30+1</f>
         <v>106</v>
       </c>
       <c r="H31" s="0" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="J31" s="0" t="n">
         <f aca="false">J30+1</f>
         <v>145</v>
       </c>
       <c r="K31" s="0" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="M31" s="0" t="n">
         <f aca="false">M30+1</f>
         <v>184</v>
       </c>
       <c r="N31" s="0" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="P31" s="0" t="n">
         <f aca="false">P30+1</f>
         <v>223</v>
       </c>
       <c r="Q31" s="0" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="S31" s="73" t="n">
         <f aca="false">S30+1</f>
         <v>262</v>
       </c>
       <c r="T31" s="73" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15500,49 +15506,49 @@
         <v>29</v>
       </c>
       <c r="B32" s="0" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="D32" s="0" t="n">
         <f aca="false">D31+1</f>
         <v>68</v>
       </c>
       <c r="E32" s="0" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="G32" s="0" t="n">
         <f aca="false">G31+1</f>
         <v>107</v>
       </c>
       <c r="H32" s="0" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="J32" s="0" t="n">
         <f aca="false">J31+1</f>
         <v>146</v>
       </c>
       <c r="K32" s="0" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="M32" s="0" t="n">
         <f aca="false">M31+1</f>
         <v>185</v>
       </c>
       <c r="N32" s="0" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="P32" s="0" t="n">
         <f aca="false">P31+1</f>
         <v>224</v>
       </c>
       <c r="Q32" s="0" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="S32" s="73" t="n">
         <f aca="false">S31+1</f>
         <v>263</v>
       </c>
       <c r="T32" s="73" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15551,7 +15557,7 @@
         <v>30</v>
       </c>
       <c r="B33" s="0" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="D33" s="0" t="n">
         <f aca="false">D32+1</f>
@@ -15565,7 +15571,7 @@
         <v>108</v>
       </c>
       <c r="H33" s="0" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="J33" s="0" t="n">
         <f aca="false">J32+1</f>
@@ -15579,7 +15585,7 @@
         <v>186</v>
       </c>
       <c r="N33" s="0" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="P33" s="0" t="n">
         <f aca="false">P32+1</f>
@@ -15593,7 +15599,7 @@
         <v>264</v>
       </c>
       <c r="T33" s="73" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15602,7 +15608,7 @@
         <v>31</v>
       </c>
       <c r="B34" s="0" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="D34" s="0" t="n">
         <f aca="false">D33+1</f>
@@ -15616,7 +15622,7 @@
         <v>109</v>
       </c>
       <c r="H34" s="0" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="J34" s="0" t="n">
         <f aca="false">J33+1</f>
@@ -15630,7 +15636,7 @@
         <v>187</v>
       </c>
       <c r="N34" s="0" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="P34" s="0" t="n">
         <f aca="false">P33+1</f>
@@ -15644,7 +15650,7 @@
         <v>265</v>
       </c>
       <c r="T34" s="73" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15755,7 +15761,7 @@
         <v>34</v>
       </c>
       <c r="B37" s="0" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="D37" s="0" t="n">
         <f aca="false">D36+1</f>
@@ -15783,7 +15789,7 @@
         <v>190</v>
       </c>
       <c r="N37" s="0" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="P37" s="0" t="n">
         <f aca="false">P36+1</f>
@@ -15813,7 +15819,7 @@
         <v>74</v>
       </c>
       <c r="E38" s="0" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="G38" s="0" t="n">
         <f aca="false">G37+1</f>
@@ -15827,7 +15833,7 @@
         <v>152</v>
       </c>
       <c r="K38" s="0" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="M38" s="0" t="n">
         <f aca="false">M37+1</f>
@@ -15841,7 +15847,7 @@
         <v>230</v>
       </c>
       <c r="Q38" s="0" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="S38" s="73" t="n">
         <f aca="false">S37+1</f>
@@ -15864,7 +15870,7 @@
         <v>75</v>
       </c>
       <c r="E39" s="0" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="G39" s="0" t="n">
         <f aca="false">G38+1</f>
@@ -15878,7 +15884,7 @@
         <v>153</v>
       </c>
       <c r="K39" s="0" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="M39" s="0" t="n">
         <f aca="false">M38+1</f>
@@ -15892,7 +15898,7 @@
         <v>231</v>
       </c>
       <c r="Q39" s="0" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="S39" s="73" t="n">
         <f aca="false">S38+1</f>
@@ -15908,49 +15914,49 @@
         <v>37</v>
       </c>
       <c r="B40" s="0" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="D40" s="0" t="n">
         <f aca="false">D39+1</f>
         <v>76</v>
       </c>
       <c r="E40" s="0" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="G40" s="0" t="n">
         <f aca="false">G39+1</f>
         <v>115</v>
       </c>
       <c r="H40" s="0" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="J40" s="0" t="n">
         <f aca="false">J39+1</f>
         <v>154</v>
       </c>
       <c r="K40" s="0" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="M40" s="0" t="n">
         <f aca="false">M39+1</f>
         <v>193</v>
       </c>
       <c r="N40" s="0" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="P40" s="0" t="n">
         <f aca="false">P39+1</f>
         <v>232</v>
       </c>
       <c r="Q40" s="0" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="S40" s="0" t="n">
         <f aca="false">S39+1</f>
         <v>271</v>
       </c>
       <c r="T40" s="0" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15959,49 +15965,49 @@
         <v>38</v>
       </c>
       <c r="B41" s="0" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="D41" s="0" t="n">
         <f aca="false">D40+1</f>
         <v>77</v>
       </c>
       <c r="E41" s="0" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="G41" s="0" t="n">
         <f aca="false">G40+1</f>
         <v>116</v>
       </c>
       <c r="H41" s="0" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="J41" s="0" t="n">
         <f aca="false">J40+1</f>
         <v>155</v>
       </c>
       <c r="K41" s="0" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="M41" s="0" t="n">
         <f aca="false">M40+1</f>
         <v>194</v>
       </c>
       <c r="N41" s="0" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="P41" s="0" t="n">
         <f aca="false">P40+1</f>
         <v>233</v>
       </c>
       <c r="Q41" s="0" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="S41" s="0" t="n">
         <f aca="false">S40+1</f>
         <v>272</v>
       </c>
       <c r="T41" s="0" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -16010,7 +16016,7 @@
         <v>39</v>
       </c>
       <c r="B42" s="0" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="D42" s="0" t="n">
         <f aca="false">D41+1</f>
@@ -16024,7 +16030,7 @@
         <v>117</v>
       </c>
       <c r="H42" s="0" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="J42" s="0" t="n">
         <f aca="false">J41+1</f>
@@ -16038,7 +16044,7 @@
         <v>195</v>
       </c>
       <c r="N42" s="0" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="P42" s="0" t="n">
         <f aca="false">P41+1</f>
@@ -16052,7 +16058,7 @@
         <v>273</v>
       </c>
       <c r="T42" s="0" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
     </row>
   </sheetData>
@@ -16086,49 +16092,49 @@
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="E4" s="0" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="E5" s="0" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="E6" s="0" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="E9" s="0" t="s">
         <v>225</v>
@@ -16136,10 +16142,10 @@
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="E10" s="0" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -16149,15 +16155,15 @@
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="E13" s="0" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -16167,15 +16173,15 @@
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="E16" s="0" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -16185,33 +16191,33 @@
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="E19" s="0" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E21" s="0" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="0" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="E22" s="0" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="0" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -16224,12 +16230,12 @@
         <v>165</v>
       </c>
       <c r="E25" s="0" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="0" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
     </row>
   </sheetData>
@@ -16261,172 +16267,172 @@
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="0" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="0" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="0" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="0" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="0" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="0" t="s">
-        <v>519</v>
+        <v>520</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="0" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="0" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="0" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="0" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="0" t="s">
-        <v>524</v>
+        <v>525</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="0" t="s">
-        <v>525</v>
+        <v>526</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="0" t="s">
-        <v>526</v>
+        <v>527</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="0" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="0" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="0" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="0" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="0" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="0" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="0" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
     </row>
   </sheetData>
@@ -16469,22 +16475,22 @@
       </c>
       <c r="B1" s="0" t="n">
         <f aca="true">RAND()*100</f>
-        <v>81.4203122549109</v>
+        <v>87.7614212412007</v>
       </c>
       <c r="AA1" s="0" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="AB1" s="0" t="s">
         <v>165</v>
       </c>
       <c r="AC1" s="0" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="AD1" s="0" t="s">
         <v>225</v>
       </c>
       <c r="AE1" s="0" t="s">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="AF1" s="0" t="s">
         <v>114</v>
@@ -16496,16 +16502,16 @@
         <v>209</v>
       </c>
       <c r="AI1" s="0" t="s">
+        <v>337</v>
+      </c>
+      <c r="AJ1" s="0" t="s">
+        <v>296</v>
+      </c>
+      <c r="AK1" s="0" t="s">
+        <v>321</v>
+      </c>
+      <c r="AL1" s="0" t="s">
         <v>336</v>
-      </c>
-      <c r="AJ1" s="0" t="s">
-        <v>295</v>
-      </c>
-      <c r="AK1" s="0" t="s">
-        <v>320</v>
-      </c>
-      <c r="AL1" s="0" t="s">
-        <v>335</v>
       </c>
       <c r="AM1" s="0" t="s">
         <v>247</v>
@@ -16513,23 +16519,23 @@
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="B2" s="0" t="n">
         <f aca="true">RAND()*100</f>
-        <v>73.2850500765351</v>
+        <v>79.2519548886376</v>
       </c>
       <c r="AB2" s="0" t="s">
         <v>165</v>
       </c>
       <c r="AC2" s="0" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="AD2" s="0" t="s">
         <v>225</v>
       </c>
       <c r="AE2" s="0" t="s">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="AF2" s="0" t="s">
         <v>114</v>
@@ -16541,16 +16547,16 @@
         <v>209</v>
       </c>
       <c r="AI2" s="0" t="s">
+        <v>337</v>
+      </c>
+      <c r="AJ2" s="0" t="s">
+        <v>296</v>
+      </c>
+      <c r="AK2" s="0" t="s">
+        <v>321</v>
+      </c>
+      <c r="AL2" s="0" t="s">
         <v>336</v>
-      </c>
-      <c r="AJ2" s="0" t="s">
-        <v>295</v>
-      </c>
-      <c r="AK2" s="0" t="s">
-        <v>320</v>
-      </c>
-      <c r="AL2" s="0" t="s">
-        <v>335</v>
       </c>
       <c r="AM2" s="0" t="s">
         <v>247</v>
@@ -16562,16 +16568,16 @@
       </c>
       <c r="B3" s="0" t="n">
         <f aca="true">RAND()*100</f>
-        <v>99.8326181913233</v>
+        <v>42.4803955430556</v>
       </c>
       <c r="AC3" s="0" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="AD3" s="0" t="s">
         <v>225</v>
       </c>
       <c r="AE3" s="0" t="s">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="AF3" s="0" t="s">
         <v>114</v>
@@ -16583,16 +16589,16 @@
         <v>209</v>
       </c>
       <c r="AI3" s="0" t="s">
+        <v>337</v>
+      </c>
+      <c r="AJ3" s="0" t="s">
+        <v>296</v>
+      </c>
+      <c r="AK3" s="0" t="s">
+        <v>321</v>
+      </c>
+      <c r="AL3" s="0" t="s">
         <v>336</v>
-      </c>
-      <c r="AJ3" s="0" t="s">
-        <v>295</v>
-      </c>
-      <c r="AK3" s="0" t="s">
-        <v>320</v>
-      </c>
-      <c r="AL3" s="0" t="s">
-        <v>335</v>
       </c>
       <c r="AM3" s="0" t="s">
         <v>247</v>
@@ -16603,7 +16609,7 @@
         <v>225</v>
       </c>
       <c r="AE4" s="0" t="s">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="AF4" s="0" t="s">
         <v>114</v>
@@ -16615,16 +16621,16 @@
         <v>209</v>
       </c>
       <c r="AI4" s="0" t="s">
+        <v>337</v>
+      </c>
+      <c r="AJ4" s="0" t="s">
+        <v>296</v>
+      </c>
+      <c r="AK4" s="0" t="s">
+        <v>321</v>
+      </c>
+      <c r="AL4" s="0" t="s">
         <v>336</v>
-      </c>
-      <c r="AJ4" s="0" t="s">
-        <v>295</v>
-      </c>
-      <c r="AK4" s="0" t="s">
-        <v>320</v>
-      </c>
-      <c r="AL4" s="0" t="s">
-        <v>335</v>
       </c>
       <c r="AM4" s="0" t="s">
         <v>247</v>
@@ -16632,7 +16638,7 @@
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="AE5" s="0" t="s">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="AF5" s="0" t="s">
         <v>114</v>
@@ -16644,16 +16650,16 @@
         <v>209</v>
       </c>
       <c r="AI5" s="0" t="s">
+        <v>337</v>
+      </c>
+      <c r="AJ5" s="0" t="s">
+        <v>296</v>
+      </c>
+      <c r="AK5" s="0" t="s">
+        <v>321</v>
+      </c>
+      <c r="AL5" s="0" t="s">
         <v>336</v>
-      </c>
-      <c r="AJ5" s="0" t="s">
-        <v>295</v>
-      </c>
-      <c r="AK5" s="0" t="s">
-        <v>320</v>
-      </c>
-      <c r="AL5" s="0" t="s">
-        <v>335</v>
       </c>
       <c r="AM5" s="0" t="s">
         <v>247</v>
@@ -16670,16 +16676,16 @@
         <v>209</v>
       </c>
       <c r="AI6" s="0" t="s">
+        <v>337</v>
+      </c>
+      <c r="AJ6" s="0" t="s">
+        <v>296</v>
+      </c>
+      <c r="AK6" s="0" t="s">
+        <v>321</v>
+      </c>
+      <c r="AL6" s="0" t="s">
         <v>336</v>
-      </c>
-      <c r="AJ6" s="0" t="s">
-        <v>295</v>
-      </c>
-      <c r="AK6" s="0" t="s">
-        <v>320</v>
-      </c>
-      <c r="AL6" s="0" t="s">
-        <v>335</v>
       </c>
       <c r="AM6" s="0" t="s">
         <v>247</v>
@@ -16693,16 +16699,16 @@
         <v>209</v>
       </c>
       <c r="AI7" s="0" t="s">
+        <v>337</v>
+      </c>
+      <c r="AJ7" s="0" t="s">
+        <v>296</v>
+      </c>
+      <c r="AK7" s="0" t="s">
+        <v>321</v>
+      </c>
+      <c r="AL7" s="0" t="s">
         <v>336</v>
-      </c>
-      <c r="AJ7" s="0" t="s">
-        <v>295</v>
-      </c>
-      <c r="AK7" s="0" t="s">
-        <v>320</v>
-      </c>
-      <c r="AL7" s="0" t="s">
-        <v>335</v>
       </c>
       <c r="AM7" s="0" t="s">
         <v>247</v>
@@ -16713,16 +16719,16 @@
         <v>209</v>
       </c>
       <c r="AI8" s="0" t="s">
+        <v>337</v>
+      </c>
+      <c r="AJ8" s="0" t="s">
+        <v>296</v>
+      </c>
+      <c r="AK8" s="0" t="s">
+        <v>321</v>
+      </c>
+      <c r="AL8" s="0" t="s">
         <v>336</v>
-      </c>
-      <c r="AJ8" s="0" t="s">
-        <v>295</v>
-      </c>
-      <c r="AK8" s="0" t="s">
-        <v>320</v>
-      </c>
-      <c r="AL8" s="0" t="s">
-        <v>335</v>
       </c>
       <c r="AM8" s="0" t="s">
         <v>247</v>
@@ -16730,16 +16736,16 @@
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="AI9" s="0" t="s">
+        <v>337</v>
+      </c>
+      <c r="AJ9" s="0" t="s">
+        <v>296</v>
+      </c>
+      <c r="AK9" s="0" t="s">
+        <v>321</v>
+      </c>
+      <c r="AL9" s="0" t="s">
         <v>336</v>
-      </c>
-      <c r="AJ9" s="0" t="s">
-        <v>295</v>
-      </c>
-      <c r="AK9" s="0" t="s">
-        <v>320</v>
-      </c>
-      <c r="AL9" s="0" t="s">
-        <v>335</v>
       </c>
       <c r="AM9" s="0" t="s">
         <v>247</v>
@@ -16747,13 +16753,13 @@
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="AJ10" s="0" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="AK10" s="0" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="AL10" s="0" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="AM10" s="0" t="s">
         <v>247</v>
@@ -16762,10 +16768,10 @@
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="AJ11" s="73"/>
       <c r="AK11" s="0" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="AL11" s="0" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="AM11" s="0" t="s">
         <v>247</v>
@@ -16774,7 +16780,7 @@
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="AK12" s="73"/>
       <c r="AL12" s="0" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="AM12" s="0" t="s">
         <v>247</v>
@@ -16873,28 +16879,28 @@
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="J1" s="0" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="M1" s="0" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="P1" s="0" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="S1" s="0" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="V1" s="0" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -16912,7 +16918,7 @@
         <v>40</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="F2" s="74" t="n">
         <v>40</v>
@@ -16932,7 +16938,7 @@
         <v>118</v>
       </c>
       <c r="K2" s="0" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="L2" s="0" t="n">
         <v>118</v>
@@ -16952,7 +16958,7 @@
         <v>196</v>
       </c>
       <c r="Q2" s="0" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="R2" s="0" t="n">
         <v>196</v>
@@ -16972,7 +16978,7 @@
         <v>274</v>
       </c>
       <c r="W2" s="0" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -17041,7 +17047,7 @@
         <v>236</v>
       </c>
       <c r="T3" s="0" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="U3" s="0" t="n">
         <v>222</v>
@@ -17070,7 +17076,7 @@
         <v>42</v>
       </c>
       <c r="E4" s="0" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="F4" s="74" t="n">
         <v>42</v>
@@ -17090,7 +17096,7 @@
         <v>120</v>
       </c>
       <c r="K4" s="0" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="L4" s="0" t="n">
         <v>120</v>
@@ -17110,7 +17116,7 @@
         <v>198</v>
       </c>
       <c r="Q4" s="0" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="R4" s="0" t="n">
         <v>198</v>
@@ -17130,7 +17136,7 @@
         <v>276</v>
       </c>
       <c r="W4" s="0" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -17149,7 +17155,7 @@
         <v>43</v>
       </c>
       <c r="E5" s="0" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="F5" s="74" t="n">
         <v>62</v>
@@ -17169,7 +17175,7 @@
         <v>121</v>
       </c>
       <c r="K5" s="0" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="L5" s="0" t="n">
         <v>121</v>
@@ -17189,7 +17195,7 @@
         <v>199</v>
       </c>
       <c r="Q5" s="0" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="R5" s="0" t="n">
         <v>199</v>
@@ -17209,7 +17215,7 @@
         <v>277</v>
       </c>
       <c r="W5" s="0" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -17228,7 +17234,7 @@
         <v>44</v>
       </c>
       <c r="E6" s="0" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="F6" s="74" t="n">
         <v>35</v>
@@ -17248,7 +17254,7 @@
         <v>122</v>
       </c>
       <c r="K6" s="0" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="L6" s="0" t="n">
         <v>122</v>
@@ -17268,7 +17274,7 @@
         <v>200</v>
       </c>
       <c r="Q6" s="0" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="R6" s="0" t="n">
         <v>200</v>
@@ -17288,7 +17294,7 @@
         <v>278</v>
       </c>
       <c r="W6" s="0" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -17297,7 +17303,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="C7" s="74" t="n">
         <v>6</v>
@@ -17307,7 +17313,7 @@
         <v>45</v>
       </c>
       <c r="E7" s="0" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="F7" s="74" t="n">
         <v>34</v>
@@ -17317,7 +17323,7 @@
         <v>84</v>
       </c>
       <c r="H7" s="0" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="I7" s="74" t="n">
         <v>84</v>
@@ -17327,7 +17333,7 @@
         <v>123</v>
       </c>
       <c r="K7" s="0" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="L7" s="0" t="n">
         <v>123</v>
@@ -17337,7 +17343,7 @@
         <v>162</v>
       </c>
       <c r="N7" s="0" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="O7" s="0" t="n">
         <v>162</v>
@@ -17347,7 +17353,7 @@
         <v>201</v>
       </c>
       <c r="Q7" s="0" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="R7" s="0" t="n">
         <v>201</v>
@@ -17357,7 +17363,7 @@
         <v>240</v>
       </c>
       <c r="T7" s="0" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="U7" s="0" t="n">
         <v>240</v>
@@ -17367,7 +17373,7 @@
         <v>279</v>
       </c>
       <c r="W7" s="0" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -17455,7 +17461,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="C9" s="74" t="n">
         <v>8</v>
@@ -17465,7 +17471,7 @@
         <v>47</v>
       </c>
       <c r="E9" s="0" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="F9" s="74" t="n">
         <v>47</v>
@@ -17475,7 +17481,7 @@
         <v>86</v>
       </c>
       <c r="H9" s="0" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="I9" s="74" t="n">
         <v>86</v>
@@ -17485,7 +17491,7 @@
         <v>125</v>
       </c>
       <c r="K9" s="0" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="L9" s="0" t="n">
         <v>110</v>
@@ -17495,7 +17501,7 @@
         <v>164</v>
       </c>
       <c r="N9" s="0" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="O9" s="0" t="n">
         <v>164</v>
@@ -17505,7 +17511,7 @@
         <v>203</v>
       </c>
       <c r="Q9" s="0" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="R9" s="0" t="n">
         <v>203</v>
@@ -17515,7 +17521,7 @@
         <v>242</v>
       </c>
       <c r="T9" s="0" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="U9" s="0" t="n">
         <v>242</v>
@@ -17525,7 +17531,7 @@
         <v>281</v>
       </c>
       <c r="W9" s="0" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -17534,7 +17540,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="C10" s="74" t="n">
         <v>9</v>
@@ -17554,7 +17560,7 @@
         <v>87</v>
       </c>
       <c r="H10" s="0" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="I10" s="74" t="n">
         <v>70</v>
@@ -17574,7 +17580,7 @@
         <v>165</v>
       </c>
       <c r="N10" s="0" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="O10" s="0" t="n">
         <v>165</v>
@@ -17594,7 +17600,7 @@
         <v>243</v>
       </c>
       <c r="T10" s="0" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="U10" s="0" t="n">
         <v>243</v>
@@ -17613,7 +17619,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="C11" s="74" t="n">
         <v>10</v>
@@ -17633,7 +17639,7 @@
         <v>88</v>
       </c>
       <c r="H11" s="0" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="I11" s="74" t="n">
         <v>88</v>
@@ -17653,7 +17659,7 @@
         <v>166</v>
       </c>
       <c r="N11" s="0" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="O11" s="0" t="n">
         <v>166</v>
@@ -17673,7 +17679,7 @@
         <v>244</v>
       </c>
       <c r="T11" s="0" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="U11" s="0" t="n">
         <v>244</v>
@@ -17692,7 +17698,7 @@
         <v>11</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="C12" s="74" t="n">
         <v>11</v>
@@ -17712,7 +17718,7 @@
         <v>89</v>
       </c>
       <c r="H12" s="0" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="I12" s="74" t="n">
         <v>99</v>
@@ -17722,7 +17728,7 @@
         <v>128</v>
       </c>
       <c r="K12" s="0" t="s">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="L12" s="0" t="n">
         <v>125</v>
@@ -17732,7 +17738,7 @@
         <v>167</v>
       </c>
       <c r="N12" s="0" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="O12" s="0" t="n">
         <v>167</v>
@@ -17752,7 +17758,7 @@
         <v>245</v>
       </c>
       <c r="T12" s="0" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="U12" s="0" t="n">
         <v>245</v>
@@ -17781,7 +17787,7 @@
         <v>51</v>
       </c>
       <c r="E13" s="0" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="F13" s="74" t="n">
         <v>65</v>
@@ -17850,7 +17856,7 @@
         <v>13</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="C14" s="74" t="n">
         <v>13</v>
@@ -17870,7 +17876,7 @@
         <v>91</v>
       </c>
       <c r="H14" s="0" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="I14" s="74" t="n">
         <v>92</v>
@@ -17890,7 +17896,7 @@
         <v>169</v>
       </c>
       <c r="N14" s="0" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="O14" s="0" t="n">
         <v>169</v>
@@ -17910,7 +17916,7 @@
         <v>247</v>
       </c>
       <c r="T14" s="0" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="U14" s="0" t="n">
         <v>247</v>
@@ -17925,31 +17931,31 @@
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="C15" s="74"/>
       <c r="D15" s="0" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="F15" s="74"/>
       <c r="G15" s="0" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="I15" s="74"/>
       <c r="J15" s="0" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="M15" s="0" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="P15" s="0" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="S15" s="0" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="V15" s="64" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -17958,7 +17964,7 @@
         <v>14</v>
       </c>
       <c r="B16" s="0" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="C16" s="74" t="n">
         <v>14</v>
@@ -17978,7 +17984,7 @@
         <v>92</v>
       </c>
       <c r="H16" s="0" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="I16" s="74" t="n">
         <v>117</v>
@@ -17998,7 +18004,7 @@
         <v>170</v>
       </c>
       <c r="N16" s="0" t="s">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="O16" s="0" t="n">
         <v>181</v>
@@ -18018,7 +18024,7 @@
         <v>248</v>
       </c>
       <c r="T16" s="0" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="V16" s="64" t="n">
         <f aca="false">V14+1</f>
@@ -18110,7 +18116,7 @@
         <v>16</v>
       </c>
       <c r="B18" s="0" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="C18" s="74" t="n">
         <v>16</v>
@@ -18130,7 +18136,7 @@
         <v>94</v>
       </c>
       <c r="H18" s="0" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="I18" s="74" t="n">
         <v>89</v>
@@ -18150,7 +18156,7 @@
         <v>172</v>
       </c>
       <c r="N18" s="0" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="O18" s="0" t="n">
         <v>172</v>
@@ -18170,7 +18176,7 @@
         <v>250</v>
       </c>
       <c r="T18" s="0" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="V18" s="64" t="n">
         <f aca="false">V17+1</f>
@@ -18186,7 +18192,7 @@
         <v>17</v>
       </c>
       <c r="B19" s="0" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="C19" s="74" t="n">
         <v>17</v>
@@ -18206,7 +18212,7 @@
         <v>95</v>
       </c>
       <c r="H19" s="0" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="I19" s="74" t="n">
         <v>95</v>
@@ -18226,7 +18232,7 @@
         <v>173</v>
       </c>
       <c r="N19" s="0" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="O19" s="0" t="n">
         <v>173</v>
@@ -18246,7 +18252,7 @@
         <v>251</v>
       </c>
       <c r="T19" s="0" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="V19" s="64" t="n">
         <f aca="false">V18+1</f>
@@ -18262,7 +18268,7 @@
         <v>18</v>
       </c>
       <c r="B20" s="0" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="C20" s="74" t="n">
         <v>38</v>
@@ -18282,7 +18288,7 @@
         <v>96</v>
       </c>
       <c r="H20" s="0" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="I20" s="74" t="n">
         <v>87</v>
@@ -18302,7 +18308,7 @@
         <v>174</v>
       </c>
       <c r="N20" s="0" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="O20" s="0" t="n">
         <v>174</v>
@@ -18322,7 +18328,7 @@
         <v>252</v>
       </c>
       <c r="T20" s="0" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="V20" s="64" t="n">
         <f aca="false">V19+1</f>
@@ -18338,7 +18344,7 @@
         <v>19</v>
       </c>
       <c r="B21" s="0" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="C21" s="74" t="n">
         <v>36</v>
@@ -18348,7 +18354,7 @@
         <v>58</v>
       </c>
       <c r="E21" s="0" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="F21" s="74" t="n">
         <v>58</v>
@@ -18358,7 +18364,7 @@
         <v>97</v>
       </c>
       <c r="H21" s="0" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="I21" s="74" t="n">
         <v>97</v>
@@ -18368,7 +18374,7 @@
         <v>136</v>
       </c>
       <c r="K21" s="0" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="L21" s="0" t="n">
         <v>136</v>
@@ -18378,7 +18384,7 @@
         <v>175</v>
       </c>
       <c r="N21" s="0" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="O21" s="0" t="n">
         <v>175</v>
@@ -18388,7 +18394,7 @@
         <v>214</v>
       </c>
       <c r="Q21" s="0" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="R21" s="0" t="n">
         <v>214</v>
@@ -18398,14 +18404,14 @@
         <v>253</v>
       </c>
       <c r="T21" s="0" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="V21" s="64" t="n">
         <f aca="false">V20+1</f>
         <v>292</v>
       </c>
       <c r="W21" s="0" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -18491,7 +18497,7 @@
         <v>21</v>
       </c>
       <c r="B23" s="0" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="C23" s="74" t="n">
         <v>21</v>
@@ -18501,7 +18507,7 @@
         <v>60</v>
       </c>
       <c r="E23" s="0" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="F23" s="74" t="n">
         <v>45</v>
@@ -18511,7 +18517,7 @@
         <v>99</v>
       </c>
       <c r="H23" s="0" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="I23" s="74" t="n">
         <v>80</v>
@@ -18521,7 +18527,7 @@
         <v>138</v>
       </c>
       <c r="K23" s="0" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="L23" s="0" t="n">
         <f aca="false">L22+1</f>
@@ -18532,7 +18538,7 @@
         <v>177</v>
       </c>
       <c r="N23" s="0" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="O23" s="0" t="n">
         <v>177</v>
@@ -18542,7 +18548,7 @@
         <v>216</v>
       </c>
       <c r="Q23" s="0" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="R23" s="0" t="n">
         <v>216</v>
@@ -18552,14 +18558,14 @@
         <v>255</v>
       </c>
       <c r="T23" s="0" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="V23" s="64" t="n">
         <f aca="false">V22+1</f>
         <v>294</v>
       </c>
       <c r="W23" s="0" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -18578,7 +18584,7 @@
         <v>61</v>
       </c>
       <c r="E24" s="0" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="F24" s="74" t="n">
         <v>44</v>
@@ -18598,7 +18604,7 @@
         <v>139</v>
       </c>
       <c r="K24" s="0" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="L24" s="0" t="n">
         <f aca="false">L23+1</f>
@@ -18619,7 +18625,7 @@
         <v>217</v>
       </c>
       <c r="Q24" s="0" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="R24" s="0" t="n">
         <v>217</v>
@@ -18636,7 +18642,7 @@
         <v>295</v>
       </c>
       <c r="W24" s="0" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -18655,7 +18661,7 @@
         <v>62</v>
       </c>
       <c r="E25" s="0" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="F25" s="74" t="n">
         <v>69</v>
@@ -18675,7 +18681,7 @@
         <v>140</v>
       </c>
       <c r="K25" s="0" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="L25" s="0" t="n">
         <f aca="false">L24+1</f>
@@ -18696,7 +18702,7 @@
         <v>218</v>
       </c>
       <c r="Q25" s="0" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="R25" s="0" t="n">
         <v>218</v>
@@ -18713,7 +18719,7 @@
         <v>296</v>
       </c>
       <c r="W25" s="0" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -18732,7 +18738,7 @@
         <v>63</v>
       </c>
       <c r="E26" s="0" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="F26" s="74" t="n">
         <v>63</v>
@@ -18752,7 +18758,7 @@
         <v>141</v>
       </c>
       <c r="K26" s="0" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="L26" s="0" t="n">
         <f aca="false">L25+1</f>
@@ -18773,7 +18779,7 @@
         <v>219</v>
       </c>
       <c r="Q26" s="0" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="R26" s="0" t="n">
         <v>219</v>
@@ -18790,7 +18796,7 @@
         <v>297</v>
       </c>
       <c r="W26" s="0" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -18885,7 +18891,7 @@
         <v>65</v>
       </c>
       <c r="E28" s="0" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="F28" s="74" t="n">
         <v>66</v>
@@ -18905,7 +18911,7 @@
         <v>143</v>
       </c>
       <c r="K28" s="0" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="L28" s="0" t="n">
         <v>143</v>
@@ -18925,7 +18931,7 @@
         <v>221</v>
       </c>
       <c r="Q28" s="0" t="s">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="R28" s="0" t="n">
         <v>236</v>
@@ -18942,32 +18948,32 @@
         <v>299</v>
       </c>
       <c r="W28" s="0" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="0" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="C29" s="74"/>
       <c r="D29" s="0" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="F29" s="74"/>
       <c r="G29" s="0" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="J29" s="0" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="M29" s="0" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="P29" s="0" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="S29" s="64" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="V29" s="64"/>
     </row>
@@ -18987,7 +18993,7 @@
         <v>66</v>
       </c>
       <c r="E30" s="0" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="F30" s="74" t="n">
         <v>91</v>
@@ -19008,7 +19014,7 @@
         <v>144</v>
       </c>
       <c r="K30" s="0" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="L30" s="0" t="n">
         <v>144</v>
@@ -19028,7 +19034,7 @@
         <v>222</v>
       </c>
       <c r="Q30" s="0" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="R30" s="0" t="n">
         <v>221</v>
@@ -19127,7 +19133,7 @@
         <v>68</v>
       </c>
       <c r="E32" s="0" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="F32" s="74" t="n">
         <v>68</v>
@@ -19148,7 +19154,7 @@
         <v>146</v>
       </c>
       <c r="K32" s="0" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="L32" s="0" t="n">
         <v>146</v>
@@ -19168,7 +19174,7 @@
         <v>224</v>
       </c>
       <c r="Q32" s="0" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="R32" s="0" t="n">
         <v>224</v>
@@ -19197,7 +19203,7 @@
         <v>69</v>
       </c>
       <c r="E33" s="0" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="F33" s="74" t="n">
         <v>60</v>
@@ -19218,7 +19224,7 @@
         <v>147</v>
       </c>
       <c r="K33" s="0" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="L33" s="0" t="n">
         <v>147</v>
@@ -19238,7 +19244,7 @@
         <v>225</v>
       </c>
       <c r="Q33" s="0" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="R33" s="0" t="n">
         <v>225</v>
@@ -19267,7 +19273,7 @@
         <v>70</v>
       </c>
       <c r="E34" s="0" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="F34" s="74" t="n">
         <v>61</v>
@@ -19288,7 +19294,7 @@
         <v>148</v>
       </c>
       <c r="K34" s="0" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="L34" s="0" t="n">
         <v>148</v>
@@ -19308,7 +19314,7 @@
         <v>226</v>
       </c>
       <c r="Q34" s="0" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="R34" s="0" t="n">
         <v>226</v>
@@ -19327,7 +19333,7 @@
         <v>32</v>
       </c>
       <c r="B35" s="0" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="C35" s="74" t="n">
         <v>32</v>
@@ -19337,7 +19343,7 @@
         <v>71</v>
       </c>
       <c r="E35" s="0" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="F35" s="74" t="n">
         <v>71</v>
@@ -19347,7 +19353,7 @@
         <v>110</v>
       </c>
       <c r="H35" s="0" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="I35" s="0" t="n">
         <v>94</v>
@@ -19357,7 +19363,7 @@
         <v>149</v>
       </c>
       <c r="K35" s="0" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="L35" s="0" t="n">
         <v>149</v>
@@ -19367,7 +19373,7 @@
         <v>188</v>
       </c>
       <c r="N35" s="0" t="s">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="O35" s="0" t="n">
         <v>185</v>
@@ -19377,7 +19383,7 @@
         <v>227</v>
       </c>
       <c r="Q35" s="0" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="R35" s="0" t="n">
         <v>227</v>
@@ -19387,7 +19393,7 @@
         <v>266</v>
       </c>
       <c r="T35" s="0" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -19465,7 +19471,7 @@
         <v>34</v>
       </c>
       <c r="B37" s="0" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="C37" s="74" t="n">
         <v>19</v>
@@ -19475,7 +19481,7 @@
         <v>73</v>
       </c>
       <c r="E37" s="0" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="F37" s="74" t="n">
         <v>73</v>
@@ -19485,7 +19491,7 @@
         <v>112</v>
       </c>
       <c r="H37" s="0" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="I37" s="0" t="n">
         <v>112</v>
@@ -19495,7 +19501,7 @@
         <v>151</v>
       </c>
       <c r="K37" s="0" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="L37" s="0" t="n">
         <v>151</v>
@@ -19505,7 +19511,7 @@
         <v>190</v>
       </c>
       <c r="N37" s="0" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="O37" s="0" t="n">
         <v>190</v>
@@ -19515,7 +19521,7 @@
         <v>229</v>
       </c>
       <c r="Q37" s="0" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="R37" s="0" t="n">
         <v>229</v>
@@ -19525,7 +19531,7 @@
         <v>268</v>
       </c>
       <c r="T37" s="0" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -19534,7 +19540,7 @@
         <v>35</v>
       </c>
       <c r="B38" s="0" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="C38" s="74" t="n">
         <v>18</v>
@@ -19554,7 +19560,7 @@
         <v>113</v>
       </c>
       <c r="H38" s="0" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="I38" s="0" t="n">
         <v>96</v>
@@ -19574,7 +19580,7 @@
         <v>191</v>
       </c>
       <c r="N38" s="0" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="O38" s="0" t="n">
         <v>191</v>
@@ -19594,7 +19600,7 @@
         <v>269</v>
       </c>
       <c r="T38" s="0" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -19603,7 +19609,7 @@
         <v>36</v>
       </c>
       <c r="B39" s="0" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="C39" s="74" t="n">
         <v>43</v>
@@ -19623,7 +19629,7 @@
         <v>114</v>
       </c>
       <c r="H39" s="0" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="I39" s="0" t="n">
         <v>114</v>
@@ -19643,7 +19649,7 @@
         <v>192</v>
       </c>
       <c r="N39" s="0" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="O39" s="0" t="n">
         <v>192</v>
@@ -19663,7 +19669,7 @@
         <v>270</v>
       </c>
       <c r="T39" s="0" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -19672,7 +19678,7 @@
         <v>37</v>
       </c>
       <c r="B40" s="0" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="C40" s="74" t="n">
         <v>37</v>
@@ -19692,7 +19698,7 @@
         <v>115</v>
       </c>
       <c r="H40" s="0" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="I40" s="0" t="n">
         <v>115</v>
@@ -19712,7 +19718,7 @@
         <v>193</v>
       </c>
       <c r="N40" s="0" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="O40" s="0" t="n">
         <v>193</v>
@@ -19732,7 +19738,7 @@
         <v>271</v>
       </c>
       <c r="T40" s="0" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -19761,7 +19767,7 @@
         <v>116</v>
       </c>
       <c r="H41" s="0" t="s">
-        <v>545</v>
+        <v>546</v>
       </c>
       <c r="I41" s="0" t="n">
         <v>113</v>
@@ -19781,7 +19787,7 @@
         <v>194</v>
       </c>
       <c r="N41" s="0" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="O41" s="0" t="n">
         <v>170</v>
@@ -19791,7 +19797,7 @@
         <v>233</v>
       </c>
       <c r="Q41" s="0" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="R41" s="0" t="n">
         <v>240</v>
@@ -19810,7 +19816,7 @@
         <v>39</v>
       </c>
       <c r="B42" s="0" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="C42" s="74" t="n">
         <v>39</v>
@@ -19830,7 +19836,7 @@
         <v>117</v>
       </c>
       <c r="H42" s="0" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="I42" s="0" t="n">
         <v>119</v>
@@ -19850,7 +19856,7 @@
         <v>195</v>
       </c>
       <c r="N42" s="0" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="O42" s="0" t="n">
         <v>195</v>
@@ -19870,7 +19876,7 @@
         <v>273</v>
       </c>
       <c r="T42" s="0" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
     </row>
   </sheetData>
@@ -19904,43 +19910,43 @@
   <sheetData>
     <row r="1" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="75" t="s">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="B1" s="75" t="s">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="C1" s="75" t="s">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="D1" s="75" t="s">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="E1" s="75" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="F1" s="75" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="G1" s="75" t="s">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="H1" s="75" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="I1" s="75" t="s">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="J1" s="75" t="s">
-        <v>557</v>
+        <v>558</v>
       </c>
       <c r="K1" s="75" t="s">
-        <v>558</v>
+        <v>559</v>
       </c>
       <c r="L1" s="75" t="s">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="M1" s="75" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">

--- a/keepers 2022 (Oct  13 Edition).xlsx
+++ b/keepers 2022 (Oct  13 Edition).xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="14"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="Overall" sheetId="1" state="visible" r:id="rId2"/>
@@ -2173,6 +2173,9 @@
     <t xml:space="preserve">Last</t>
   </si>
   <si>
+    <t xml:space="preserve">10(last)</t>
+  </si>
+  <si>
     <t xml:space="preserve">12(last)</t>
   </si>
   <si>
@@ -2180,9 +2183,6 @@
   </si>
   <si>
     <t xml:space="preserve">14(last)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10(last)</t>
   </si>
   <si>
     <t xml:space="preserve">11(last)</t>
@@ -3220,15 +3220,15 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="18" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="30" fillId="18" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="18" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -3310,7 +3310,7 @@
 </styleSheet>
 </file>
 
-<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -3452,11 +3452,11 @@
         </c:ser>
         <c:gapWidth val="100"/>
         <c:overlap val="0"/>
-        <c:axId val="35611832"/>
-        <c:axId val="31566457"/>
+        <c:axId val="89843127"/>
+        <c:axId val="47963996"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="35611832"/>
+        <c:axId val="89843127"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3484,7 +3484,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="31566457"/>
+        <c:crossAx val="47963996"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3492,7 +3492,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="31566457"/>
+        <c:axId val="47963996"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3529,7 +3529,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="35611832"/>
+        <c:crossAx val="89843127"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3725,7 +3725,7 @@
   </sheetPr>
   <dimension ref="A1:T96"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="55" zoomScaleNormal="55" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="1" ySplit="0" topLeftCell="B1" activePane="topRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="J1" activeCellId="0" sqref="J1"/>
@@ -6768,7 +6768,7 @@
   </sheetPr>
   <dimension ref="A1:J64"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="55" zoomScaleNormal="55" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A22" activeCellId="0" sqref="A22"/>
     </sheetView>
   </sheetViews>
@@ -7964,7 +7964,7 @@
   </sheetPr>
   <dimension ref="A1:E58"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="55" zoomScaleNormal="55" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
@@ -8665,7 +8665,7 @@
   </sheetPr>
   <dimension ref="A1:D68"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="55" zoomScaleNormal="55" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="E21" activeCellId="0" sqref="E21"/>
     </sheetView>
   </sheetViews>
@@ -9299,7 +9299,7 @@
   </sheetPr>
   <dimension ref="A1:L200"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A130" colorId="64" zoomScale="55" zoomScaleNormal="55" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A130" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="T155" activeCellId="0" sqref="T155"/>
     </sheetView>
   </sheetViews>
@@ -11215,7 +11215,7 @@
   </sheetPr>
   <dimension ref="A1:N3"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="55" zoomScaleNormal="55" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A8" activeCellId="0" sqref="A8"/>
     </sheetView>
   </sheetViews>
@@ -11345,8 +11345,8 @@
   </sheetPr>
   <dimension ref="A1:AA59"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E5" activeCellId="0" sqref="E5"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="U1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A33" activeCellId="0" sqref="A33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14453125" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -12304,11 +12304,6 @@
       <c r="O22" s="125"/>
       <c r="P22" s="125"/>
     </row>
-    <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AA26" s="124" t="n">
-        <v>2024</v>
-      </c>
-    </row>
     <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="124" t="s">
         <v>689</v>
@@ -12388,90 +12383,93 @@
       <c r="Z32" s="124" t="n">
         <v>2023</v>
       </c>
+      <c r="AA32" s="124" t="n">
+        <v>2024</v>
+      </c>
     </row>
     <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="124" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="B33" s="125" t="n">
-        <f aca="false">COUNTIF(G27:BA27,"&lt;&gt;")</f>
-        <v>0</v>
+        <f aca="false">COUNTIF(G33:BA33,"&lt;&gt;")</f>
+        <v>20</v>
       </c>
       <c r="C33" s="125" t="n">
-        <f aca="false">COUNTIF(G27:BB27,"1")</f>
-        <v>0</v>
+        <f aca="false">COUNTIF(G33:BB33,"1")</f>
+        <v>2</v>
       </c>
       <c r="D33" s="125" t="n">
-        <f aca="false">COUNTIF(G27:BC27,"2")</f>
-        <v>0</v>
+        <f aca="false">COUNTIF(G33:BC33,"2")</f>
+        <v>2</v>
       </c>
       <c r="E33" s="125" t="n">
-        <f aca="false">COUNTIF(G27:BD27,"3")</f>
-        <v>0</v>
+        <f aca="false">COUNTIF(G33:BD33,"3")</f>
+        <v>4</v>
       </c>
       <c r="F33" s="125" t="n">
-        <f aca="false">COUNTIF(G27:BC27,"*last*")</f>
-        <v>0</v>
+        <f aca="false">COUNTIF(G33:BC33,"*last*")</f>
+        <v>1</v>
       </c>
       <c r="G33" s="125" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="H33" s="125" t="n">
+        <v>10</v>
+      </c>
+      <c r="I33" s="125" t="s">
+        <v>695</v>
+      </c>
+      <c r="J33" s="125" t="n">
+        <v>7</v>
+      </c>
+      <c r="K33" s="125" t="n">
+        <v>7</v>
+      </c>
+      <c r="L33" s="125" t="n">
+        <v>5</v>
+      </c>
+      <c r="M33" s="125" t="n">
+        <v>5</v>
+      </c>
+      <c r="N33" s="125" t="n">
+        <v>1</v>
+      </c>
+      <c r="O33" s="125" t="n">
         <v>11</v>
       </c>
-      <c r="I33" s="125" t="n">
-        <v>7</v>
-      </c>
-      <c r="J33" s="125" t="n">
-        <v>6</v>
-      </c>
-      <c r="K33" s="125" t="n">
+      <c r="P33" s="125" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q33" s="125" t="n">
+        <v>2</v>
+      </c>
+      <c r="R33" s="125" t="n">
+        <v>5</v>
+      </c>
+      <c r="S33" s="125" t="n">
+        <v>3</v>
+      </c>
+      <c r="T33" s="125" t="n">
+        <v>2</v>
+      </c>
+      <c r="U33" s="125" t="n">
+        <v>3</v>
+      </c>
+      <c r="V33" s="125" t="n">
+        <v>3</v>
+      </c>
+      <c r="W33" s="125" t="n">
         <v>9</v>
       </c>
-      <c r="L33" s="125" t="n">
-        <v>2</v>
-      </c>
-      <c r="M33" s="125" t="n">
+      <c r="X33" s="125" t="n">
         <v>4</v>
       </c>
-      <c r="N33" s="125" t="n">
-        <v>5</v>
-      </c>
-      <c r="O33" s="125" t="n">
-        <v>1</v>
-      </c>
-      <c r="P33" s="125" t="n">
-        <v>8</v>
-      </c>
-      <c r="Q33" s="125" t="n">
-        <v>3</v>
-      </c>
-      <c r="R33" s="125" t="n">
-        <v>2</v>
-      </c>
-      <c r="S33" s="125" t="n">
-        <v>2</v>
-      </c>
-      <c r="T33" s="125" t="n">
-        <v>4</v>
-      </c>
-      <c r="U33" s="125" t="n">
-        <v>6</v>
-      </c>
-      <c r="V33" s="125" t="n">
-        <v>8</v>
-      </c>
-      <c r="W33" s="125" t="n">
-        <v>5</v>
-      </c>
-      <c r="X33" s="125" t="n">
-        <v>11</v>
-      </c>
       <c r="Y33" s="125" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="Z33" s="125" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12479,23 +12477,23 @@
         <v>356</v>
       </c>
       <c r="B34" s="125" t="n">
-        <f aca="false">COUNTIF(G28:BA28,"&lt;&gt;")</f>
-        <v>0</v>
+        <f aca="false">COUNTIF(G34:BA34,"&lt;&gt;")</f>
+        <v>20</v>
       </c>
       <c r="C34" s="125" t="n">
-        <f aca="false">COUNTIF(G28:BB28,"1")</f>
-        <v>0</v>
+        <f aca="false">COUNTIF(G34:BB34,"1")</f>
+        <v>9</v>
       </c>
       <c r="D34" s="125" t="n">
-        <f aca="false">COUNTIF(G28:BC28,"2")</f>
-        <v>0</v>
+        <f aca="false">COUNTIF(G34:BC34,"2")</f>
+        <v>5</v>
       </c>
       <c r="E34" s="125" t="n">
-        <f aca="false">COUNTIF(G28:BD28,"3")</f>
-        <v>0</v>
+        <f aca="false">COUNTIF(G34:BD34,"3")</f>
+        <v>3</v>
       </c>
       <c r="F34" s="125" t="n">
-        <f aca="false">COUNTIF(G28:BC28,"*last*")</f>
+        <f aca="false">COUNTIF(G34:BC34,"*last*")</f>
         <v>0</v>
       </c>
       <c r="G34" s="125" t="n">
@@ -12564,30 +12562,30 @@
         <v>119</v>
       </c>
       <c r="B35" s="125" t="n">
-        <f aca="false">COUNTIF(G29:BA29,"&lt;&gt;")</f>
+        <f aca="false">COUNTIF(G35:BA35,"&lt;&gt;")</f>
+        <v>20</v>
+      </c>
+      <c r="C35" s="125" t="n">
+        <f aca="false">COUNTIF(G35:BB35,"1")</f>
+        <v>1</v>
+      </c>
+      <c r="D35" s="125" t="n">
+        <f aca="false">COUNTIF(G35:BC35,"2")</f>
         <v>0</v>
       </c>
-      <c r="C35" s="125" t="n">
-        <f aca="false">COUNTIF(G29:BB29,"1")</f>
-        <v>0</v>
-      </c>
-      <c r="D35" s="125" t="n">
-        <f aca="false">COUNTIF(G29:BC29,"2")</f>
-        <v>0</v>
-      </c>
       <c r="E35" s="125" t="n">
-        <f aca="false">COUNTIF(G29:BD29,"3")</f>
-        <v>0</v>
+        <f aca="false">COUNTIF(G35:BD35,"3")</f>
+        <v>2</v>
       </c>
       <c r="F35" s="125" t="n">
-        <f aca="false">COUNTIF(G29:BC29,"*last*")</f>
-        <v>0</v>
+        <f aca="false">COUNTIF(G35:BC35,"*last*")</f>
+        <v>3</v>
       </c>
       <c r="G35" s="125" t="n">
         <v>5</v>
       </c>
       <c r="H35" s="125" t="s">
-        <v>695</v>
+        <v>696</v>
       </c>
       <c r="I35" s="125" t="n">
         <v>5</v>
@@ -12608,7 +12606,7 @@
         <v>8</v>
       </c>
       <c r="O35" s="125" t="s">
-        <v>696</v>
+        <v>697</v>
       </c>
       <c r="P35" s="125" t="n">
         <v>9</v>
@@ -12617,7 +12615,7 @@
         <v>6</v>
       </c>
       <c r="R35" s="125" t="s">
-        <v>697</v>
+        <v>698</v>
       </c>
       <c r="S35" s="125" t="n">
         <v>13</v>
@@ -12646,356 +12644,356 @@
     </row>
     <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="124" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="B36" s="125" t="n">
-        <f aca="false">COUNTIF(G30:BA30,"&lt;&gt;")</f>
+        <f aca="false">COUNTIF(G36:BA36,"&lt;&gt;")</f>
+        <v>20</v>
+      </c>
+      <c r="C36" s="125" t="n">
+        <f aca="false">COUNTIF(G36:BB36,"1")</f>
+        <v>2</v>
+      </c>
+      <c r="D36" s="125" t="n">
+        <f aca="false">COUNTIF(G36:BC36,"2")</f>
+        <v>3</v>
+      </c>
+      <c r="E36" s="125" t="n">
+        <f aca="false">COUNTIF(G36:BD36,"3")</f>
+        <v>1</v>
+      </c>
+      <c r="F36" s="125" t="n">
+        <f aca="false">COUNTIF(G36:BC36,"*last*")</f>
         <v>0</v>
       </c>
-      <c r="C36" s="125" t="n">
-        <f aca="false">COUNTIF(G30:BB30,"1")</f>
-        <v>0</v>
-      </c>
-      <c r="D36" s="125" t="n">
-        <f aca="false">COUNTIF(G30:BC30,"2")</f>
-        <v>0</v>
-      </c>
-      <c r="E36" s="125" t="n">
-        <f aca="false">COUNTIF(G30:BD30,"3")</f>
-        <v>0</v>
-      </c>
-      <c r="F36" s="125" t="n">
-        <f aca="false">COUNTIF(G30:BC30,"*last*")</f>
-        <v>0</v>
-      </c>
       <c r="G36" s="125" t="n">
+        <v>1</v>
+      </c>
+      <c r="H36" s="125" t="n">
+        <v>11</v>
+      </c>
+      <c r="I36" s="125" t="n">
+        <v>7</v>
+      </c>
+      <c r="J36" s="125" t="n">
+        <v>6</v>
+      </c>
+      <c r="K36" s="125" t="n">
         <v>9</v>
       </c>
-      <c r="H36" s="125" t="n">
-        <v>10</v>
-      </c>
-      <c r="I36" s="125" t="s">
-        <v>698</v>
-      </c>
-      <c r="J36" s="125" t="n">
-        <v>7</v>
-      </c>
-      <c r="K36" s="125" t="n">
-        <v>7</v>
-      </c>
       <c r="L36" s="125" t="n">
+        <v>2</v>
+      </c>
+      <c r="M36" s="125" t="n">
+        <v>4</v>
+      </c>
+      <c r="N36" s="125" t="n">
         <v>5</v>
       </c>
-      <c r="M36" s="125" t="n">
+      <c r="O36" s="125" t="n">
+        <v>1</v>
+      </c>
+      <c r="P36" s="125" t="n">
+        <v>8</v>
+      </c>
+      <c r="Q36" s="125" t="n">
+        <v>3</v>
+      </c>
+      <c r="R36" s="125" t="n">
+        <v>2</v>
+      </c>
+      <c r="S36" s="125" t="n">
+        <v>2</v>
+      </c>
+      <c r="T36" s="125" t="n">
+        <v>4</v>
+      </c>
+      <c r="U36" s="125" t="n">
+        <v>6</v>
+      </c>
+      <c r="V36" s="125" t="n">
+        <v>8</v>
+      </c>
+      <c r="W36" s="125" t="n">
         <v>5</v>
       </c>
-      <c r="N36" s="125" t="n">
-        <v>1</v>
-      </c>
-      <c r="O36" s="125" t="n">
+      <c r="X36" s="125" t="n">
         <v>11</v>
       </c>
-      <c r="P36" s="125" t="n">
-        <v>3</v>
-      </c>
-      <c r="Q36" s="125" t="n">
-        <v>2</v>
-      </c>
-      <c r="R36" s="125" t="n">
-        <v>5</v>
-      </c>
-      <c r="S36" s="125" t="n">
-        <v>3</v>
-      </c>
-      <c r="T36" s="125" t="n">
-        <v>2</v>
-      </c>
-      <c r="U36" s="125" t="n">
-        <v>3</v>
-      </c>
-      <c r="V36" s="125" t="n">
-        <v>3</v>
-      </c>
-      <c r="W36" s="125" t="n">
-        <v>9</v>
-      </c>
-      <c r="X36" s="125" t="n">
-        <v>4</v>
-      </c>
       <c r="Y36" s="125" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="Z36" s="125" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="124" t="s">
-        <v>313</v>
+        <v>355</v>
       </c>
       <c r="B37" s="125" t="n">
-        <f aca="false">COUNTIF(G31:BA31,"&lt;&gt;")</f>
-        <v>0</v>
+        <f aca="false">COUNTIF(G37:BA37,"&lt;&gt;")</f>
+        <v>19</v>
       </c>
       <c r="C37" s="125" t="n">
-        <f aca="false">COUNTIF(G31:BB31,"1")</f>
-        <v>0</v>
+        <f aca="false">COUNTIF(G37:BB37,"1")</f>
+        <v>2</v>
       </c>
       <c r="D37" s="125" t="n">
-        <f aca="false">COUNTIF(G31:BC31,"2")</f>
-        <v>0</v>
+        <f aca="false">COUNTIF(G37:BC37,"2")</f>
+        <v>1</v>
       </c>
       <c r="E37" s="125" t="n">
-        <f aca="false">COUNTIF(G31:BD31,"3")</f>
-        <v>0</v>
+        <f aca="false">COUNTIF(G37:BD37,"3")</f>
+        <v>2</v>
       </c>
       <c r="F37" s="125" t="n">
-        <f aca="false">COUNTIF(G31:BC31,"*last*")</f>
-        <v>0</v>
+        <f aca="false">COUNTIF(G37:BC37,"*last*")</f>
+        <v>1</v>
       </c>
       <c r="G37" s="125" t="n">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="H37" s="125" t="n">
+        <v>3</v>
+      </c>
+      <c r="I37" s="126"/>
+      <c r="J37" s="127" t="n">
+        <v>11</v>
+      </c>
+      <c r="K37" s="125" t="n">
+        <v>6</v>
+      </c>
+      <c r="L37" s="125" t="n">
+        <v>7</v>
+      </c>
+      <c r="M37" s="125" t="n">
+        <v>2</v>
+      </c>
+      <c r="N37" s="125" t="n">
+        <v>3</v>
+      </c>
+      <c r="O37" s="125" t="n">
+        <v>5</v>
+      </c>
+      <c r="P37" s="125" t="n">
+        <v>6</v>
+      </c>
+      <c r="Q37" s="125" t="n">
         <v>8</v>
       </c>
-      <c r="I37" s="125" t="n">
-        <v>8</v>
-      </c>
-      <c r="J37" s="125" t="n">
+      <c r="R37" s="125" t="n">
+        <v>1</v>
+      </c>
+      <c r="S37" s="125" t="n">
+        <v>11</v>
+      </c>
+      <c r="T37" s="125" t="n">
+        <v>1</v>
+      </c>
+      <c r="U37" s="125" t="n">
+        <v>12</v>
+      </c>
+      <c r="V37" s="125" t="n">
+        <v>7</v>
+      </c>
+      <c r="W37" s="125" t="n">
         <v>4</v>
       </c>
-      <c r="K37" s="125" t="n">
-        <v>10</v>
-      </c>
-      <c r="L37" s="125" t="n">
-        <v>10</v>
-      </c>
-      <c r="M37" s="125" t="n">
+      <c r="X37" s="125" t="n">
+        <v>5</v>
+      </c>
+      <c r="Y37" s="125" t="s">
+        <v>697</v>
+      </c>
+      <c r="Z37" s="125" t="n">
         <v>9</v>
       </c>
-      <c r="N37" s="125" t="n">
-        <v>10</v>
-      </c>
-      <c r="O37" s="125" t="n">
-        <v>7</v>
-      </c>
-      <c r="P37" s="125" t="s">
-        <v>695</v>
-      </c>
-      <c r="Q37" s="125" t="n">
-        <v>5</v>
-      </c>
-      <c r="R37" s="125" t="n">
-        <v>11</v>
-      </c>
-      <c r="S37" s="125" t="n">
-        <v>6</v>
-      </c>
-      <c r="T37" s="125" t="n">
-        <v>11</v>
-      </c>
-      <c r="U37" s="125" t="n">
-        <v>5</v>
-      </c>
-      <c r="V37" s="125" t="n">
-        <v>2</v>
-      </c>
-      <c r="W37" s="126"/>
-      <c r="X37" s="126"/>
-      <c r="Y37" s="126"/>
-      <c r="Z37" s="126"/>
     </row>
     <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="124" t="s">
-        <v>355</v>
+        <v>286</v>
       </c>
       <c r="B38" s="125" t="n">
-        <f aca="false">COUNTIF(G32:BA32,"&lt;&gt;")</f>
-        <v>20</v>
+        <f aca="false">COUNTIF(G38:BA38,"&lt;&gt;")</f>
+        <v>17</v>
       </c>
       <c r="C38" s="125" t="n">
-        <f aca="false">COUNTIF(G32:BB32,"1")</f>
+        <f aca="false">COUNTIF(G38:BB38,"1")</f>
         <v>0</v>
       </c>
       <c r="D38" s="125" t="n">
-        <f aca="false">COUNTIF(G32:BC32,"2")</f>
-        <v>0</v>
+        <f aca="false">COUNTIF(G38:BC38,"2")</f>
+        <v>2</v>
       </c>
       <c r="E38" s="125" t="n">
-        <f aca="false">COUNTIF(G32:BD32,"3")</f>
-        <v>0</v>
+        <f aca="false">COUNTIF(G38:BD38,"3")</f>
+        <v>2</v>
       </c>
       <c r="F38" s="125" t="n">
-        <f aca="false">COUNTIF(G32:BC32,"*last*")</f>
-        <v>0</v>
+        <f aca="false">COUNTIF(G38:BC38,"*last*")</f>
+        <v>1</v>
       </c>
       <c r="G38" s="125" t="n">
+        <v>2</v>
+      </c>
+      <c r="H38" s="125" t="n">
+        <v>2</v>
+      </c>
+      <c r="I38" s="125" t="n">
+        <v>6</v>
+      </c>
+      <c r="J38" s="125" t="n">
+        <v>3</v>
+      </c>
+      <c r="K38" s="125" t="n">
+        <v>3</v>
+      </c>
+      <c r="L38" s="125" t="n">
+        <v>6</v>
+      </c>
+      <c r="M38" s="125" t="n">
+        <v>8</v>
+      </c>
+      <c r="N38" s="125" t="n">
         <v>4</v>
       </c>
-      <c r="H38" s="125" t="n">
-        <v>3</v>
-      </c>
-      <c r="I38" s="127"/>
-      <c r="J38" s="128" t="n">
+      <c r="O38" s="125" t="n">
+        <v>4</v>
+      </c>
+      <c r="P38" s="128"/>
+      <c r="Q38" s="125" t="s">
+        <v>698</v>
+      </c>
+      <c r="R38" s="125" t="n">
+        <v>13</v>
+      </c>
+      <c r="S38" s="125" t="n">
+        <v>8</v>
+      </c>
+      <c r="T38" s="125" t="n">
+        <v>6</v>
+      </c>
+      <c r="U38" s="125"/>
+      <c r="V38" s="125"/>
+      <c r="W38" s="125" t="n">
         <v>11</v>
       </c>
-      <c r="K38" s="125" t="n">
-        <v>6</v>
-      </c>
-      <c r="L38" s="125" t="n">
+      <c r="X38" s="125" t="n">
+        <v>9</v>
+      </c>
+      <c r="Y38" s="125" t="n">
         <v>7</v>
       </c>
-      <c r="M38" s="125" t="n">
-        <v>2</v>
-      </c>
-      <c r="N38" s="125" t="n">
-        <v>3</v>
-      </c>
-      <c r="O38" s="125" t="n">
-        <v>5</v>
-      </c>
-      <c r="P38" s="125" t="n">
-        <v>6</v>
-      </c>
-      <c r="Q38" s="125" t="n">
-        <v>8</v>
-      </c>
-      <c r="R38" s="125" t="n">
-        <v>1</v>
-      </c>
-      <c r="S38" s="125" t="n">
-        <v>11</v>
-      </c>
-      <c r="T38" s="125" t="n">
-        <v>1</v>
-      </c>
-      <c r="U38" s="125" t="n">
+      <c r="Z38" s="125" t="n">
         <v>12</v>
-      </c>
-      <c r="V38" s="125" t="n">
-        <v>7</v>
-      </c>
-      <c r="W38" s="125" t="n">
-        <v>4</v>
-      </c>
-      <c r="X38" s="125" t="n">
-        <v>5</v>
-      </c>
-      <c r="Y38" s="125" t="s">
-        <v>696</v>
-      </c>
-      <c r="Z38" s="125" t="n">
-        <v>9</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="124" t="s">
-        <v>286</v>
+        <v>313</v>
       </c>
       <c r="B39" s="125" t="n">
-        <f aca="false">COUNTIF(G33:BA33,"&lt;&gt;")</f>
-        <v>20</v>
+        <f aca="false">COUNTIF(G39:BA39,"&lt;&gt;")</f>
+        <v>16</v>
       </c>
       <c r="C39" s="125" t="n">
-        <f aca="false">COUNTIF(G33:BB33,"1")</f>
+        <f aca="false">COUNTIF(G39:BB39,"1")</f>
+        <v>0</v>
+      </c>
+      <c r="D39" s="125" t="n">
+        <f aca="false">COUNTIF(G39:BC39,"2")</f>
+        <v>1</v>
+      </c>
+      <c r="E39" s="125" t="n">
+        <f aca="false">COUNTIF(G39:BD39,"3")</f>
+        <v>0</v>
+      </c>
+      <c r="F39" s="125" t="n">
+        <f aca="false">COUNTIF(G39:BC39,"*last*")</f>
+        <v>1</v>
+      </c>
+      <c r="G39" s="125" t="n">
+        <v>10</v>
+      </c>
+      <c r="H39" s="125" t="n">
+        <v>8</v>
+      </c>
+      <c r="I39" s="125" t="n">
+        <v>8</v>
+      </c>
+      <c r="J39" s="125" t="n">
+        <v>4</v>
+      </c>
+      <c r="K39" s="125" t="n">
+        <v>10</v>
+      </c>
+      <c r="L39" s="125" t="n">
+        <v>10</v>
+      </c>
+      <c r="M39" s="125" t="n">
+        <v>9</v>
+      </c>
+      <c r="N39" s="125" t="n">
+        <v>10</v>
+      </c>
+      <c r="O39" s="125" t="n">
+        <v>7</v>
+      </c>
+      <c r="P39" s="125" t="s">
+        <v>696</v>
+      </c>
+      <c r="Q39" s="125" t="n">
+        <v>5</v>
+      </c>
+      <c r="R39" s="125" t="n">
+        <v>11</v>
+      </c>
+      <c r="S39" s="125" t="n">
+        <v>6</v>
+      </c>
+      <c r="T39" s="125" t="n">
+        <v>11</v>
+      </c>
+      <c r="U39" s="125" t="n">
+        <v>5</v>
+      </c>
+      <c r="V39" s="125" t="n">
         <v>2</v>
       </c>
-      <c r="D39" s="125" t="n">
-        <f aca="false">COUNTIF(G33:BC33,"2")</f>
-        <v>3</v>
-      </c>
-      <c r="E39" s="125" t="n">
-        <f aca="false">COUNTIF(G33:BD33,"3")</f>
-        <v>1</v>
-      </c>
-      <c r="F39" s="125" t="n">
-        <f aca="false">COUNTIF(G33:BC33,"*last*")</f>
-        <v>0</v>
-      </c>
-      <c r="G39" s="125" t="n">
-        <v>2</v>
-      </c>
-      <c r="H39" s="125" t="n">
-        <v>2</v>
-      </c>
-      <c r="I39" s="125" t="n">
-        <v>6</v>
-      </c>
-      <c r="J39" s="125" t="n">
-        <v>3</v>
-      </c>
-      <c r="K39" s="125" t="n">
-        <v>3</v>
-      </c>
-      <c r="L39" s="125" t="n">
-        <v>6</v>
-      </c>
-      <c r="M39" s="125" t="n">
-        <v>8</v>
-      </c>
-      <c r="N39" s="125" t="n">
-        <v>4</v>
-      </c>
-      <c r="O39" s="125" t="n">
-        <v>4</v>
-      </c>
-      <c r="P39" s="126"/>
-      <c r="Q39" s="125" t="s">
-        <v>697</v>
-      </c>
-      <c r="R39" s="125" t="n">
-        <v>13</v>
-      </c>
-      <c r="S39" s="125" t="n">
-        <v>8</v>
-      </c>
-      <c r="T39" s="125" t="n">
-        <v>6</v>
-      </c>
-      <c r="U39" s="125"/>
-      <c r="V39" s="125"/>
-      <c r="W39" s="125" t="n">
-        <v>11</v>
-      </c>
-      <c r="X39" s="125" t="n">
-        <v>9</v>
-      </c>
-      <c r="Y39" s="125" t="n">
-        <v>7</v>
-      </c>
-      <c r="Z39" s="125" t="n">
-        <v>12</v>
-      </c>
+      <c r="W39" s="128"/>
+      <c r="X39" s="128"/>
+      <c r="Y39" s="128"/>
+      <c r="Z39" s="128"/>
     </row>
     <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="124" t="s">
         <v>175</v>
       </c>
       <c r="B40" s="125" t="n">
-        <f aca="false">COUNTIF(G34:BA34,"&lt;&gt;")</f>
-        <v>20</v>
+        <f aca="false">COUNTIF(G40:BA40,"&lt;&gt;")</f>
+        <v>16</v>
       </c>
       <c r="C40" s="125" t="n">
-        <f aca="false">COUNTIF(G34:BB34,"1")</f>
-        <v>9</v>
+        <f aca="false">COUNTIF(G40:BB40,"1")</f>
+        <v>0</v>
       </c>
       <c r="D40" s="125" t="n">
-        <f aca="false">COUNTIF(G34:BC34,"2")</f>
-        <v>5</v>
+        <f aca="false">COUNTIF(G40:BC40,"2")</f>
+        <v>0</v>
       </c>
       <c r="E40" s="125" t="n">
-        <f aca="false">COUNTIF(G34:BD34,"3")</f>
-        <v>3</v>
+        <f aca="false">COUNTIF(G40:BD40,"3")</f>
+        <v>2</v>
       </c>
       <c r="F40" s="125" t="n">
-        <f aca="false">COUNTIF(G34:BC34,"*last*")</f>
-        <v>0</v>
-      </c>
-      <c r="G40" s="126"/>
-      <c r="H40" s="126"/>
-      <c r="I40" s="126"/>
-      <c r="J40" s="126"/>
+        <f aca="false">COUNTIF(G40:BC40,"*last*")</f>
+        <v>4</v>
+      </c>
+      <c r="G40" s="128"/>
+      <c r="H40" s="128"/>
+      <c r="I40" s="128"/>
+      <c r="J40" s="128"/>
       <c r="K40" s="125" t="s">
         <v>699</v>
       </c>
@@ -13027,13 +13025,13 @@
         <v>9</v>
       </c>
       <c r="U40" s="125" t="s">
-        <v>696</v>
+        <v>697</v>
       </c>
       <c r="V40" s="125" t="s">
-        <v>696</v>
+        <v>697</v>
       </c>
       <c r="W40" s="125" t="s">
-        <v>696</v>
+        <v>697</v>
       </c>
       <c r="X40" s="125" t="n">
         <v>8</v>
@@ -13050,29 +13048,29 @@
         <v>219</v>
       </c>
       <c r="B41" s="125" t="n">
-        <f aca="false">COUNTIF(G35:BA35,"&lt;&gt;")</f>
-        <v>20</v>
+        <f aca="false">COUNTIF(G41:BA41,"&lt;&gt;")</f>
+        <v>15</v>
       </c>
       <c r="C41" s="125" t="n">
-        <f aca="false">COUNTIF(G35:BB35,"1")</f>
-        <v>1</v>
+        <f aca="false">COUNTIF(G41:BB41,"1")</f>
+        <v>0</v>
       </c>
       <c r="D41" s="125" t="n">
-        <f aca="false">COUNTIF(G35:BC35,"2")</f>
+        <f aca="false">COUNTIF(G41:BC41,"2")</f>
         <v>0</v>
       </c>
       <c r="E41" s="125" t="n">
-        <f aca="false">COUNTIF(G35:BD35,"3")</f>
-        <v>2</v>
+        <f aca="false">COUNTIF(G41:BD41,"3")</f>
+        <v>0</v>
       </c>
       <c r="F41" s="125" t="n">
-        <f aca="false">COUNTIF(G35:BC35,"*last*")</f>
-        <v>3</v>
-      </c>
-      <c r="G41" s="126"/>
-      <c r="H41" s="126"/>
-      <c r="I41" s="126"/>
-      <c r="J41" s="126"/>
+        <f aca="false">COUNTIF(G41:BC41,"*last*")</f>
+        <v>0</v>
+      </c>
+      <c r="G41" s="128"/>
+      <c r="H41" s="128"/>
+      <c r="I41" s="128"/>
+      <c r="J41" s="128"/>
       <c r="K41" s="125" t="n">
         <v>4</v>
       </c>
@@ -13082,7 +13080,7 @@
       <c r="M41" s="125" t="n">
         <v>10</v>
       </c>
-      <c r="N41" s="126"/>
+      <c r="N41" s="128"/>
       <c r="O41" s="125" t="n">
         <v>10</v>
       </c>
@@ -13125,31 +13123,31 @@
         <v>201</v>
       </c>
       <c r="B42" s="125" t="n">
-        <f aca="false">COUNTIF(G36:BA36,"&lt;&gt;")</f>
-        <v>20</v>
+        <f aca="false">COUNTIF(G42:BA42,"&lt;&gt;")</f>
+        <v>14</v>
       </c>
       <c r="C42" s="125" t="n">
-        <f aca="false">COUNTIF(G36:BB36,"1")</f>
-        <v>2</v>
+        <f aca="false">COUNTIF(G42:BB42,"1")</f>
+        <v>0</v>
       </c>
       <c r="D42" s="125" t="n">
-        <f aca="false">COUNTIF(G36:BC36,"2")</f>
-        <v>2</v>
+        <f aca="false">COUNTIF(G42:BC42,"2")</f>
+        <v>1</v>
       </c>
       <c r="E42" s="125" t="n">
-        <f aca="false">COUNTIF(G36:BD36,"3")</f>
-        <v>4</v>
+        <f aca="false">COUNTIF(G42:BD42,"3")</f>
+        <v>1</v>
       </c>
       <c r="F42" s="125" t="n">
-        <f aca="false">COUNTIF(G36:BC36,"*last*")</f>
-        <v>1</v>
-      </c>
-      <c r="G42" s="126"/>
-      <c r="H42" s="126"/>
-      <c r="I42" s="126"/>
-      <c r="J42" s="126"/>
-      <c r="K42" s="126"/>
-      <c r="L42" s="126"/>
+        <f aca="false">COUNTIF(G42:BC42,"*last*")</f>
+        <v>0</v>
+      </c>
+      <c r="G42" s="128"/>
+      <c r="H42" s="128"/>
+      <c r="I42" s="128"/>
+      <c r="J42" s="128"/>
+      <c r="K42" s="128"/>
+      <c r="L42" s="128"/>
       <c r="M42" s="125" t="n">
         <v>11</v>
       </c>
@@ -13198,34 +13196,34 @@
         <v>236</v>
       </c>
       <c r="B43" s="125" t="n">
-        <f aca="false">COUNTIF(G37:BA37,"&lt;&gt;")</f>
-        <v>16</v>
+        <f aca="false">COUNTIF(G43:BA43,"&lt;&gt;")</f>
+        <v>11</v>
       </c>
       <c r="C43" s="125" t="n">
-        <f aca="false">COUNTIF(G37:BB37,"1")</f>
+        <f aca="false">COUNTIF(G43:BB43,"1")</f>
         <v>0</v>
       </c>
       <c r="D43" s="125" t="n">
-        <f aca="false">COUNTIF(G37:BC37,"2")</f>
-        <v>1</v>
+        <f aca="false">COUNTIF(G43:BC43,"2")</f>
+        <v>0</v>
       </c>
       <c r="E43" s="125" t="n">
-        <f aca="false">COUNTIF(G37:BD37,"3")</f>
+        <f aca="false">COUNTIF(G43:BD43,"3")</f>
+        <v>1</v>
+      </c>
+      <c r="F43" s="125" t="n">
+        <f aca="false">COUNTIF(G43:BC43,"*last*")</f>
         <v>0</v>
       </c>
-      <c r="F43" s="125" t="n">
-        <f aca="false">COUNTIF(G37:BC37,"*last*")</f>
-        <v>1</v>
-      </c>
-      <c r="G43" s="126"/>
-      <c r="H43" s="126"/>
-      <c r="I43" s="126"/>
-      <c r="J43" s="126"/>
-      <c r="K43" s="126"/>
-      <c r="L43" s="126"/>
-      <c r="M43" s="126"/>
-      <c r="N43" s="126"/>
-      <c r="O43" s="126"/>
+      <c r="G43" s="128"/>
+      <c r="H43" s="128"/>
+      <c r="I43" s="128"/>
+      <c r="J43" s="128"/>
+      <c r="K43" s="128"/>
+      <c r="L43" s="128"/>
+      <c r="M43" s="128"/>
+      <c r="N43" s="128"/>
+      <c r="O43" s="128"/>
       <c r="P43" s="125" t="n">
         <v>10</v>
       </c>
@@ -13265,24 +13263,24 @@
         <v>341</v>
       </c>
       <c r="B44" s="125" t="n">
-        <f aca="false">COUNTIF(G38:BA38,"&lt;&gt;")</f>
-        <v>19</v>
+        <f aca="false">COUNTIF(G44:BA44,"&lt;&gt;")</f>
+        <v>8</v>
       </c>
       <c r="C44" s="125" t="n">
-        <f aca="false">COUNTIF(G38:BB38,"1")</f>
-        <v>2</v>
+        <f aca="false">COUNTIF(G44:BB44,"1")</f>
+        <v>1</v>
       </c>
       <c r="D44" s="125" t="n">
-        <f aca="false">COUNTIF(G38:BC38,"2")</f>
-        <v>1</v>
+        <f aca="false">COUNTIF(G44:BC44,"2")</f>
+        <v>0</v>
       </c>
       <c r="E44" s="125" t="n">
-        <f aca="false">COUNTIF(G38:BD38,"3")</f>
-        <v>2</v>
+        <f aca="false">COUNTIF(G44:BD44,"3")</f>
+        <v>1</v>
       </c>
       <c r="F44" s="125" t="n">
-        <f aca="false">COUNTIF(G38:BC38,"*last*")</f>
-        <v>1</v>
+        <f aca="false">COUNTIF(G44:BC44,"*last*")</f>
+        <v>0</v>
       </c>
       <c r="G44" s="125" t="n">
         <v>8</v>
@@ -13308,51 +13306,51 @@
       <c r="N44" s="125" t="n">
         <v>9</v>
       </c>
-      <c r="O44" s="126"/>
-      <c r="P44" s="126"/>
-      <c r="Q44" s="126"/>
-      <c r="R44" s="126"/>
-      <c r="S44" s="126"/>
-      <c r="T44" s="126"/>
-      <c r="U44" s="126"/>
-      <c r="V44" s="126"/>
-      <c r="W44" s="126"/>
-      <c r="X44" s="126"/>
-      <c r="Y44" s="126"/>
-      <c r="Z44" s="126"/>
+      <c r="O44" s="128"/>
+      <c r="P44" s="128"/>
+      <c r="Q44" s="128"/>
+      <c r="R44" s="128"/>
+      <c r="S44" s="128"/>
+      <c r="T44" s="128"/>
+      <c r="U44" s="128"/>
+      <c r="V44" s="128"/>
+      <c r="W44" s="128"/>
+      <c r="X44" s="128"/>
+      <c r="Y44" s="128"/>
+      <c r="Z44" s="128"/>
     </row>
     <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="124" t="s">
         <v>322</v>
       </c>
       <c r="B45" s="125" t="n">
-        <f aca="false">COUNTIF(G39:BA39,"&lt;&gt;")</f>
-        <v>17</v>
+        <f aca="false">COUNTIF(G45:BA45,"&lt;&gt;")</f>
+        <v>7</v>
       </c>
       <c r="C45" s="125" t="n">
-        <f aca="false">COUNTIF(G39:BB39,"1")</f>
+        <f aca="false">COUNTIF(G45:BB45,"1")</f>
         <v>0</v>
       </c>
       <c r="D45" s="125" t="n">
-        <f aca="false">COUNTIF(G39:BC39,"2")</f>
+        <f aca="false">COUNTIF(G45:BC45,"2")</f>
         <v>2</v>
       </c>
       <c r="E45" s="125" t="n">
-        <f aca="false">COUNTIF(G39:BD39,"3")</f>
-        <v>2</v>
+        <f aca="false">COUNTIF(G45:BD45,"3")</f>
+        <v>0</v>
       </c>
       <c r="F45" s="125" t="n">
-        <f aca="false">COUNTIF(G39:BC39,"*last*")</f>
-        <v>1</v>
-      </c>
-      <c r="G45" s="126"/>
-      <c r="H45" s="126"/>
-      <c r="I45" s="126"/>
-      <c r="J45" s="126"/>
-      <c r="K45" s="126"/>
-      <c r="L45" s="126"/>
-      <c r="M45" s="126"/>
-      <c r="N45" s="126"/>
+        <f aca="false">COUNTIF(G45:BC45,"*last*")</f>
+        <v>1</v>
+      </c>
+      <c r="G45" s="128"/>
+      <c r="H45" s="128"/>
+      <c r="I45" s="128"/>
+      <c r="J45" s="128"/>
+      <c r="K45" s="128"/>
+      <c r="L45" s="128"/>
+      <c r="M45" s="128"/>
+      <c r="N45" s="128"/>
       <c r="O45" s="125" t="n">
         <v>2</v>
       </c>
@@ -13369,49 +13367,49 @@
         <v>10</v>
       </c>
       <c r="T45" s="125" t="s">
-        <v>695</v>
+        <v>696</v>
       </c>
       <c r="U45" s="125" t="n">
         <v>10</v>
       </c>
-      <c r="V45" s="126"/>
-      <c r="W45" s="126"/>
-      <c r="X45" s="126"/>
-      <c r="Y45" s="126"/>
-      <c r="Z45" s="126"/>
+      <c r="V45" s="128"/>
+      <c r="W45" s="128"/>
+      <c r="X45" s="128"/>
+      <c r="Y45" s="128"/>
+      <c r="Z45" s="128"/>
     </row>
     <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="124" t="s">
         <v>338</v>
       </c>
       <c r="B46" s="125" t="n">
-        <f aca="false">COUNTIF(G40:BA40,"&lt;&gt;")</f>
-        <v>16</v>
+        <f aca="false">COUNTIF(G46:BA46,"&lt;&gt;")</f>
+        <v>7</v>
       </c>
       <c r="C46" s="125" t="n">
-        <f aca="false">COUNTIF(G40:BB40,"1")</f>
+        <f aca="false">COUNTIF(G46:BB46,"1")</f>
         <v>0</v>
       </c>
       <c r="D46" s="125" t="n">
-        <f aca="false">COUNTIF(G40:BC40,"2")</f>
+        <f aca="false">COUNTIF(G46:BC46,"2")</f>
         <v>0</v>
       </c>
       <c r="E46" s="125" t="n">
-        <f aca="false">COUNTIF(G40:BD40,"3")</f>
-        <v>2</v>
+        <f aca="false">COUNTIF(G46:BD46,"3")</f>
+        <v>0</v>
       </c>
       <c r="F46" s="125" t="n">
-        <f aca="false">COUNTIF(G40:BC40,"*last*")</f>
-        <v>4</v>
-      </c>
-      <c r="G46" s="126"/>
-      <c r="H46" s="126"/>
-      <c r="I46" s="126"/>
-      <c r="J46" s="126"/>
-      <c r="K46" s="126"/>
-      <c r="L46" s="126"/>
+        <f aca="false">COUNTIF(G46:BC46,"*last*")</f>
+        <v>1</v>
+      </c>
+      <c r="G46" s="128"/>
+      <c r="H46" s="128"/>
+      <c r="I46" s="128"/>
+      <c r="J46" s="128"/>
+      <c r="K46" s="128"/>
+      <c r="L46" s="128"/>
       <c r="M46" s="125" t="s">
-        <v>696</v>
+        <v>697</v>
       </c>
       <c r="N46" s="125" t="n">
         <v>12</v>
@@ -13419,13 +13417,13 @@
       <c r="O46" s="125" t="n">
         <v>8</v>
       </c>
-      <c r="P46" s="126"/>
+      <c r="P46" s="128"/>
       <c r="Q46" s="125" t="n">
         <v>10</v>
       </c>
-      <c r="R46" s="126"/>
-      <c r="S46" s="126"/>
-      <c r="T46" s="126"/>
+      <c r="R46" s="128"/>
+      <c r="S46" s="128"/>
+      <c r="T46" s="128"/>
       <c r="U46" s="125" t="n">
         <v>4</v>
       </c>
@@ -13435,670 +13433,670 @@
       <c r="W46" s="125" t="n">
         <v>10</v>
       </c>
-      <c r="X46" s="126"/>
-      <c r="Y46" s="126"/>
-      <c r="Z46" s="126"/>
+      <c r="X46" s="128"/>
+      <c r="Y46" s="128"/>
+      <c r="Z46" s="128"/>
     </row>
     <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="124" t="s">
-        <v>681</v>
+        <v>261</v>
       </c>
       <c r="B47" s="125" t="n">
-        <f aca="false">COUNTIF(G41:BA41,"&lt;&gt;")</f>
-        <v>15</v>
+        <f aca="false">COUNTIF(G47:BA47,"&lt;&gt;")</f>
+        <v>6</v>
       </c>
       <c r="C47" s="125" t="n">
-        <f aca="false">COUNTIF(G41:BB41,"1")</f>
+        <f aca="false">COUNTIF(G47:BB47,"1")</f>
+        <v>3</v>
+      </c>
+      <c r="D47" s="125" t="n">
+        <f aca="false">COUNTIF(G47:BC47,"2")</f>
+        <v>1</v>
+      </c>
+      <c r="E47" s="125" t="n">
+        <f aca="false">COUNTIF(G47:BD47,"3")</f>
         <v>0</v>
       </c>
-      <c r="D47" s="125" t="n">
-        <f aca="false">COUNTIF(G41:BC41,"2")</f>
+      <c r="F47" s="125" t="n">
+        <f aca="false">COUNTIF(G47:BC47,"*last*")</f>
         <v>0</v>
       </c>
-      <c r="E47" s="125" t="n">
-        <f aca="false">COUNTIF(G41:BD41,"3")</f>
-        <v>0</v>
-      </c>
-      <c r="F47" s="125" t="n">
-        <f aca="false">COUNTIF(G41:BC41,"*last*")</f>
-        <v>0</v>
-      </c>
-      <c r="G47" s="125" t="n">
-        <v>6</v>
-      </c>
-      <c r="H47" s="125" t="n">
-        <v>5</v>
-      </c>
-      <c r="I47" s="125" t="n">
-        <v>3</v>
-      </c>
-      <c r="J47" s="125" t="n">
-        <v>5</v>
-      </c>
-      <c r="K47" s="125" t="n">
+      <c r="G47" s="128"/>
+      <c r="H47" s="128"/>
+      <c r="I47" s="128"/>
+      <c r="J47" s="128"/>
+      <c r="K47" s="128"/>
+      <c r="L47" s="128"/>
+      <c r="M47" s="128"/>
+      <c r="N47" s="128"/>
+      <c r="O47" s="128"/>
+      <c r="P47" s="128"/>
+      <c r="Q47" s="128"/>
+      <c r="R47" s="128"/>
+      <c r="S47" s="128"/>
+      <c r="T47" s="128"/>
+      <c r="U47" s="125" t="n">
         <v>2</v>
       </c>
-      <c r="L47" s="125" t="s">
-        <v>699</v>
-      </c>
-      <c r="M47" s="127"/>
-      <c r="N47" s="127"/>
-      <c r="O47" s="126"/>
-      <c r="P47" s="126"/>
-      <c r="Q47" s="126"/>
-      <c r="R47" s="126"/>
-      <c r="S47" s="126"/>
-      <c r="T47" s="126"/>
-      <c r="U47" s="126"/>
-      <c r="V47" s="126"/>
-      <c r="W47" s="126"/>
-      <c r="X47" s="126"/>
-      <c r="Y47" s="126"/>
-      <c r="Z47" s="126"/>
+      <c r="V47" s="125" t="n">
+        <v>4</v>
+      </c>
+      <c r="W47" s="125" t="n">
+        <v>1</v>
+      </c>
+      <c r="X47" s="125" t="n">
+        <v>1</v>
+      </c>
+      <c r="Y47" s="125" t="n">
+        <v>1</v>
+      </c>
+      <c r="Z47" s="125" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="124" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="B48" s="125" t="n">
-        <f aca="false">COUNTIF(G42:BA42,"&lt;&gt;")</f>
-        <v>14</v>
+        <f aca="false">COUNTIF(G48:BA48,"&lt;&gt;")</f>
+        <v>6</v>
       </c>
       <c r="C48" s="125" t="n">
-        <f aca="false">COUNTIF(G42:BB42,"1")</f>
+        <f aca="false">COUNTIF(G48:BB48,"1")</f>
         <v>0</v>
       </c>
       <c r="D48" s="125" t="n">
-        <f aca="false">COUNTIF(G42:BC42,"2")</f>
+        <f aca="false">COUNTIF(G48:BC48,"2")</f>
         <v>1</v>
       </c>
       <c r="E48" s="125" t="n">
-        <f aca="false">COUNTIF(G42:BD42,"3")</f>
+        <f aca="false">COUNTIF(G48:BD48,"3")</f>
         <v>1</v>
       </c>
       <c r="F48" s="125" t="n">
-        <f aca="false">COUNTIF(G42:BC42,"*last*")</f>
-        <v>0</v>
+        <f aca="false">COUNTIF(G48:BC48,"*last*")</f>
+        <v>1</v>
       </c>
       <c r="G48" s="125" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="H48" s="125" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="I48" s="125" t="n">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="J48" s="125" t="n">
-        <v>9</v>
-      </c>
-      <c r="K48" s="126"/>
-      <c r="L48" s="126"/>
+        <v>5</v>
+      </c>
+      <c r="K48" s="125" t="n">
+        <v>2</v>
+      </c>
+      <c r="L48" s="125" t="s">
+        <v>699</v>
+      </c>
       <c r="M48" s="126"/>
       <c r="N48" s="126"/>
-      <c r="O48" s="126"/>
-      <c r="P48" s="126"/>
-      <c r="Q48" s="126"/>
-      <c r="R48" s="126"/>
-      <c r="S48" s="126"/>
-      <c r="T48" s="126"/>
-      <c r="U48" s="126"/>
-      <c r="V48" s="126"/>
-      <c r="W48" s="126"/>
-      <c r="X48" s="126"/>
-      <c r="Y48" s="126"/>
-      <c r="Z48" s="126"/>
+      <c r="O48" s="128"/>
+      <c r="P48" s="128"/>
+      <c r="Q48" s="128"/>
+      <c r="R48" s="128"/>
+      <c r="S48" s="128"/>
+      <c r="T48" s="128"/>
+      <c r="U48" s="128"/>
+      <c r="V48" s="128"/>
+      <c r="W48" s="128"/>
+      <c r="X48" s="128"/>
+      <c r="Y48" s="128"/>
+      <c r="Z48" s="128"/>
     </row>
     <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="124" t="s">
-        <v>688</v>
+        <v>275</v>
       </c>
       <c r="B49" s="125" t="n">
-        <f aca="false">COUNTIF(G43:BA43,"&lt;&gt;")</f>
-        <v>11</v>
+        <f aca="false">COUNTIF(G49:BA49,"&lt;&gt;")</f>
+        <v>5</v>
       </c>
       <c r="C49" s="125" t="n">
-        <f aca="false">COUNTIF(G43:BB43,"1")</f>
+        <f aca="false">COUNTIF(G49:BB49,"1")</f>
         <v>0</v>
       </c>
       <c r="D49" s="125" t="n">
-        <f aca="false">COUNTIF(G43:BC43,"2")</f>
+        <f aca="false">COUNTIF(G49:BC49,"2")</f>
         <v>0</v>
       </c>
       <c r="E49" s="125" t="n">
-        <f aca="false">COUNTIF(G43:BD43,"3")</f>
-        <v>1</v>
+        <f aca="false">COUNTIF(G49:BD49,"3")</f>
+        <v>0</v>
       </c>
       <c r="F49" s="125" t="n">
-        <f aca="false">COUNTIF(G43:BC43,"*last*")</f>
-        <v>0</v>
-      </c>
-      <c r="G49" s="126"/>
-      <c r="H49" s="126"/>
-      <c r="I49" s="126"/>
-      <c r="J49" s="126"/>
-      <c r="K49" s="126"/>
-      <c r="L49" s="126"/>
-      <c r="M49" s="126"/>
-      <c r="N49" s="126"/>
-      <c r="O49" s="126"/>
-      <c r="P49" s="125" t="n">
+        <f aca="false">COUNTIF(G49:BC49,"*last*")</f>
+        <v>1</v>
+      </c>
+      <c r="G49" s="128"/>
+      <c r="H49" s="128"/>
+      <c r="I49" s="128"/>
+      <c r="J49" s="128"/>
+      <c r="K49" s="128"/>
+      <c r="L49" s="128"/>
+      <c r="M49" s="128"/>
+      <c r="N49" s="128"/>
+      <c r="O49" s="128"/>
+      <c r="P49" s="128"/>
+      <c r="Q49" s="128"/>
+      <c r="R49" s="128"/>
+      <c r="S49" s="128"/>
+      <c r="T49" s="128"/>
+      <c r="U49" s="128"/>
+      <c r="V49" s="125" t="n">
+        <v>6</v>
+      </c>
+      <c r="W49" s="125" t="n">
+        <v>6</v>
+      </c>
+      <c r="X49" s="125" t="s">
+        <v>700</v>
+      </c>
+      <c r="Y49" s="125" t="n">
+        <v>6</v>
+      </c>
+      <c r="Z49" s="125" t="n">
         <v>7</v>
       </c>
-      <c r="Q49" s="125" t="n">
-        <v>13</v>
-      </c>
-      <c r="R49" s="125" t="n">
-        <v>9</v>
-      </c>
-      <c r="S49" s="125" t="s">
-        <v>697</v>
-      </c>
-      <c r="T49" s="126"/>
-      <c r="U49" s="126"/>
-      <c r="V49" s="126"/>
-      <c r="W49" s="126"/>
-      <c r="X49" s="126"/>
-      <c r="Y49" s="126"/>
-      <c r="Z49" s="126"/>
     </row>
     <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="124" t="s">
-        <v>261</v>
+        <v>688</v>
       </c>
       <c r="B50" s="125" t="n">
-        <f aca="false">COUNTIF(G44:BA44,"&lt;&gt;")</f>
-        <v>8</v>
+        <f aca="false">COUNTIF(G50:BA50,"&lt;&gt;")</f>
+        <v>4</v>
       </c>
       <c r="C50" s="125" t="n">
-        <f aca="false">COUNTIF(G44:BB44,"1")</f>
-        <v>1</v>
+        <f aca="false">COUNTIF(G50:BB50,"1")</f>
+        <v>0</v>
       </c>
       <c r="D50" s="125" t="n">
-        <f aca="false">COUNTIF(G44:BC44,"2")</f>
+        <f aca="false">COUNTIF(G50:BC50,"2")</f>
         <v>0</v>
       </c>
       <c r="E50" s="125" t="n">
-        <f aca="false">COUNTIF(G44:BD44,"3")</f>
-        <v>1</v>
+        <f aca="false">COUNTIF(G50:BD50,"3")</f>
+        <v>0</v>
       </c>
       <c r="F50" s="125" t="n">
-        <f aca="false">COUNTIF(G44:BC44,"*last*")</f>
-        <v>0</v>
-      </c>
-      <c r="G50" s="126"/>
-      <c r="H50" s="126"/>
-      <c r="I50" s="126"/>
-      <c r="J50" s="126"/>
-      <c r="K50" s="126"/>
-      <c r="L50" s="126"/>
-      <c r="M50" s="126"/>
-      <c r="N50" s="126"/>
-      <c r="O50" s="126"/>
-      <c r="P50" s="126"/>
-      <c r="Q50" s="126"/>
-      <c r="R50" s="126"/>
-      <c r="S50" s="126"/>
-      <c r="T50" s="126"/>
-      <c r="U50" s="125" t="n">
-        <v>2</v>
-      </c>
-      <c r="V50" s="125" t="n">
-        <v>4</v>
-      </c>
-      <c r="W50" s="125" t="n">
-        <v>1</v>
-      </c>
-      <c r="X50" s="125" t="n">
-        <v>1</v>
-      </c>
-      <c r="Y50" s="125" t="n">
-        <v>1</v>
-      </c>
-      <c r="Z50" s="125" t="n">
-        <v>4</v>
-      </c>
+        <f aca="false">COUNTIF(G50:BC50,"*last*")</f>
+        <v>1</v>
+      </c>
+      <c r="G50" s="128"/>
+      <c r="H50" s="128"/>
+      <c r="I50" s="128"/>
+      <c r="J50" s="128"/>
+      <c r="K50" s="128"/>
+      <c r="L50" s="128"/>
+      <c r="M50" s="128"/>
+      <c r="N50" s="128"/>
+      <c r="O50" s="128"/>
+      <c r="P50" s="125" t="n">
+        <v>7</v>
+      </c>
+      <c r="Q50" s="125" t="n">
+        <v>13</v>
+      </c>
+      <c r="R50" s="125" t="n">
+        <v>9</v>
+      </c>
+      <c r="S50" s="125" t="s">
+        <v>698</v>
+      </c>
+      <c r="T50" s="128"/>
+      <c r="U50" s="128"/>
+      <c r="V50" s="128"/>
+      <c r="W50" s="128"/>
+      <c r="X50" s="128"/>
+      <c r="Y50" s="128"/>
+      <c r="Z50" s="128"/>
     </row>
     <row r="51" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="124" t="s">
-        <v>334</v>
+        <v>682</v>
       </c>
       <c r="B51" s="125" t="n">
-        <f aca="false">COUNTIF(G45:BA45,"&lt;&gt;")</f>
+        <f aca="false">COUNTIF(G51:BA51,"&lt;&gt;")</f>
+        <v>4</v>
+      </c>
+      <c r="C51" s="125" t="n">
+        <f aca="false">COUNTIF(G51:BB51,"1")</f>
+        <v>0</v>
+      </c>
+      <c r="D51" s="125" t="n">
+        <f aca="false">COUNTIF(G51:BC51,"2")</f>
+        <v>0</v>
+      </c>
+      <c r="E51" s="125" t="n">
+        <f aca="false">COUNTIF(G51:BD51,"3")</f>
+        <v>0</v>
+      </c>
+      <c r="F51" s="125" t="n">
+        <f aca="false">COUNTIF(G51:BC51,"*last*")</f>
+        <v>0</v>
+      </c>
+      <c r="G51" s="125" t="n">
         <v>7</v>
       </c>
-      <c r="C51" s="125" t="n">
-        <f aca="false">COUNTIF(G45:BB45,"1")</f>
-        <v>0</v>
-      </c>
-      <c r="D51" s="125" t="n">
-        <f aca="false">COUNTIF(G45:BC45,"2")</f>
-        <v>2</v>
-      </c>
-      <c r="E51" s="125" t="n">
-        <f aca="false">COUNTIF(G45:BD45,"3")</f>
-        <v>0</v>
-      </c>
-      <c r="F51" s="125" t="n">
-        <f aca="false">COUNTIF(G45:BC45,"*last*")</f>
-        <v>1</v>
-      </c>
-      <c r="G51" s="126"/>
-      <c r="H51" s="126"/>
-      <c r="I51" s="126"/>
-      <c r="J51" s="126"/>
-      <c r="K51" s="126"/>
-      <c r="L51" s="126"/>
-      <c r="M51" s="125" t="n">
-        <v>12</v>
-      </c>
-      <c r="N51" s="125" t="n">
-        <v>11</v>
-      </c>
-      <c r="O51" s="125" t="n">
-        <v>12</v>
-      </c>
-      <c r="P51" s="126"/>
-      <c r="Q51" s="126"/>
-      <c r="R51" s="126"/>
-      <c r="S51" s="126"/>
-      <c r="T51" s="126"/>
-      <c r="U51" s="126"/>
-      <c r="V51" s="126"/>
-      <c r="W51" s="126"/>
-      <c r="X51" s="126"/>
-      <c r="Y51" s="126"/>
-      <c r="Z51" s="126"/>
+      <c r="H51" s="125" t="n">
+        <v>7</v>
+      </c>
+      <c r="I51" s="125" t="n">
+        <v>9</v>
+      </c>
+      <c r="J51" s="125" t="n">
+        <v>9</v>
+      </c>
+      <c r="K51" s="128"/>
+      <c r="L51" s="128"/>
+      <c r="M51" s="128"/>
+      <c r="N51" s="128"/>
+      <c r="O51" s="128"/>
+      <c r="P51" s="128"/>
+      <c r="Q51" s="128"/>
+      <c r="R51" s="128"/>
+      <c r="S51" s="128"/>
+      <c r="T51" s="128"/>
+      <c r="U51" s="128"/>
+      <c r="V51" s="128"/>
+      <c r="W51" s="128"/>
+      <c r="X51" s="128"/>
+      <c r="Y51" s="128"/>
+      <c r="Z51" s="128"/>
     </row>
     <row r="52" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="124" t="s">
-        <v>345</v>
+        <v>251</v>
       </c>
       <c r="B52" s="125" t="n">
-        <f aca="false">COUNTIF(G46:BA46,"&lt;&gt;")</f>
-        <v>7</v>
+        <f aca="false">COUNTIF(G52:BA52,"&lt;&gt;")</f>
+        <v>3</v>
       </c>
       <c r="C52" s="125" t="n">
-        <f aca="false">COUNTIF(G46:BB46,"1")</f>
+        <f aca="false">COUNTIF(G52:BB52,"1")</f>
         <v>0</v>
       </c>
       <c r="D52" s="125" t="n">
-        <f aca="false">COUNTIF(G46:BC46,"2")</f>
+        <f aca="false">COUNTIF(G52:BC52,"2")</f>
         <v>0</v>
       </c>
       <c r="E52" s="125" t="n">
-        <f aca="false">COUNTIF(G46:BD46,"3")</f>
+        <f aca="false">COUNTIF(G52:BD52,"3")</f>
         <v>0</v>
       </c>
       <c r="F52" s="125" t="n">
-        <f aca="false">COUNTIF(G46:BC46,"*last*")</f>
-        <v>1</v>
-      </c>
-      <c r="G52" s="126"/>
-      <c r="H52" s="126"/>
-      <c r="I52" s="126"/>
-      <c r="J52" s="126"/>
-      <c r="K52" s="126"/>
-      <c r="L52" s="126"/>
-      <c r="M52" s="126"/>
-      <c r="N52" s="125" t="s">
-        <v>696</v>
-      </c>
-      <c r="O52" s="126"/>
-      <c r="P52" s="126"/>
-      <c r="Q52" s="126"/>
-      <c r="R52" s="125" t="n">
-        <v>10</v>
-      </c>
-      <c r="S52" s="125" t="n">
+        <f aca="false">COUNTIF(G52:BC52,"*last*")</f>
+        <v>1</v>
+      </c>
+      <c r="G52" s="128"/>
+      <c r="H52" s="128"/>
+      <c r="I52" s="128"/>
+      <c r="J52" s="128"/>
+      <c r="K52" s="128"/>
+      <c r="L52" s="128"/>
+      <c r="M52" s="128"/>
+      <c r="N52" s="128"/>
+      <c r="O52" s="128"/>
+      <c r="P52" s="128"/>
+      <c r="Q52" s="128"/>
+      <c r="R52" s="128"/>
+      <c r="S52" s="128"/>
+      <c r="T52" s="128"/>
+      <c r="U52" s="128"/>
+      <c r="V52" s="128"/>
+      <c r="W52" s="128"/>
+      <c r="X52" s="125" t="n">
         <v>12</v>
       </c>
-      <c r="T52" s="126"/>
-      <c r="U52" s="126"/>
-      <c r="V52" s="126"/>
-      <c r="W52" s="126"/>
-      <c r="X52" s="126"/>
-      <c r="Y52" s="126"/>
-      <c r="Z52" s="126"/>
+      <c r="Y52" s="125" t="n">
+        <v>9</v>
+      </c>
+      <c r="Z52" s="125" t="s">
+        <v>697</v>
+      </c>
     </row>
     <row r="53" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="124" t="s">
-        <v>275</v>
+        <v>334</v>
       </c>
       <c r="B53" s="125" t="n">
-        <f aca="false">COUNTIF(G47:BA47,"&lt;&gt;")</f>
-        <v>6</v>
+        <f aca="false">COUNTIF(G53:BA53,"&lt;&gt;")</f>
+        <v>3</v>
       </c>
       <c r="C53" s="125" t="n">
-        <f aca="false">COUNTIF(G47:BB47,"1")</f>
+        <f aca="false">COUNTIF(G53:BB53,"1")</f>
         <v>0</v>
       </c>
       <c r="D53" s="125" t="n">
-        <f aca="false">COUNTIF(G47:BC47,"2")</f>
-        <v>1</v>
+        <f aca="false">COUNTIF(G53:BC53,"2")</f>
+        <v>0</v>
       </c>
       <c r="E53" s="125" t="n">
-        <f aca="false">COUNTIF(G47:BD47,"3")</f>
-        <v>1</v>
+        <f aca="false">COUNTIF(G53:BD53,"3")</f>
+        <v>0</v>
       </c>
       <c r="F53" s="125" t="n">
-        <f aca="false">COUNTIF(G47:BC47,"*last*")</f>
-        <v>1</v>
-      </c>
-      <c r="G53" s="126"/>
-      <c r="H53" s="126"/>
-      <c r="I53" s="126"/>
-      <c r="J53" s="126"/>
-      <c r="K53" s="126"/>
-      <c r="L53" s="126"/>
-      <c r="M53" s="126"/>
-      <c r="N53" s="126"/>
-      <c r="O53" s="126"/>
-      <c r="P53" s="126"/>
-      <c r="Q53" s="126"/>
-      <c r="R53" s="126"/>
-      <c r="S53" s="126"/>
-      <c r="T53" s="126"/>
-      <c r="U53" s="126"/>
-      <c r="V53" s="125" t="n">
-        <v>6</v>
-      </c>
-      <c r="W53" s="125" t="n">
-        <v>6</v>
-      </c>
-      <c r="X53" s="125" t="s">
-        <v>700</v>
-      </c>
-      <c r="Y53" s="125" t="n">
-        <v>6</v>
-      </c>
-      <c r="Z53" s="125" t="n">
-        <v>7</v>
-      </c>
+        <f aca="false">COUNTIF(G53:BC53,"*last*")</f>
+        <v>0</v>
+      </c>
+      <c r="G53" s="128"/>
+      <c r="H53" s="128"/>
+      <c r="I53" s="128"/>
+      <c r="J53" s="128"/>
+      <c r="K53" s="128"/>
+      <c r="L53" s="128"/>
+      <c r="M53" s="125" t="n">
+        <v>12</v>
+      </c>
+      <c r="N53" s="125" t="n">
+        <v>11</v>
+      </c>
+      <c r="O53" s="125" t="n">
+        <v>12</v>
+      </c>
+      <c r="P53" s="128"/>
+      <c r="Q53" s="128"/>
+      <c r="R53" s="128"/>
+      <c r="S53" s="128"/>
+      <c r="T53" s="128"/>
+      <c r="U53" s="128"/>
+      <c r="V53" s="128"/>
+      <c r="W53" s="128"/>
+      <c r="X53" s="128"/>
+      <c r="Y53" s="128"/>
+      <c r="Z53" s="128"/>
     </row>
     <row r="54" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="124" t="s">
-        <v>684</v>
+        <v>345</v>
       </c>
       <c r="B54" s="125" t="n">
-        <f aca="false">COUNTIF(G48:BA48,"&lt;&gt;")</f>
-        <v>4</v>
+        <f aca="false">COUNTIF(G54:BA54,"&lt;&gt;")</f>
+        <v>3</v>
       </c>
       <c r="C54" s="125" t="n">
-        <f aca="false">COUNTIF(G48:BB48,"1")</f>
+        <f aca="false">COUNTIF(G54:BB54,"1")</f>
         <v>0</v>
       </c>
       <c r="D54" s="125" t="n">
-        <f aca="false">COUNTIF(G48:BC48,"2")</f>
+        <f aca="false">COUNTIF(G54:BC54,"2")</f>
         <v>0</v>
       </c>
       <c r="E54" s="125" t="n">
-        <f aca="false">COUNTIF(G48:BD48,"3")</f>
+        <f aca="false">COUNTIF(G54:BD54,"3")</f>
         <v>0</v>
       </c>
       <c r="F54" s="125" t="n">
-        <f aca="false">COUNTIF(G48:BC48,"*last*")</f>
-        <v>0</v>
-      </c>
-      <c r="G54" s="127"/>
-      <c r="H54" s="125" t="n">
-        <v>9</v>
-      </c>
-      <c r="I54" s="125" t="n">
-        <v>2</v>
-      </c>
-      <c r="J54" s="126"/>
-      <c r="K54" s="126"/>
-      <c r="L54" s="126"/>
-      <c r="M54" s="126"/>
-      <c r="N54" s="126"/>
-      <c r="O54" s="126"/>
-      <c r="P54" s="126"/>
-      <c r="Q54" s="126"/>
-      <c r="R54" s="126"/>
-      <c r="S54" s="126"/>
-      <c r="T54" s="126"/>
-      <c r="U54" s="126"/>
-      <c r="V54" s="126"/>
-      <c r="W54" s="126"/>
-      <c r="X54" s="126"/>
-      <c r="Y54" s="126"/>
-      <c r="Z54" s="126"/>
+        <f aca="false">COUNTIF(G54:BC54,"*last*")</f>
+        <v>1</v>
+      </c>
+      <c r="G54" s="128"/>
+      <c r="H54" s="128"/>
+      <c r="I54" s="128"/>
+      <c r="J54" s="128"/>
+      <c r="K54" s="128"/>
+      <c r="L54" s="128"/>
+      <c r="M54" s="128"/>
+      <c r="N54" s="125" t="s">
+        <v>697</v>
+      </c>
+      <c r="O54" s="128"/>
+      <c r="P54" s="128"/>
+      <c r="Q54" s="128"/>
+      <c r="R54" s="125" t="n">
+        <v>10</v>
+      </c>
+      <c r="S54" s="125" t="n">
+        <v>12</v>
+      </c>
+      <c r="T54" s="128"/>
+      <c r="U54" s="128"/>
+      <c r="V54" s="128"/>
+      <c r="W54" s="128"/>
+      <c r="X54" s="128"/>
+      <c r="Y54" s="128"/>
+      <c r="Z54" s="128"/>
     </row>
     <row r="55" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="124" t="s">
-        <v>683</v>
+        <v>684</v>
       </c>
       <c r="B55" s="125" t="n">
-        <f aca="false">COUNTIF(G49:BA49,"&lt;&gt;")</f>
-        <v>4</v>
+        <f aca="false">COUNTIF(G55:BA55,"&lt;&gt;")</f>
+        <v>2</v>
       </c>
       <c r="C55" s="125" t="n">
-        <f aca="false">COUNTIF(G49:BB49,"1")</f>
+        <f aca="false">COUNTIF(G55:BB55,"1")</f>
         <v>0</v>
       </c>
       <c r="D55" s="125" t="n">
-        <f aca="false">COUNTIF(G49:BC49,"2")</f>
+        <f aca="false">COUNTIF(G55:BC55,"2")</f>
+        <v>1</v>
+      </c>
+      <c r="E55" s="125" t="n">
+        <f aca="false">COUNTIF(G55:BD55,"3")</f>
         <v>0</v>
       </c>
-      <c r="E55" s="125" t="n">
-        <f aca="false">COUNTIF(G49:BD49,"3")</f>
+      <c r="F55" s="125" t="n">
+        <f aca="false">COUNTIF(G55:BC55,"*last*")</f>
         <v>0</v>
       </c>
-      <c r="F55" s="125" t="n">
-        <f aca="false">COUNTIF(G49:BC49,"*last*")</f>
-        <v>1</v>
-      </c>
-      <c r="G55" s="127"/>
+      <c r="G55" s="126"/>
       <c r="H55" s="125" t="n">
-        <v>4</v>
-      </c>
-      <c r="I55" s="126"/>
-      <c r="J55" s="126"/>
-      <c r="K55" s="126"/>
-      <c r="L55" s="126"/>
-      <c r="M55" s="127"/>
-      <c r="N55" s="127"/>
-      <c r="O55" s="126"/>
-      <c r="P55" s="126"/>
-      <c r="Q55" s="126"/>
-      <c r="R55" s="126"/>
-      <c r="S55" s="126"/>
-      <c r="T55" s="126"/>
-      <c r="U55" s="126"/>
-      <c r="V55" s="126"/>
-      <c r="W55" s="126"/>
-      <c r="X55" s="126"/>
-      <c r="Y55" s="126"/>
-      <c r="Z55" s="126"/>
+        <v>9</v>
+      </c>
+      <c r="I55" s="125" t="n">
+        <v>2</v>
+      </c>
+      <c r="J55" s="128"/>
+      <c r="K55" s="128"/>
+      <c r="L55" s="128"/>
+      <c r="M55" s="128"/>
+      <c r="N55" s="128"/>
+      <c r="O55" s="128"/>
+      <c r="P55" s="128"/>
+      <c r="Q55" s="128"/>
+      <c r="R55" s="128"/>
+      <c r="S55" s="128"/>
+      <c r="T55" s="128"/>
+      <c r="U55" s="128"/>
+      <c r="V55" s="128"/>
+      <c r="W55" s="128"/>
+      <c r="X55" s="128"/>
+      <c r="Y55" s="128"/>
+      <c r="Z55" s="128"/>
     </row>
     <row r="56" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="124" t="s">
-        <v>687</v>
+        <v>683</v>
       </c>
       <c r="B56" s="125" t="n">
-        <f aca="false">COUNTIF(G50:BA50,"&lt;&gt;")</f>
-        <v>6</v>
+        <f aca="false">COUNTIF(G56:BA56,"&lt;&gt;")</f>
+        <v>1</v>
       </c>
       <c r="C56" s="125" t="n">
-        <f aca="false">COUNTIF(G50:BB50,"1")</f>
-        <v>3</v>
+        <f aca="false">COUNTIF(G56:BB56,"1")</f>
+        <v>0</v>
       </c>
       <c r="D56" s="125" t="n">
-        <f aca="false">COUNTIF(G50:BC50,"2")</f>
-        <v>1</v>
+        <f aca="false">COUNTIF(G56:BC56,"2")</f>
+        <v>0</v>
       </c>
       <c r="E56" s="125" t="n">
-        <f aca="false">COUNTIF(G50:BD50,"3")</f>
+        <f aca="false">COUNTIF(G56:BD56,"3")</f>
         <v>0</v>
       </c>
       <c r="F56" s="125" t="n">
-        <f aca="false">COUNTIF(G50:BC50,"*last*")</f>
+        <f aca="false">COUNTIF(G56:BC56,"*last*")</f>
         <v>0</v>
       </c>
       <c r="G56" s="126"/>
-      <c r="H56" s="126"/>
-      <c r="I56" s="126"/>
-      <c r="J56" s="125" t="s">
-        <v>695</v>
-      </c>
-      <c r="K56" s="126"/>
-      <c r="L56" s="126"/>
-      <c r="M56" s="127"/>
-      <c r="N56" s="127"/>
-      <c r="O56" s="126"/>
-      <c r="P56" s="126"/>
-      <c r="Q56" s="126"/>
-      <c r="R56" s="126"/>
-      <c r="S56" s="126"/>
-      <c r="T56" s="126"/>
-      <c r="U56" s="126"/>
-      <c r="V56" s="126"/>
-      <c r="W56" s="126"/>
-      <c r="X56" s="126"/>
-      <c r="Y56" s="126"/>
-      <c r="Z56" s="126"/>
+      <c r="H56" s="125" t="n">
+        <v>4</v>
+      </c>
+      <c r="I56" s="128"/>
+      <c r="J56" s="128"/>
+      <c r="K56" s="128"/>
+      <c r="L56" s="128"/>
+      <c r="M56" s="126"/>
+      <c r="N56" s="126"/>
+      <c r="O56" s="128"/>
+      <c r="P56" s="128"/>
+      <c r="Q56" s="128"/>
+      <c r="R56" s="128"/>
+      <c r="S56" s="128"/>
+      <c r="T56" s="128"/>
+      <c r="U56" s="128"/>
+      <c r="V56" s="128"/>
+      <c r="W56" s="128"/>
+      <c r="X56" s="128"/>
+      <c r="Y56" s="128"/>
+      <c r="Z56" s="128"/>
     </row>
     <row r="57" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="124" t="s">
-        <v>251</v>
+        <v>687</v>
       </c>
       <c r="B57" s="125" t="n">
-        <f aca="false">COUNTIF(G51:BA51,"&lt;&gt;")</f>
-        <v>3</v>
+        <f aca="false">COUNTIF(G57:BA57,"&lt;&gt;")</f>
+        <v>1</v>
       </c>
       <c r="C57" s="125" t="n">
-        <f aca="false">COUNTIF(G51:BB51,"1")</f>
+        <f aca="false">COUNTIF(G57:BB57,"1")</f>
         <v>0</v>
       </c>
       <c r="D57" s="125" t="n">
-        <f aca="false">COUNTIF(G51:BC51,"2")</f>
+        <f aca="false">COUNTIF(G57:BC57,"2")</f>
         <v>0</v>
       </c>
       <c r="E57" s="125" t="n">
-        <f aca="false">COUNTIF(G51:BD51,"3")</f>
+        <f aca="false">COUNTIF(G57:BD57,"3")</f>
         <v>0</v>
       </c>
       <c r="F57" s="125" t="n">
-        <f aca="false">COUNTIF(G51:BC51,"*last*")</f>
-        <v>0</v>
-      </c>
-      <c r="G57" s="126"/>
-      <c r="H57" s="126"/>
-      <c r="I57" s="126"/>
-      <c r="J57" s="126"/>
-      <c r="K57" s="126"/>
-      <c r="L57" s="126"/>
+        <f aca="false">COUNTIF(G57:BC57,"*last*")</f>
+        <v>1</v>
+      </c>
+      <c r="G57" s="128"/>
+      <c r="H57" s="128"/>
+      <c r="I57" s="128"/>
+      <c r="J57" s="125" t="s">
+        <v>696</v>
+      </c>
+      <c r="K57" s="128"/>
+      <c r="L57" s="128"/>
       <c r="M57" s="126"/>
       <c r="N57" s="126"/>
-      <c r="O57" s="126"/>
-      <c r="P57" s="126"/>
-      <c r="Q57" s="126"/>
-      <c r="R57" s="126"/>
-      <c r="S57" s="126"/>
-      <c r="T57" s="126"/>
-      <c r="U57" s="126"/>
-      <c r="V57" s="126"/>
-      <c r="W57" s="126"/>
-      <c r="X57" s="125" t="n">
-        <v>12</v>
-      </c>
-      <c r="Y57" s="125" t="n">
-        <v>9</v>
-      </c>
-      <c r="Z57" s="125" t="s">
-        <v>696</v>
-      </c>
+      <c r="O57" s="128"/>
+      <c r="P57" s="128"/>
+      <c r="Q57" s="128"/>
+      <c r="R57" s="128"/>
+      <c r="S57" s="128"/>
+      <c r="T57" s="128"/>
+      <c r="U57" s="128"/>
+      <c r="V57" s="128"/>
+      <c r="W57" s="128"/>
+      <c r="X57" s="128"/>
+      <c r="Y57" s="128"/>
+      <c r="Z57" s="128"/>
     </row>
     <row r="58" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="124" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="B58" s="125" t="n">
-        <f aca="false">COUNTIF(G52:BA52,"&lt;&gt;")</f>
-        <v>3</v>
+        <f aca="false">COUNTIF(G58:BA58,"&lt;&gt;")</f>
+        <v>0</v>
       </c>
       <c r="C58" s="125" t="n">
-        <f aca="false">COUNTIF(G52:BB52,"1")</f>
+        <f aca="false">COUNTIF(G58:BB58,"1")</f>
         <v>0</v>
       </c>
       <c r="D58" s="125" t="n">
-        <f aca="false">COUNTIF(G52:BC52,"2")</f>
+        <f aca="false">COUNTIF(G58:BC58,"2")</f>
         <v>0</v>
       </c>
       <c r="E58" s="125" t="n">
-        <f aca="false">COUNTIF(G52:BD52,"3")</f>
+        <f aca="false">COUNTIF(G58:BD58,"3")</f>
         <v>0</v>
       </c>
       <c r="F58" s="125" t="n">
-        <f aca="false">COUNTIF(G52:BC52,"*last*")</f>
-        <v>1</v>
-      </c>
-      <c r="G58" s="126"/>
-      <c r="H58" s="126"/>
-      <c r="I58" s="126"/>
-      <c r="J58" s="126"/>
-      <c r="K58" s="126"/>
-      <c r="L58" s="126"/>
-      <c r="M58" s="126"/>
-      <c r="N58" s="126"/>
-      <c r="O58" s="126"/>
-      <c r="P58" s="126"/>
-      <c r="Q58" s="126"/>
-      <c r="R58" s="126"/>
-      <c r="S58" s="126"/>
-      <c r="T58" s="126"/>
-      <c r="U58" s="126"/>
-      <c r="V58" s="126"/>
-      <c r="W58" s="126"/>
-      <c r="X58" s="126"/>
-      <c r="Y58" s="126"/>
-      <c r="Z58" s="126"/>
+        <f aca="false">COUNTIF(G58:BC58,"*last*")</f>
+        <v>0</v>
+      </c>
+      <c r="G58" s="128"/>
+      <c r="H58" s="128"/>
+      <c r="I58" s="128"/>
+      <c r="J58" s="128"/>
+      <c r="K58" s="128"/>
+      <c r="L58" s="128"/>
+      <c r="M58" s="128"/>
+      <c r="N58" s="128"/>
+      <c r="O58" s="128"/>
+      <c r="P58" s="128"/>
+      <c r="Q58" s="128"/>
+      <c r="R58" s="128"/>
+      <c r="S58" s="128"/>
+      <c r="T58" s="128"/>
+      <c r="U58" s="128"/>
+      <c r="V58" s="128"/>
+      <c r="W58" s="128"/>
+      <c r="X58" s="128"/>
+      <c r="Y58" s="128"/>
+      <c r="Z58" s="128"/>
     </row>
     <row r="59" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="124" t="s">
-        <v>307</v>
+        <v>310</v>
       </c>
       <c r="B59" s="125" t="n">
-        <f aca="false">COUNTIF(G53:BA53,"&lt;&gt;")</f>
-        <v>5</v>
+        <f aca="false">COUNTIF(G59:BA59,"&lt;&gt;")</f>
+        <v>0</v>
       </c>
       <c r="C59" s="125" t="n">
-        <f aca="false">COUNTIF(G53:BB53,"1")</f>
+        <f aca="false">COUNTIF(G59:BB59,"1")</f>
         <v>0</v>
       </c>
       <c r="D59" s="125" t="n">
-        <f aca="false">COUNTIF(G53:BC53,"2")</f>
+        <f aca="false">COUNTIF(G59:BC59,"2")</f>
         <v>0</v>
       </c>
       <c r="E59" s="125" t="n">
-        <f aca="false">COUNTIF(G53:BD53,"3")</f>
+        <f aca="false">COUNTIF(G59:BD59,"3")</f>
         <v>0</v>
       </c>
       <c r="F59" s="125" t="n">
-        <f aca="false">COUNTIF(G53:BC53,"*last*")</f>
-        <v>1</v>
-      </c>
-      <c r="G59" s="126"/>
-      <c r="H59" s="126"/>
-      <c r="I59" s="126"/>
-      <c r="J59" s="126"/>
-      <c r="K59" s="126"/>
-      <c r="L59" s="126"/>
-      <c r="M59" s="126"/>
-      <c r="N59" s="126"/>
-      <c r="O59" s="126"/>
-      <c r="P59" s="126"/>
-      <c r="Q59" s="126"/>
-      <c r="R59" s="126"/>
-      <c r="S59" s="126"/>
-      <c r="T59" s="126"/>
-      <c r="U59" s="126"/>
-      <c r="V59" s="126"/>
-      <c r="W59" s="126"/>
-      <c r="X59" s="126"/>
-      <c r="Y59" s="126"/>
-      <c r="Z59" s="126"/>
+        <f aca="false">COUNTIF(G59:BC59,"*last*")</f>
+        <v>0</v>
+      </c>
+      <c r="G59" s="128"/>
+      <c r="H59" s="128"/>
+      <c r="I59" s="128"/>
+      <c r="J59" s="128"/>
+      <c r="K59" s="128"/>
+      <c r="L59" s="128"/>
+      <c r="M59" s="128"/>
+      <c r="N59" s="128"/>
+      <c r="O59" s="128"/>
+      <c r="P59" s="128"/>
+      <c r="Q59" s="128"/>
+      <c r="R59" s="128"/>
+      <c r="S59" s="128"/>
+      <c r="T59" s="128"/>
+      <c r="U59" s="128"/>
+      <c r="V59" s="128"/>
+      <c r="W59" s="128"/>
+      <c r="X59" s="128"/>
+      <c r="Y59" s="128"/>
+      <c r="Z59" s="128"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -14118,7 +14116,7 @@
   </sheetPr>
   <dimension ref="A1:E53"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="55" zoomScaleNormal="55" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="E33" activeCellId="0" sqref="E33"/>
     </sheetView>
   </sheetViews>
@@ -14680,7 +14678,7 @@
   </sheetPr>
   <dimension ref="A1:X105"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="L1" colorId="64" zoomScale="55" zoomScaleNormal="55" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="L1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="T3" activeCellId="0" sqref="T3"/>
     </sheetView>
   </sheetViews>
@@ -16795,7 +16793,7 @@
   </sheetPr>
   <dimension ref="A1:W42"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="55" zoomScaleNormal="55" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="K31" activeCellId="0" sqref="K31"/>
     </sheetView>
   </sheetViews>
@@ -19067,7 +19065,7 @@
   </sheetPr>
   <dimension ref="A1:E26"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="55" zoomScaleNormal="55" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="E25" activeCellId="0" sqref="E25"/>
     </sheetView>
   </sheetViews>
@@ -19244,7 +19242,7 @@
   </sheetPr>
   <dimension ref="A1:A51"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="55" zoomScaleNormal="55" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
@@ -19441,7 +19439,7 @@
   </sheetPr>
   <dimension ref="A1:AM17"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="K1" colorId="64" zoomScale="55" zoomScaleNormal="55" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="K1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="AD14" activeCellId="0" sqref="AD14"/>
     </sheetView>
   </sheetViews>
@@ -19463,7 +19461,7 @@
       </c>
       <c r="B1" s="0" t="n">
         <f aca="true">RAND()*100</f>
-        <v>2.55675854385492</v>
+        <v>76.0518163930504</v>
       </c>
       <c r="AA1" s="0" t="s">
         <v>356</v>
@@ -19511,7 +19509,7 @@
       </c>
       <c r="B2" s="0" t="n">
         <f aca="true">RAND()*100</f>
-        <v>35.3819856766353</v>
+        <v>53.1011021488601</v>
       </c>
       <c r="AB2" s="0" t="s">
         <v>175</v>
@@ -19556,7 +19554,7 @@
       </c>
       <c r="B3" s="0" t="n">
         <f aca="true">RAND()*100</f>
-        <v>64.3220610376793</v>
+        <v>3.29780781348404</v>
       </c>
       <c r="AC3" s="0" t="s">
         <v>355</v>
@@ -19850,7 +19848,7 @@
   </sheetPr>
   <dimension ref="A1:W42"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="55" zoomScaleNormal="55" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="E3" activeCellId="0" sqref="E3"/>
     </sheetView>
   </sheetViews>
@@ -22885,7 +22883,7 @@
   </sheetPr>
   <dimension ref="A1:M24"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="55" zoomScaleNormal="55" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="C23" activeCellId="0" sqref="C23"/>
     </sheetView>
   </sheetViews>
